--- a/Project Files/Forms System (SHS)/templates/shs_sf4.xlsx
+++ b/Project Files/Forms System (SHS)/templates/shs_sf4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CBNHS System\Project Files\Forms System Final\exports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark Bangcaya\Documents\GitHub\CBNHS-System-SHS\Project Files\Forms System (SHS)\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{156520F0-6F83-42D5-9A15-29C9DFBA1E1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F83DE2-C501-45F8-85E1-486B7F90F1BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150"/>
+    <workbookView xWindow="-2310" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10_Sections (0)" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="37">
   <si>
     <t>Grade Level</t>
   </si>
@@ -147,12 +147,15 @@
   <si>
     <t>Generated thru LIS</t>
   </si>
+  <si>
+    <t>Semester</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +219,12 @@
       <b/>
       <sz val="9"/>
       <name val="SansSerif"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -737,7 +746,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -820,36 +829,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -860,22 +892,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1">
@@ -902,69 +946,46 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Mah Style" xfId="1"/>
+    <cellStyle name="Mah Style" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1790,14 +1811,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AM31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ6" sqref="AJ6:AM6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6:U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1812,337 +1833,344 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="23.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
     </row>
     <row r="2" spans="1:39" s="3" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
     </row>
     <row r="3" spans="1:39" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1">
       <c r="C4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="61" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
-      <c r="N4" s="62" t="s">
+      <c r="I4" s="38"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="42"/>
+      <c r="N4" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="61" t="s">
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="48"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="42"/>
     </row>
     <row r="5" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
-      <c r="V6" s="62" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="42"/>
+      <c r="Q6" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="46"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="61" t="s">
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="61"/>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="48"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="39"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="40"/>
+      <c r="AK6" s="41"/>
+      <c r="AL6" s="41"/>
+      <c r="AM6" s="42"/>
     </row>
     <row r="7" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="8" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="43" t="s">
+      <c r="E8" s="66"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="43" t="s">
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="43" t="s">
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="43" t="s">
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="51"/>
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="51"/>
+      <c r="AD8" s="52"/>
+      <c r="AE8" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="44"/>
-      <c r="AM8" s="45"/>
+      <c r="AF8" s="51"/>
+      <c r="AG8" s="51"/>
+      <c r="AH8" s="51"/>
+      <c r="AI8" s="51"/>
+      <c r="AJ8" s="51"/>
+      <c r="AK8" s="51"/>
+      <c r="AL8" s="51"/>
+      <c r="AM8" s="52"/>
     </row>
     <row r="9" spans="1:39" ht="45.6" customHeight="1" thickBot="1">
-      <c r="A9" s="74"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="46" t="s">
+      <c r="A9" s="61"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="46" t="s">
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="76"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="79" t="s">
+      <c r="K9" s="56"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="76"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="46" t="s">
+      <c r="N9" s="56"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="46" t="s">
+      <c r="Q9" s="56"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="76"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="79" t="s">
+      <c r="T9" s="56"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="76"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="46" t="s">
+      <c r="W9" s="56"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="46" t="s">
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="79" t="s">
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="78"/>
-      <c r="AH9" s="46" t="s">
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="78"/>
-      <c r="AK9" s="46" t="s">
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="58"/>
+      <c r="AK9" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="AL9" s="76"/>
-      <c r="AM9" s="78"/>
+      <c r="AL9" s="56"/>
+      <c r="AM9" s="58"/>
     </row>
     <row r="10" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="22" t="s">
         <v>11</v>
       </c>
@@ -2152,16 +2180,16 @@
       <c r="F10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="71" t="s">
+      <c r="H10" s="37" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="70" t="s">
+      <c r="J10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="23" t="s">
@@ -2170,82 +2198,82 @@
       <c r="L10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="70" t="s">
+      <c r="M10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="71" t="s">
+      <c r="O10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="70" t="s">
+      <c r="Q10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="71" t="s">
+      <c r="R10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="S10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="70" t="s">
+      <c r="T10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="U10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="70" t="s">
+      <c r="V10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="W10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="71" t="s">
+      <c r="X10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="Y10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Z10" s="70" t="s">
+      <c r="Z10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AA10" s="71" t="s">
+      <c r="AA10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AB10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AC10" s="70" t="s">
+      <c r="AC10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AD10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AE10" s="70" t="s">
+      <c r="AE10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="AF10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AG10" s="71" t="s">
+      <c r="AG10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AH10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AI10" s="70" t="s">
+      <c r="AI10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AJ10" s="71" t="s">
+      <c r="AJ10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AK10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AL10" s="70" t="s">
+      <c r="AL10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AM10" s="24" t="s">
@@ -2256,52 +2284,52 @@
       <c r="A11" s="7"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="66"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="67"/>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="67"/>
-      <c r="AL11" s="66"/>
-      <c r="AM11" s="68"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="32"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="34"/>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="8" t="s">
@@ -2887,11 +2915,11 @@
       <c r="AM20" s="8"/>
     </row>
     <row r="21" spans="1:39" ht="29.45" customHeight="1" thickBot="1">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="28"/>
       <c r="E21" s="29"/>
       <c r="F21" s="18"/>
@@ -2930,11 +2958,11 @@
       <c r="AM21" s="18"/>
     </row>
     <row r="22" spans="1:39" ht="30.6" customHeight="1" thickBot="1">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="30"/>
       <c r="E22" s="31"/>
       <c r="F22" s="18"/>
@@ -2973,11 +3001,11 @@
       <c r="AM22" s="18"/>
     </row>
     <row r="23" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="28"/>
       <c r="E23" s="29"/>
       <c r="F23" s="18"/>
@@ -3016,11 +3044,11 @@
       <c r="AM23" s="18"/>
     </row>
     <row r="24" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
       <c r="F24" s="18"/>
@@ -3059,11 +3087,11 @@
       <c r="AM24" s="18"/>
     </row>
     <row r="25" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
       <c r="D25" s="28"/>
       <c r="E25" s="29"/>
       <c r="F25" s="18"/>
@@ -3102,11 +3130,11 @@
       <c r="AM25" s="18"/>
     </row>
     <row r="26" spans="1:39" ht="31.9" customHeight="1" thickBot="1">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="80"/>
       <c r="D26" s="28"/>
       <c r="E26" s="29"/>
       <c r="F26" s="18"/>
@@ -3145,21 +3173,21 @@
       <c r="AM26" s="18"/>
     </row>
     <row r="29" spans="1:39">
-      <c r="O29" s="49" t="s">
+      <c r="O29" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="33"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="74"/>
+      <c r="S29" s="74"/>
+      <c r="T29" s="74"/>
+      <c r="U29" s="74"/>
+      <c r="V29" s="74"/>
+      <c r="W29" s="74"/>
+      <c r="X29" s="74"/>
+      <c r="Y29" s="74"/>
+      <c r="Z29" s="74"/>
+      <c r="AA29" s="74"/>
       <c r="AB29" s="21"/>
       <c r="AC29" s="21"/>
       <c r="AD29" s="21"/>
@@ -3174,65 +3202,65 @@
       <c r="AM29" s="21"/>
     </row>
     <row r="30" spans="1:39" ht="15.75" thickBot="1">
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="50"/>
-      <c r="Z30" s="50"/>
-      <c r="AA30" s="50"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="82"/>
+      <c r="Q30" s="82"/>
+      <c r="R30" s="82"/>
+      <c r="S30" s="82"/>
+      <c r="T30" s="82"/>
+      <c r="U30" s="82"/>
+      <c r="V30" s="82"/>
+      <c r="W30" s="82"/>
+      <c r="X30" s="82"/>
+      <c r="Y30" s="82"/>
+      <c r="Z30" s="82"/>
+      <c r="AA30" s="82"/>
       <c r="AB30" s="21"/>
       <c r="AC30" s="21"/>
-      <c r="AD30" s="42"/>
-      <c r="AE30" s="42"/>
-      <c r="AF30" s="42"/>
-      <c r="AG30" s="42"/>
-      <c r="AH30" s="42"/>
-      <c r="AI30" s="42"/>
-      <c r="AJ30" s="42"/>
-      <c r="AK30" s="42"/>
-      <c r="AL30" s="42"/>
-      <c r="AM30" s="42"/>
+      <c r="AD30" s="83"/>
+      <c r="AE30" s="83"/>
+      <c r="AF30" s="83"/>
+      <c r="AG30" s="83"/>
+      <c r="AH30" s="83"/>
+      <c r="AI30" s="83"/>
+      <c r="AJ30" s="83"/>
+      <c r="AK30" s="83"/>
+      <c r="AL30" s="83"/>
+      <c r="AM30" s="83"/>
     </row>
     <row r="31" spans="1:39">
-      <c r="O31" s="32" t="s">
+      <c r="O31" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="33"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="33"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="74"/>
+      <c r="S31" s="74"/>
+      <c r="T31" s="74"/>
+      <c r="U31" s="74"/>
+      <c r="V31" s="74"/>
+      <c r="W31" s="74"/>
+      <c r="X31" s="74"/>
+      <c r="Y31" s="74"/>
+      <c r="Z31" s="74"/>
+      <c r="AA31" s="74"/>
       <c r="AB31" s="21"/>
       <c r="AC31" s="21"/>
-      <c r="AD31" s="34" t="s">
+      <c r="AD31" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="AE31" s="34"/>
-      <c r="AF31" s="34"/>
-      <c r="AG31" s="34"/>
-      <c r="AH31" s="34"/>
-      <c r="AI31" s="34"/>
-      <c r="AJ31" s="34"/>
-      <c r="AK31" s="34"/>
-      <c r="AL31" s="34"/>
-      <c r="AM31" s="34"/>
+      <c r="AE31" s="75"/>
+      <c r="AF31" s="75"/>
+      <c r="AG31" s="75"/>
+      <c r="AH31" s="75"/>
+      <c r="AI31" s="75"/>
+      <c r="AJ31" s="75"/>
+      <c r="AK31" s="75"/>
+      <c r="AL31" s="75"/>
+      <c r="AM31" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="48">
     <mergeCell ref="O31:AA31"/>
     <mergeCell ref="AD31:AM31"/>
     <mergeCell ref="A24:C24"/>
@@ -3279,6 +3307,8 @@
     <mergeCell ref="Q4:U4"/>
     <mergeCell ref="V4:X4"/>
     <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:U6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -3287,14 +3317,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AM41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="Q6" sqref="Q6:U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3309,337 +3339,344 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="23.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
     </row>
     <row r="2" spans="1:39" s="3" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
     </row>
     <row r="3" spans="1:39" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1">
       <c r="C4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="61" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
-      <c r="N4" s="62" t="s">
+      <c r="I4" s="38"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="42"/>
+      <c r="N4" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="61" t="s">
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="48"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="42"/>
     </row>
     <row r="5" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
-      <c r="V6" s="62" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="42"/>
+      <c r="Q6" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="46"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="61" t="s">
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="61"/>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="48"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="39"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="40"/>
+      <c r="AK6" s="41"/>
+      <c r="AL6" s="41"/>
+      <c r="AM6" s="42"/>
     </row>
     <row r="7" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="8" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="43" t="s">
+      <c r="E8" s="66"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="43" t="s">
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="43" t="s">
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="43" t="s">
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="51"/>
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="51"/>
+      <c r="AD8" s="52"/>
+      <c r="AE8" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="44"/>
-      <c r="AM8" s="45"/>
+      <c r="AF8" s="51"/>
+      <c r="AG8" s="51"/>
+      <c r="AH8" s="51"/>
+      <c r="AI8" s="51"/>
+      <c r="AJ8" s="51"/>
+      <c r="AK8" s="51"/>
+      <c r="AL8" s="51"/>
+      <c r="AM8" s="52"/>
     </row>
     <row r="9" spans="1:39" ht="45.6" customHeight="1" thickBot="1">
-      <c r="A9" s="74"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="46" t="s">
+      <c r="A9" s="61"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="46" t="s">
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="76"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="79" t="s">
+      <c r="K9" s="56"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="76"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="46" t="s">
+      <c r="N9" s="56"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="46" t="s">
+      <c r="Q9" s="56"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="76"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="79" t="s">
+      <c r="T9" s="56"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="76"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="46" t="s">
+      <c r="W9" s="56"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="46" t="s">
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="79" t="s">
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="78"/>
-      <c r="AH9" s="46" t="s">
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="78"/>
-      <c r="AK9" s="46" t="s">
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="58"/>
+      <c r="AK9" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="AL9" s="76"/>
-      <c r="AM9" s="78"/>
+      <c r="AL9" s="56"/>
+      <c r="AM9" s="58"/>
     </row>
     <row r="10" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="22" t="s">
         <v>11</v>
       </c>
@@ -3649,16 +3686,16 @@
       <c r="F10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="71" t="s">
+      <c r="H10" s="37" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="70" t="s">
+      <c r="J10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="23" t="s">
@@ -3667,82 +3704,82 @@
       <c r="L10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="70" t="s">
+      <c r="M10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="71" t="s">
+      <c r="O10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="70" t="s">
+      <c r="Q10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="71" t="s">
+      <c r="R10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="S10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="70" t="s">
+      <c r="T10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="U10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="70" t="s">
+      <c r="V10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="W10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="71" t="s">
+      <c r="X10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="Y10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Z10" s="70" t="s">
+      <c r="Z10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AA10" s="71" t="s">
+      <c r="AA10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AB10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AC10" s="70" t="s">
+      <c r="AC10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AD10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AE10" s="70" t="s">
+      <c r="AE10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="AF10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AG10" s="71" t="s">
+      <c r="AG10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AH10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AI10" s="70" t="s">
+      <c r="AI10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AJ10" s="71" t="s">
+      <c r="AJ10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AK10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AL10" s="70" t="s">
+      <c r="AL10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AM10" s="24" t="s">
@@ -3753,52 +3790,52 @@
       <c r="A11" s="7"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="66"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="67"/>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="67"/>
-      <c r="AL11" s="66"/>
-      <c r="AM11" s="68"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="32"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="34"/>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="8" t="s">
@@ -4914,11 +4951,11 @@
       <c r="AM30" s="8"/>
     </row>
     <row r="31" spans="1:39" ht="29.45" customHeight="1" thickBot="1">
-      <c r="A31" s="72" t="s">
+      <c r="A31" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="28"/>
       <c r="E31" s="29"/>
       <c r="F31" s="18"/>
@@ -4957,11 +4994,11 @@
       <c r="AM31" s="18"/>
     </row>
     <row r="32" spans="1:39" ht="30.6" customHeight="1" thickBot="1">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="30"/>
       <c r="E32" s="31"/>
       <c r="F32" s="18"/>
@@ -5000,11 +5037,11 @@
       <c r="AM32" s="18"/>
     </row>
     <row r="33" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="28"/>
       <c r="E33" s="29"/>
       <c r="F33" s="18"/>
@@ -5043,11 +5080,11 @@
       <c r="AM33" s="18"/>
     </row>
     <row r="34" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
       <c r="F34" s="18"/>
@@ -5086,11 +5123,11 @@
       <c r="AM34" s="18"/>
     </row>
     <row r="35" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
       <c r="D35" s="28"/>
       <c r="E35" s="29"/>
       <c r="F35" s="18"/>
@@ -5129,11 +5166,11 @@
       <c r="AM35" s="18"/>
     </row>
     <row r="36" spans="1:39" ht="31.9" customHeight="1" thickBot="1">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="41"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="80"/>
       <c r="D36" s="28"/>
       <c r="E36" s="29"/>
       <c r="F36" s="18"/>
@@ -5172,21 +5209,21 @@
       <c r="AM36" s="18"/>
     </row>
     <row r="39" spans="1:39">
-      <c r="O39" s="49" t="s">
+      <c r="O39" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="33"/>
-      <c r="U39" s="33"/>
-      <c r="V39" s="33"/>
-      <c r="W39" s="33"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="33"/>
-      <c r="Z39" s="33"/>
-      <c r="AA39" s="33"/>
+      <c r="P39" s="74"/>
+      <c r="Q39" s="74"/>
+      <c r="R39" s="74"/>
+      <c r="S39" s="74"/>
+      <c r="T39" s="74"/>
+      <c r="U39" s="74"/>
+      <c r="V39" s="74"/>
+      <c r="W39" s="74"/>
+      <c r="X39" s="74"/>
+      <c r="Y39" s="74"/>
+      <c r="Z39" s="74"/>
+      <c r="AA39" s="74"/>
       <c r="AB39" s="21"/>
       <c r="AC39" s="21"/>
       <c r="AD39" s="21"/>
@@ -5201,65 +5238,65 @@
       <c r="AM39" s="21"/>
     </row>
     <row r="40" spans="1:39" ht="15.75" thickBot="1">
-      <c r="O40" s="50"/>
-      <c r="P40" s="50"/>
-      <c r="Q40" s="50"/>
-      <c r="R40" s="50"/>
-      <c r="S40" s="50"/>
-      <c r="T40" s="50"/>
-      <c r="U40" s="50"/>
-      <c r="V40" s="50"/>
-      <c r="W40" s="50"/>
-      <c r="X40" s="50"/>
-      <c r="Y40" s="50"/>
-      <c r="Z40" s="50"/>
-      <c r="AA40" s="50"/>
+      <c r="O40" s="82"/>
+      <c r="P40" s="82"/>
+      <c r="Q40" s="82"/>
+      <c r="R40" s="82"/>
+      <c r="S40" s="82"/>
+      <c r="T40" s="82"/>
+      <c r="U40" s="82"/>
+      <c r="V40" s="82"/>
+      <c r="W40" s="82"/>
+      <c r="X40" s="82"/>
+      <c r="Y40" s="82"/>
+      <c r="Z40" s="82"/>
+      <c r="AA40" s="82"/>
       <c r="AB40" s="21"/>
       <c r="AC40" s="21"/>
-      <c r="AD40" s="42"/>
-      <c r="AE40" s="42"/>
-      <c r="AF40" s="42"/>
-      <c r="AG40" s="42"/>
-      <c r="AH40" s="42"/>
-      <c r="AI40" s="42"/>
-      <c r="AJ40" s="42"/>
-      <c r="AK40" s="42"/>
-      <c r="AL40" s="42"/>
-      <c r="AM40" s="42"/>
+      <c r="AD40" s="83"/>
+      <c r="AE40" s="83"/>
+      <c r="AF40" s="83"/>
+      <c r="AG40" s="83"/>
+      <c r="AH40" s="83"/>
+      <c r="AI40" s="83"/>
+      <c r="AJ40" s="83"/>
+      <c r="AK40" s="83"/>
+      <c r="AL40" s="83"/>
+      <c r="AM40" s="83"/>
     </row>
     <row r="41" spans="1:39">
-      <c r="O41" s="32" t="s">
+      <c r="O41" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="33"/>
-      <c r="U41" s="33"/>
-      <c r="V41" s="33"/>
-      <c r="W41" s="33"/>
-      <c r="X41" s="33"/>
-      <c r="Y41" s="33"/>
-      <c r="Z41" s="33"/>
-      <c r="AA41" s="33"/>
+      <c r="P41" s="74"/>
+      <c r="Q41" s="74"/>
+      <c r="R41" s="74"/>
+      <c r="S41" s="74"/>
+      <c r="T41" s="74"/>
+      <c r="U41" s="74"/>
+      <c r="V41" s="74"/>
+      <c r="W41" s="74"/>
+      <c r="X41" s="74"/>
+      <c r="Y41" s="74"/>
+      <c r="Z41" s="74"/>
+      <c r="AA41" s="74"/>
       <c r="AB41" s="21"/>
       <c r="AC41" s="21"/>
-      <c r="AD41" s="34" t="s">
+      <c r="AD41" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="AE41" s="34"/>
-      <c r="AF41" s="34"/>
-      <c r="AG41" s="34"/>
-      <c r="AH41" s="34"/>
-      <c r="AI41" s="34"/>
-      <c r="AJ41" s="34"/>
-      <c r="AK41" s="34"/>
-      <c r="AL41" s="34"/>
-      <c r="AM41" s="34"/>
+      <c r="AE41" s="75"/>
+      <c r="AF41" s="75"/>
+      <c r="AG41" s="75"/>
+      <c r="AH41" s="75"/>
+      <c r="AI41" s="75"/>
+      <c r="AJ41" s="75"/>
+      <c r="AK41" s="75"/>
+      <c r="AL41" s="75"/>
+      <c r="AM41" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="48">
     <mergeCell ref="O41:AA41"/>
     <mergeCell ref="AD41:AM41"/>
     <mergeCell ref="A34:C34"/>
@@ -5294,6 +5331,8 @@
     <mergeCell ref="C6:O6"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="Y6:AB6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:U6"/>
     <mergeCell ref="AC6:AI6"/>
     <mergeCell ref="AJ6:AM6"/>
     <mergeCell ref="A1:AM1"/>
@@ -5314,14 +5353,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AM51"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="Q6" sqref="Q6:U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5336,337 +5375,344 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="23.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
     </row>
     <row r="2" spans="1:39" s="3" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
     </row>
     <row r="3" spans="1:39" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1">
       <c r="C4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="61" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
-      <c r="N4" s="62" t="s">
+      <c r="I4" s="38"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="42"/>
+      <c r="N4" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="61" t="s">
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="48"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="42"/>
     </row>
     <row r="5" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
-      <c r="V6" s="62" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="42"/>
+      <c r="Q6" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="46"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="61" t="s">
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="61"/>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="48"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="39"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="40"/>
+      <c r="AK6" s="41"/>
+      <c r="AL6" s="41"/>
+      <c r="AM6" s="42"/>
     </row>
     <row r="7" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="8" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="43" t="s">
+      <c r="E8" s="66"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="43" t="s">
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="43" t="s">
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="43" t="s">
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="51"/>
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="51"/>
+      <c r="AD8" s="52"/>
+      <c r="AE8" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="44"/>
-      <c r="AM8" s="45"/>
+      <c r="AF8" s="51"/>
+      <c r="AG8" s="51"/>
+      <c r="AH8" s="51"/>
+      <c r="AI8" s="51"/>
+      <c r="AJ8" s="51"/>
+      <c r="AK8" s="51"/>
+      <c r="AL8" s="51"/>
+      <c r="AM8" s="52"/>
     </row>
     <row r="9" spans="1:39" ht="45.6" customHeight="1" thickBot="1">
-      <c r="A9" s="74"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="46" t="s">
+      <c r="A9" s="61"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="46" t="s">
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="76"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="79" t="s">
+      <c r="K9" s="56"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="76"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="46" t="s">
+      <c r="N9" s="56"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="46" t="s">
+      <c r="Q9" s="56"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="76"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="79" t="s">
+      <c r="T9" s="56"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="76"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="46" t="s">
+      <c r="W9" s="56"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="46" t="s">
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="79" t="s">
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="78"/>
-      <c r="AH9" s="46" t="s">
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="78"/>
-      <c r="AK9" s="46" t="s">
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="58"/>
+      <c r="AK9" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="AL9" s="76"/>
-      <c r="AM9" s="78"/>
+      <c r="AL9" s="56"/>
+      <c r="AM9" s="58"/>
     </row>
     <row r="10" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="22" t="s">
         <v>11</v>
       </c>
@@ -5676,16 +5722,16 @@
       <c r="F10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="71" t="s">
+      <c r="H10" s="37" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="70" t="s">
+      <c r="J10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="23" t="s">
@@ -5694,82 +5740,82 @@
       <c r="L10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="70" t="s">
+      <c r="M10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="71" t="s">
+      <c r="O10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="70" t="s">
+      <c r="Q10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="71" t="s">
+      <c r="R10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="S10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="70" t="s">
+      <c r="T10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="U10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="70" t="s">
+      <c r="V10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="W10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="71" t="s">
+      <c r="X10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="Y10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Z10" s="70" t="s">
+      <c r="Z10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AA10" s="71" t="s">
+      <c r="AA10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AB10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AC10" s="70" t="s">
+      <c r="AC10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AD10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AE10" s="70" t="s">
+      <c r="AE10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="AF10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AG10" s="71" t="s">
+      <c r="AG10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AH10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AI10" s="70" t="s">
+      <c r="AI10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AJ10" s="71" t="s">
+      <c r="AJ10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AK10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AL10" s="70" t="s">
+      <c r="AL10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AM10" s="24" t="s">
@@ -5780,52 +5826,52 @@
       <c r="A11" s="7"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="66"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="67"/>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="67"/>
-      <c r="AL11" s="66"/>
-      <c r="AM11" s="68"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="32"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="34"/>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="8" t="s">
@@ -7351,11 +7397,11 @@
       <c r="AM40" s="8"/>
     </row>
     <row r="41" spans="1:39" ht="29.45" customHeight="1" thickBot="1">
-      <c r="A41" s="72" t="s">
+      <c r="A41" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
       <c r="D41" s="28"/>
       <c r="E41" s="29"/>
       <c r="F41" s="18"/>
@@ -7394,11 +7440,11 @@
       <c r="AM41" s="18"/>
     </row>
     <row r="42" spans="1:39" ht="30.6" customHeight="1" thickBot="1">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
       <c r="D42" s="30"/>
       <c r="E42" s="31"/>
       <c r="F42" s="18"/>
@@ -7437,11 +7483,11 @@
       <c r="AM42" s="18"/>
     </row>
     <row r="43" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
       <c r="D43" s="28"/>
       <c r="E43" s="29"/>
       <c r="F43" s="18"/>
@@ -7480,11 +7526,11 @@
       <c r="AM43" s="18"/>
     </row>
     <row r="44" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
       <c r="D44" s="28"/>
       <c r="E44" s="29"/>
       <c r="F44" s="18"/>
@@ -7523,11 +7569,11 @@
       <c r="AM44" s="18"/>
     </row>
     <row r="45" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="77"/>
       <c r="D45" s="28"/>
       <c r="E45" s="29"/>
       <c r="F45" s="18"/>
@@ -7566,11 +7612,11 @@
       <c r="AM45" s="18"/>
     </row>
     <row r="46" spans="1:39" ht="31.9" customHeight="1" thickBot="1">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="40"/>
-      <c r="C46" s="41"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
       <c r="F46" s="18"/>
@@ -7609,21 +7655,21 @@
       <c r="AM46" s="18"/>
     </row>
     <row r="49" spans="15:39">
-      <c r="O49" s="49" t="s">
+      <c r="O49" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="33"/>
-      <c r="R49" s="33"/>
-      <c r="S49" s="33"/>
-      <c r="T49" s="33"/>
-      <c r="U49" s="33"/>
-      <c r="V49" s="33"/>
-      <c r="W49" s="33"/>
-      <c r="X49" s="33"/>
-      <c r="Y49" s="33"/>
-      <c r="Z49" s="33"/>
-      <c r="AA49" s="33"/>
+      <c r="P49" s="74"/>
+      <c r="Q49" s="74"/>
+      <c r="R49" s="74"/>
+      <c r="S49" s="74"/>
+      <c r="T49" s="74"/>
+      <c r="U49" s="74"/>
+      <c r="V49" s="74"/>
+      <c r="W49" s="74"/>
+      <c r="X49" s="74"/>
+      <c r="Y49" s="74"/>
+      <c r="Z49" s="74"/>
+      <c r="AA49" s="74"/>
       <c r="AB49" s="21"/>
       <c r="AC49" s="21"/>
       <c r="AD49" s="21"/>
@@ -7638,65 +7684,65 @@
       <c r="AM49" s="21"/>
     </row>
     <row r="50" spans="15:39" ht="15.75" thickBot="1">
-      <c r="O50" s="50"/>
-      <c r="P50" s="50"/>
-      <c r="Q50" s="50"/>
-      <c r="R50" s="50"/>
-      <c r="S50" s="50"/>
-      <c r="T50" s="50"/>
-      <c r="U50" s="50"/>
-      <c r="V50" s="50"/>
-      <c r="W50" s="50"/>
-      <c r="X50" s="50"/>
-      <c r="Y50" s="50"/>
-      <c r="Z50" s="50"/>
-      <c r="AA50" s="50"/>
+      <c r="O50" s="82"/>
+      <c r="P50" s="82"/>
+      <c r="Q50" s="82"/>
+      <c r="R50" s="82"/>
+      <c r="S50" s="82"/>
+      <c r="T50" s="82"/>
+      <c r="U50" s="82"/>
+      <c r="V50" s="82"/>
+      <c r="W50" s="82"/>
+      <c r="X50" s="82"/>
+      <c r="Y50" s="82"/>
+      <c r="Z50" s="82"/>
+      <c r="AA50" s="82"/>
       <c r="AB50" s="21"/>
       <c r="AC50" s="21"/>
-      <c r="AD50" s="42"/>
-      <c r="AE50" s="42"/>
-      <c r="AF50" s="42"/>
-      <c r="AG50" s="42"/>
-      <c r="AH50" s="42"/>
-      <c r="AI50" s="42"/>
-      <c r="AJ50" s="42"/>
-      <c r="AK50" s="42"/>
-      <c r="AL50" s="42"/>
-      <c r="AM50" s="42"/>
+      <c r="AD50" s="83"/>
+      <c r="AE50" s="83"/>
+      <c r="AF50" s="83"/>
+      <c r="AG50" s="83"/>
+      <c r="AH50" s="83"/>
+      <c r="AI50" s="83"/>
+      <c r="AJ50" s="83"/>
+      <c r="AK50" s="83"/>
+      <c r="AL50" s="83"/>
+      <c r="AM50" s="83"/>
     </row>
     <row r="51" spans="15:39">
-      <c r="O51" s="32" t="s">
+      <c r="O51" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="33"/>
-      <c r="S51" s="33"/>
-      <c r="T51" s="33"/>
-      <c r="U51" s="33"/>
-      <c r="V51" s="33"/>
-      <c r="W51" s="33"/>
-      <c r="X51" s="33"/>
-      <c r="Y51" s="33"/>
-      <c r="Z51" s="33"/>
-      <c r="AA51" s="33"/>
+      <c r="P51" s="74"/>
+      <c r="Q51" s="74"/>
+      <c r="R51" s="74"/>
+      <c r="S51" s="74"/>
+      <c r="T51" s="74"/>
+      <c r="U51" s="74"/>
+      <c r="V51" s="74"/>
+      <c r="W51" s="74"/>
+      <c r="X51" s="74"/>
+      <c r="Y51" s="74"/>
+      <c r="Z51" s="74"/>
+      <c r="AA51" s="74"/>
       <c r="AB51" s="21"/>
       <c r="AC51" s="21"/>
-      <c r="AD51" s="34" t="s">
+      <c r="AD51" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="AE51" s="34"/>
-      <c r="AF51" s="34"/>
-      <c r="AG51" s="34"/>
-      <c r="AH51" s="34"/>
-      <c r="AI51" s="34"/>
-      <c r="AJ51" s="34"/>
-      <c r="AK51" s="34"/>
-      <c r="AL51" s="34"/>
-      <c r="AM51" s="34"/>
+      <c r="AE51" s="75"/>
+      <c r="AF51" s="75"/>
+      <c r="AG51" s="75"/>
+      <c r="AH51" s="75"/>
+      <c r="AI51" s="75"/>
+      <c r="AJ51" s="75"/>
+      <c r="AK51" s="75"/>
+      <c r="AL51" s="75"/>
+      <c r="AM51" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="48">
     <mergeCell ref="O51:AA51"/>
     <mergeCell ref="AD51:AM51"/>
     <mergeCell ref="A44:C44"/>
@@ -7731,6 +7777,8 @@
     <mergeCell ref="C6:O6"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="Y6:AB6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:U6"/>
     <mergeCell ref="AC6:AI6"/>
     <mergeCell ref="AJ6:AM6"/>
     <mergeCell ref="A1:AM1"/>
@@ -7751,14 +7799,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AM61"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="Q6" sqref="Q6:U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7773,337 +7821,344 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="23.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
     </row>
     <row r="2" spans="1:39" s="3" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
     </row>
     <row r="3" spans="1:39" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1">
       <c r="C4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="61" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
-      <c r="N4" s="62" t="s">
+      <c r="I4" s="38"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="42"/>
+      <c r="N4" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="61" t="s">
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="48"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="42"/>
     </row>
     <row r="5" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
-      <c r="V6" s="62" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="42"/>
+      <c r="Q6" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="46"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="61" t="s">
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="61"/>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="48"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="39"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="40"/>
+      <c r="AK6" s="41"/>
+      <c r="AL6" s="41"/>
+      <c r="AM6" s="42"/>
     </row>
     <row r="7" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="8" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="43" t="s">
+      <c r="E8" s="66"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="43" t="s">
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="43" t="s">
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="43" t="s">
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="51"/>
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="51"/>
+      <c r="AD8" s="52"/>
+      <c r="AE8" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="44"/>
-      <c r="AM8" s="45"/>
+      <c r="AF8" s="51"/>
+      <c r="AG8" s="51"/>
+      <c r="AH8" s="51"/>
+      <c r="AI8" s="51"/>
+      <c r="AJ8" s="51"/>
+      <c r="AK8" s="51"/>
+      <c r="AL8" s="51"/>
+      <c r="AM8" s="52"/>
     </row>
     <row r="9" spans="1:39" ht="45.6" customHeight="1" thickBot="1">
-      <c r="A9" s="74"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="46" t="s">
+      <c r="A9" s="61"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="46" t="s">
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="76"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="79" t="s">
+      <c r="K9" s="56"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="76"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="46" t="s">
+      <c r="N9" s="56"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="46" t="s">
+      <c r="Q9" s="56"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="76"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="79" t="s">
+      <c r="T9" s="56"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="76"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="46" t="s">
+      <c r="W9" s="56"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="46" t="s">
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="79" t="s">
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="78"/>
-      <c r="AH9" s="46" t="s">
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="78"/>
-      <c r="AK9" s="46" t="s">
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="58"/>
+      <c r="AK9" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="AL9" s="76"/>
-      <c r="AM9" s="78"/>
+      <c r="AL9" s="56"/>
+      <c r="AM9" s="58"/>
     </row>
     <row r="10" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="22" t="s">
         <v>11</v>
       </c>
@@ -8113,16 +8168,16 @@
       <c r="F10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="71" t="s">
+      <c r="H10" s="37" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="70" t="s">
+      <c r="J10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="23" t="s">
@@ -8131,82 +8186,82 @@
       <c r="L10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="70" t="s">
+      <c r="M10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="71" t="s">
+      <c r="O10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="70" t="s">
+      <c r="Q10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="71" t="s">
+      <c r="R10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="S10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="70" t="s">
+      <c r="T10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="U10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="70" t="s">
+      <c r="V10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="W10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="71" t="s">
+      <c r="X10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="Y10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Z10" s="70" t="s">
+      <c r="Z10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AA10" s="71" t="s">
+      <c r="AA10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AB10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AC10" s="70" t="s">
+      <c r="AC10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AD10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AE10" s="70" t="s">
+      <c r="AE10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="AF10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AG10" s="71" t="s">
+      <c r="AG10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AH10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AI10" s="70" t="s">
+      <c r="AI10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AJ10" s="71" t="s">
+      <c r="AJ10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AK10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AL10" s="70" t="s">
+      <c r="AL10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AM10" s="24" t="s">
@@ -8217,52 +8272,52 @@
       <c r="A11" s="7"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="66"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="67"/>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="67"/>
-      <c r="AL11" s="66"/>
-      <c r="AM11" s="68"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="32"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="34"/>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="8" t="s">
@@ -10198,11 +10253,11 @@
       <c r="AM50" s="8"/>
     </row>
     <row r="51" spans="1:39" ht="29.45" customHeight="1" thickBot="1">
-      <c r="A51" s="72" t="s">
+      <c r="A51" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="73"/>
-      <c r="C51" s="73"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
       <c r="F51" s="18"/>
@@ -10241,11 +10296,11 @@
       <c r="AM51" s="18"/>
     </row>
     <row r="52" spans="1:39" ht="30.6" customHeight="1" thickBot="1">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="30"/>
       <c r="E52" s="31"/>
       <c r="F52" s="18"/>
@@ -10284,11 +10339,11 @@
       <c r="AM52" s="18"/>
     </row>
     <row r="53" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
       <c r="D53" s="28"/>
       <c r="E53" s="29"/>
       <c r="F53" s="18"/>
@@ -10327,11 +10382,11 @@
       <c r="AM53" s="18"/>
     </row>
     <row r="54" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="36"/>
-      <c r="C54" s="36"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="28"/>
       <c r="E54" s="29"/>
       <c r="F54" s="18"/>
@@ -10370,11 +10425,11 @@
       <c r="AM54" s="18"/>
     </row>
     <row r="55" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="77"/>
       <c r="D55" s="28"/>
       <c r="E55" s="29"/>
       <c r="F55" s="18"/>
@@ -10413,11 +10468,11 @@
       <c r="AM55" s="18"/>
     </row>
     <row r="56" spans="1:39" ht="31.9" customHeight="1" thickBot="1">
-      <c r="A56" s="39" t="s">
+      <c r="A56" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="40"/>
-      <c r="C56" s="41"/>
+      <c r="B56" s="79"/>
+      <c r="C56" s="80"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
       <c r="F56" s="18"/>
@@ -10456,21 +10511,21 @@
       <c r="AM56" s="18"/>
     </row>
     <row r="59" spans="1:39">
-      <c r="O59" s="49" t="s">
+      <c r="O59" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="33"/>
-      <c r="S59" s="33"/>
-      <c r="T59" s="33"/>
-      <c r="U59" s="33"/>
-      <c r="V59" s="33"/>
-      <c r="W59" s="33"/>
-      <c r="X59" s="33"/>
-      <c r="Y59" s="33"/>
-      <c r="Z59" s="33"/>
-      <c r="AA59" s="33"/>
+      <c r="P59" s="74"/>
+      <c r="Q59" s="74"/>
+      <c r="R59" s="74"/>
+      <c r="S59" s="74"/>
+      <c r="T59" s="74"/>
+      <c r="U59" s="74"/>
+      <c r="V59" s="74"/>
+      <c r="W59" s="74"/>
+      <c r="X59" s="74"/>
+      <c r="Y59" s="74"/>
+      <c r="Z59" s="74"/>
+      <c r="AA59" s="74"/>
       <c r="AB59" s="21"/>
       <c r="AC59" s="21"/>
       <c r="AD59" s="21"/>
@@ -10485,65 +10540,65 @@
       <c r="AM59" s="21"/>
     </row>
     <row r="60" spans="1:39" ht="15.75" thickBot="1">
-      <c r="O60" s="50"/>
-      <c r="P60" s="50"/>
-      <c r="Q60" s="50"/>
-      <c r="R60" s="50"/>
-      <c r="S60" s="50"/>
-      <c r="T60" s="50"/>
-      <c r="U60" s="50"/>
-      <c r="V60" s="50"/>
-      <c r="W60" s="50"/>
-      <c r="X60" s="50"/>
-      <c r="Y60" s="50"/>
-      <c r="Z60" s="50"/>
-      <c r="AA60" s="50"/>
+      <c r="O60" s="82"/>
+      <c r="P60" s="82"/>
+      <c r="Q60" s="82"/>
+      <c r="R60" s="82"/>
+      <c r="S60" s="82"/>
+      <c r="T60" s="82"/>
+      <c r="U60" s="82"/>
+      <c r="V60" s="82"/>
+      <c r="W60" s="82"/>
+      <c r="X60" s="82"/>
+      <c r="Y60" s="82"/>
+      <c r="Z60" s="82"/>
+      <c r="AA60" s="82"/>
       <c r="AB60" s="21"/>
       <c r="AC60" s="21"/>
-      <c r="AD60" s="42"/>
-      <c r="AE60" s="42"/>
-      <c r="AF60" s="42"/>
-      <c r="AG60" s="42"/>
-      <c r="AH60" s="42"/>
-      <c r="AI60" s="42"/>
-      <c r="AJ60" s="42"/>
-      <c r="AK60" s="42"/>
-      <c r="AL60" s="42"/>
-      <c r="AM60" s="42"/>
+      <c r="AD60" s="83"/>
+      <c r="AE60" s="83"/>
+      <c r="AF60" s="83"/>
+      <c r="AG60" s="83"/>
+      <c r="AH60" s="83"/>
+      <c r="AI60" s="83"/>
+      <c r="AJ60" s="83"/>
+      <c r="AK60" s="83"/>
+      <c r="AL60" s="83"/>
+      <c r="AM60" s="83"/>
     </row>
     <row r="61" spans="1:39">
-      <c r="O61" s="32" t="s">
+      <c r="O61" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="P61" s="33"/>
-      <c r="Q61" s="33"/>
-      <c r="R61" s="33"/>
-      <c r="S61" s="33"/>
-      <c r="T61" s="33"/>
-      <c r="U61" s="33"/>
-      <c r="V61" s="33"/>
-      <c r="W61" s="33"/>
-      <c r="X61" s="33"/>
-      <c r="Y61" s="33"/>
-      <c r="Z61" s="33"/>
-      <c r="AA61" s="33"/>
+      <c r="P61" s="74"/>
+      <c r="Q61" s="74"/>
+      <c r="R61" s="74"/>
+      <c r="S61" s="74"/>
+      <c r="T61" s="74"/>
+      <c r="U61" s="74"/>
+      <c r="V61" s="74"/>
+      <c r="W61" s="74"/>
+      <c r="X61" s="74"/>
+      <c r="Y61" s="74"/>
+      <c r="Z61" s="74"/>
+      <c r="AA61" s="74"/>
       <c r="AB61" s="21"/>
       <c r="AC61" s="21"/>
-      <c r="AD61" s="34" t="s">
+      <c r="AD61" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="AE61" s="34"/>
-      <c r="AF61" s="34"/>
-      <c r="AG61" s="34"/>
-      <c r="AH61" s="34"/>
-      <c r="AI61" s="34"/>
-      <c r="AJ61" s="34"/>
-      <c r="AK61" s="34"/>
-      <c r="AL61" s="34"/>
-      <c r="AM61" s="34"/>
+      <c r="AE61" s="75"/>
+      <c r="AF61" s="75"/>
+      <c r="AG61" s="75"/>
+      <c r="AH61" s="75"/>
+      <c r="AI61" s="75"/>
+      <c r="AJ61" s="75"/>
+      <c r="AK61" s="75"/>
+      <c r="AL61" s="75"/>
+      <c r="AM61" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="48">
     <mergeCell ref="O61:AA61"/>
     <mergeCell ref="AD61:AM61"/>
     <mergeCell ref="A54:C54"/>
@@ -10578,6 +10633,8 @@
     <mergeCell ref="C6:O6"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="Y6:AB6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:U6"/>
     <mergeCell ref="AC6:AI6"/>
     <mergeCell ref="AJ6:AM6"/>
     <mergeCell ref="A1:AM1"/>
@@ -10598,14 +10655,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AM71"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10620,337 +10677,344 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="23.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
     </row>
     <row r="2" spans="1:39" s="3" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
     </row>
     <row r="3" spans="1:39" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1">
       <c r="C4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="61" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
-      <c r="N4" s="62" t="s">
+      <c r="I4" s="38"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="42"/>
+      <c r="N4" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="61" t="s">
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="48"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="42"/>
     </row>
     <row r="5" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
-      <c r="V6" s="62" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="42"/>
+      <c r="Q6" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="46"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="61" t="s">
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="61"/>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="48"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="39"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="40"/>
+      <c r="AK6" s="41"/>
+      <c r="AL6" s="41"/>
+      <c r="AM6" s="42"/>
     </row>
     <row r="7" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="8" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="43" t="s">
+      <c r="E8" s="66"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="43" t="s">
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="43" t="s">
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="43" t="s">
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="51"/>
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="51"/>
+      <c r="AD8" s="52"/>
+      <c r="AE8" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="44"/>
-      <c r="AM8" s="45"/>
+      <c r="AF8" s="51"/>
+      <c r="AG8" s="51"/>
+      <c r="AH8" s="51"/>
+      <c r="AI8" s="51"/>
+      <c r="AJ8" s="51"/>
+      <c r="AK8" s="51"/>
+      <c r="AL8" s="51"/>
+      <c r="AM8" s="52"/>
     </row>
     <row r="9" spans="1:39" ht="45.6" customHeight="1" thickBot="1">
-      <c r="A9" s="74"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="46" t="s">
+      <c r="A9" s="61"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="46" t="s">
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="76"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="79" t="s">
+      <c r="K9" s="56"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="76"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="46" t="s">
+      <c r="N9" s="56"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="46" t="s">
+      <c r="Q9" s="56"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="76"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="79" t="s">
+      <c r="T9" s="56"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="76"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="46" t="s">
+      <c r="W9" s="56"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="46" t="s">
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="79" t="s">
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="78"/>
-      <c r="AH9" s="46" t="s">
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="78"/>
-      <c r="AK9" s="46" t="s">
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="58"/>
+      <c r="AK9" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="AL9" s="76"/>
-      <c r="AM9" s="78"/>
+      <c r="AL9" s="56"/>
+      <c r="AM9" s="58"/>
     </row>
     <row r="10" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="22" t="s">
         <v>11</v>
       </c>
@@ -10960,16 +11024,16 @@
       <c r="F10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="71" t="s">
+      <c r="H10" s="37" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="70" t="s">
+      <c r="J10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="23" t="s">
@@ -10978,82 +11042,82 @@
       <c r="L10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="70" t="s">
+      <c r="M10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="71" t="s">
+      <c r="O10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="70" t="s">
+      <c r="Q10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="71" t="s">
+      <c r="R10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="S10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="70" t="s">
+      <c r="T10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="U10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="70" t="s">
+      <c r="V10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="W10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="71" t="s">
+      <c r="X10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="Y10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Z10" s="70" t="s">
+      <c r="Z10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AA10" s="71" t="s">
+      <c r="AA10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AB10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AC10" s="70" t="s">
+      <c r="AC10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AD10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AE10" s="70" t="s">
+      <c r="AE10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="AF10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AG10" s="71" t="s">
+      <c r="AG10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AH10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AI10" s="70" t="s">
+      <c r="AI10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AJ10" s="71" t="s">
+      <c r="AJ10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AK10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AL10" s="70" t="s">
+      <c r="AL10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AM10" s="24" t="s">
@@ -11064,52 +11128,52 @@
       <c r="A11" s="7"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="66"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="67"/>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="67"/>
-      <c r="AL11" s="66"/>
-      <c r="AM11" s="68"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="32"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="34"/>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="8" t="s">
@@ -13671,11 +13735,11 @@
       <c r="AM60" s="8"/>
     </row>
     <row r="61" spans="1:39" ht="29.45" customHeight="1" thickBot="1">
-      <c r="A61" s="72" t="s">
+      <c r="A61" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="73"/>
-      <c r="C61" s="73"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="72"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
       <c r="F61" s="18"/>
@@ -13714,11 +13778,11 @@
       <c r="AM61" s="18"/>
     </row>
     <row r="62" spans="1:39" ht="30.6" customHeight="1" thickBot="1">
-      <c r="A62" s="35" t="s">
+      <c r="A62" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="36"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="54"/>
       <c r="D62" s="30"/>
       <c r="E62" s="31"/>
       <c r="F62" s="18"/>
@@ -13757,11 +13821,11 @@
       <c r="AM62" s="18"/>
     </row>
     <row r="63" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A63" s="35" t="s">
+      <c r="A63" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="36"/>
-      <c r="C63" s="36"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="54"/>
       <c r="D63" s="28"/>
       <c r="E63" s="29"/>
       <c r="F63" s="18"/>
@@ -13800,11 +13864,11 @@
       <c r="AM63" s="18"/>
     </row>
     <row r="64" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="54"/>
       <c r="D64" s="28"/>
       <c r="E64" s="29"/>
       <c r="F64" s="18"/>
@@ -13843,11 +13907,11 @@
       <c r="AM64" s="18"/>
     </row>
     <row r="65" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A65" s="37" t="s">
+      <c r="A65" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
+      <c r="B65" s="77"/>
+      <c r="C65" s="77"/>
       <c r="D65" s="28"/>
       <c r="E65" s="29"/>
       <c r="F65" s="18"/>
@@ -13886,11 +13950,11 @@
       <c r="AM65" s="18"/>
     </row>
     <row r="66" spans="1:39" ht="31.9" customHeight="1" thickBot="1">
-      <c r="A66" s="39" t="s">
+      <c r="A66" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="B66" s="40"/>
-      <c r="C66" s="41"/>
+      <c r="B66" s="79"/>
+      <c r="C66" s="80"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
       <c r="F66" s="18"/>
@@ -13929,21 +13993,21 @@
       <c r="AM66" s="18"/>
     </row>
     <row r="69" spans="1:39">
-      <c r="O69" s="49" t="s">
+      <c r="O69" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="P69" s="33"/>
-      <c r="Q69" s="33"/>
-      <c r="R69" s="33"/>
-      <c r="S69" s="33"/>
-      <c r="T69" s="33"/>
-      <c r="U69" s="33"/>
-      <c r="V69" s="33"/>
-      <c r="W69" s="33"/>
-      <c r="X69" s="33"/>
-      <c r="Y69" s="33"/>
-      <c r="Z69" s="33"/>
-      <c r="AA69" s="33"/>
+      <c r="P69" s="74"/>
+      <c r="Q69" s="74"/>
+      <c r="R69" s="74"/>
+      <c r="S69" s="74"/>
+      <c r="T69" s="74"/>
+      <c r="U69" s="74"/>
+      <c r="V69" s="74"/>
+      <c r="W69" s="74"/>
+      <c r="X69" s="74"/>
+      <c r="Y69" s="74"/>
+      <c r="Z69" s="74"/>
+      <c r="AA69" s="74"/>
       <c r="AB69" s="21"/>
       <c r="AC69" s="21"/>
       <c r="AD69" s="21"/>
@@ -13958,65 +14022,65 @@
       <c r="AM69" s="21"/>
     </row>
     <row r="70" spans="1:39" ht="15.75" thickBot="1">
-      <c r="O70" s="50"/>
-      <c r="P70" s="50"/>
-      <c r="Q70" s="50"/>
-      <c r="R70" s="50"/>
-      <c r="S70" s="50"/>
-      <c r="T70" s="50"/>
-      <c r="U70" s="50"/>
-      <c r="V70" s="50"/>
-      <c r="W70" s="50"/>
-      <c r="X70" s="50"/>
-      <c r="Y70" s="50"/>
-      <c r="Z70" s="50"/>
-      <c r="AA70" s="50"/>
+      <c r="O70" s="82"/>
+      <c r="P70" s="82"/>
+      <c r="Q70" s="82"/>
+      <c r="R70" s="82"/>
+      <c r="S70" s="82"/>
+      <c r="T70" s="82"/>
+      <c r="U70" s="82"/>
+      <c r="V70" s="82"/>
+      <c r="W70" s="82"/>
+      <c r="X70" s="82"/>
+      <c r="Y70" s="82"/>
+      <c r="Z70" s="82"/>
+      <c r="AA70" s="82"/>
       <c r="AB70" s="21"/>
       <c r="AC70" s="21"/>
-      <c r="AD70" s="42"/>
-      <c r="AE70" s="42"/>
-      <c r="AF70" s="42"/>
-      <c r="AG70" s="42"/>
-      <c r="AH70" s="42"/>
-      <c r="AI70" s="42"/>
-      <c r="AJ70" s="42"/>
-      <c r="AK70" s="42"/>
-      <c r="AL70" s="42"/>
-      <c r="AM70" s="42"/>
+      <c r="AD70" s="83"/>
+      <c r="AE70" s="83"/>
+      <c r="AF70" s="83"/>
+      <c r="AG70" s="83"/>
+      <c r="AH70" s="83"/>
+      <c r="AI70" s="83"/>
+      <c r="AJ70" s="83"/>
+      <c r="AK70" s="83"/>
+      <c r="AL70" s="83"/>
+      <c r="AM70" s="83"/>
     </row>
     <row r="71" spans="1:39">
-      <c r="O71" s="32" t="s">
+      <c r="O71" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="P71" s="33"/>
-      <c r="Q71" s="33"/>
-      <c r="R71" s="33"/>
-      <c r="S71" s="33"/>
-      <c r="T71" s="33"/>
-      <c r="U71" s="33"/>
-      <c r="V71" s="33"/>
-      <c r="W71" s="33"/>
-      <c r="X71" s="33"/>
-      <c r="Y71" s="33"/>
-      <c r="Z71" s="33"/>
-      <c r="AA71" s="33"/>
+      <c r="P71" s="74"/>
+      <c r="Q71" s="74"/>
+      <c r="R71" s="74"/>
+      <c r="S71" s="74"/>
+      <c r="T71" s="74"/>
+      <c r="U71" s="74"/>
+      <c r="V71" s="74"/>
+      <c r="W71" s="74"/>
+      <c r="X71" s="74"/>
+      <c r="Y71" s="74"/>
+      <c r="Z71" s="74"/>
+      <c r="AA71" s="74"/>
       <c r="AB71" s="21"/>
       <c r="AC71" s="21"/>
-      <c r="AD71" s="34" t="s">
+      <c r="AD71" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="AE71" s="34"/>
-      <c r="AF71" s="34"/>
-      <c r="AG71" s="34"/>
-      <c r="AH71" s="34"/>
-      <c r="AI71" s="34"/>
-      <c r="AJ71" s="34"/>
-      <c r="AK71" s="34"/>
-      <c r="AL71" s="34"/>
-      <c r="AM71" s="34"/>
+      <c r="AE71" s="75"/>
+      <c r="AF71" s="75"/>
+      <c r="AG71" s="75"/>
+      <c r="AH71" s="75"/>
+      <c r="AI71" s="75"/>
+      <c r="AJ71" s="75"/>
+      <c r="AK71" s="75"/>
+      <c r="AL71" s="75"/>
+      <c r="AM71" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="48">
     <mergeCell ref="O71:AA71"/>
     <mergeCell ref="AD71:AM71"/>
     <mergeCell ref="A64:C64"/>
@@ -14051,6 +14115,8 @@
     <mergeCell ref="C6:O6"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="Y6:AB6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:U6"/>
     <mergeCell ref="AC6:AI6"/>
     <mergeCell ref="AJ6:AM6"/>
     <mergeCell ref="A1:AM1"/>
@@ -14071,14 +14137,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AM81"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14093,337 +14159,344 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="23.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
     </row>
     <row r="2" spans="1:39" s="3" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
     </row>
     <row r="3" spans="1:39" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1">
       <c r="C4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="61" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
-      <c r="N4" s="62" t="s">
+      <c r="I4" s="38"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="42"/>
+      <c r="N4" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="61" t="s">
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="48"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="42"/>
     </row>
     <row r="5" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
-      <c r="V6" s="62" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="42"/>
+      <c r="Q6" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="46"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="61" t="s">
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="61"/>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="48"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="39"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="40"/>
+      <c r="AK6" s="41"/>
+      <c r="AL6" s="41"/>
+      <c r="AM6" s="42"/>
     </row>
     <row r="7" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="8" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="43" t="s">
+      <c r="E8" s="66"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="43" t="s">
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="43" t="s">
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="43" t="s">
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="51"/>
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="51"/>
+      <c r="AD8" s="52"/>
+      <c r="AE8" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="44"/>
-      <c r="AM8" s="45"/>
+      <c r="AF8" s="51"/>
+      <c r="AG8" s="51"/>
+      <c r="AH8" s="51"/>
+      <c r="AI8" s="51"/>
+      <c r="AJ8" s="51"/>
+      <c r="AK8" s="51"/>
+      <c r="AL8" s="51"/>
+      <c r="AM8" s="52"/>
     </row>
     <row r="9" spans="1:39" ht="45.6" customHeight="1" thickBot="1">
-      <c r="A9" s="74"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="46" t="s">
+      <c r="A9" s="61"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="46" t="s">
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="76"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="79" t="s">
+      <c r="K9" s="56"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="76"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="46" t="s">
+      <c r="N9" s="56"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="46" t="s">
+      <c r="Q9" s="56"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="76"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="79" t="s">
+      <c r="T9" s="56"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="76"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="46" t="s">
+      <c r="W9" s="56"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="46" t="s">
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="79" t="s">
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="78"/>
-      <c r="AH9" s="46" t="s">
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="78"/>
-      <c r="AK9" s="46" t="s">
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="58"/>
+      <c r="AK9" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="AL9" s="76"/>
-      <c r="AM9" s="78"/>
+      <c r="AL9" s="56"/>
+      <c r="AM9" s="58"/>
     </row>
     <row r="10" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="22" t="s">
         <v>11</v>
       </c>
@@ -14433,16 +14506,16 @@
       <c r="F10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="71" t="s">
+      <c r="H10" s="37" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="70" t="s">
+      <c r="J10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="23" t="s">
@@ -14451,82 +14524,82 @@
       <c r="L10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="70" t="s">
+      <c r="M10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="71" t="s">
+      <c r="O10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="70" t="s">
+      <c r="Q10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="71" t="s">
+      <c r="R10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="S10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="70" t="s">
+      <c r="T10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="U10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="70" t="s">
+      <c r="V10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="W10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="71" t="s">
+      <c r="X10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="Y10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Z10" s="70" t="s">
+      <c r="Z10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AA10" s="71" t="s">
+      <c r="AA10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AB10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AC10" s="70" t="s">
+      <c r="AC10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AD10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AE10" s="70" t="s">
+      <c r="AE10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="AF10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AG10" s="71" t="s">
+      <c r="AG10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AH10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AI10" s="70" t="s">
+      <c r="AI10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AJ10" s="71" t="s">
+      <c r="AJ10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AK10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AL10" s="70" t="s">
+      <c r="AL10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AM10" s="24" t="s">
@@ -14537,52 +14610,52 @@
       <c r="A11" s="7"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="66"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="67"/>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="67"/>
-      <c r="AL11" s="66"/>
-      <c r="AM11" s="68"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="32"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="34"/>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="8" t="s">
@@ -17674,11 +17747,11 @@
       <c r="AM70" s="9"/>
     </row>
     <row r="71" spans="1:39" ht="29.45" customHeight="1" thickBot="1">
-      <c r="A71" s="72" t="s">
+      <c r="A71" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="73"/>
-      <c r="C71" s="73"/>
+      <c r="B71" s="72"/>
+      <c r="C71" s="72"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
       <c r="F71" s="18"/>
@@ -17717,11 +17790,11 @@
       <c r="AM71" s="18"/>
     </row>
     <row r="72" spans="1:39" ht="30.6" customHeight="1" thickBot="1">
-      <c r="A72" s="35" t="s">
+      <c r="A72" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B72" s="36"/>
-      <c r="C72" s="36"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="54"/>
       <c r="D72" s="30"/>
       <c r="E72" s="31"/>
       <c r="F72" s="18"/>
@@ -17760,11 +17833,11 @@
       <c r="AM72" s="18"/>
     </row>
     <row r="73" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A73" s="35" t="s">
+      <c r="A73" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B73" s="36"/>
-      <c r="C73" s="36"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="54"/>
       <c r="D73" s="28"/>
       <c r="E73" s="29"/>
       <c r="F73" s="18"/>
@@ -17803,11 +17876,11 @@
       <c r="AM73" s="18"/>
     </row>
     <row r="74" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A74" s="35" t="s">
+      <c r="A74" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B74" s="36"/>
-      <c r="C74" s="36"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="54"/>
       <c r="D74" s="28"/>
       <c r="E74" s="29"/>
       <c r="F74" s="18"/>
@@ -17846,11 +17919,11 @@
       <c r="AM74" s="18"/>
     </row>
     <row r="75" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="B75" s="38"/>
-      <c r="C75" s="38"/>
+      <c r="B75" s="77"/>
+      <c r="C75" s="77"/>
       <c r="D75" s="28"/>
       <c r="E75" s="29"/>
       <c r="F75" s="18"/>
@@ -17889,11 +17962,11 @@
       <c r="AM75" s="18"/>
     </row>
     <row r="76" spans="1:39" ht="31.9" customHeight="1" thickBot="1">
-      <c r="A76" s="39" t="s">
+      <c r="A76" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="B76" s="40"/>
-      <c r="C76" s="41"/>
+      <c r="B76" s="79"/>
+      <c r="C76" s="80"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
       <c r="F76" s="18"/>
@@ -17932,21 +18005,21 @@
       <c r="AM76" s="18"/>
     </row>
     <row r="79" spans="1:39">
-      <c r="O79" s="49" t="s">
+      <c r="O79" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="P79" s="33"/>
-      <c r="Q79" s="33"/>
-      <c r="R79" s="33"/>
-      <c r="S79" s="33"/>
-      <c r="T79" s="33"/>
-      <c r="U79" s="33"/>
-      <c r="V79" s="33"/>
-      <c r="W79" s="33"/>
-      <c r="X79" s="33"/>
-      <c r="Y79" s="33"/>
-      <c r="Z79" s="33"/>
-      <c r="AA79" s="33"/>
+      <c r="P79" s="74"/>
+      <c r="Q79" s="74"/>
+      <c r="R79" s="74"/>
+      <c r="S79" s="74"/>
+      <c r="T79" s="74"/>
+      <c r="U79" s="74"/>
+      <c r="V79" s="74"/>
+      <c r="W79" s="74"/>
+      <c r="X79" s="74"/>
+      <c r="Y79" s="74"/>
+      <c r="Z79" s="74"/>
+      <c r="AA79" s="74"/>
       <c r="AB79" s="21"/>
       <c r="AC79" s="21"/>
       <c r="AD79" s="21"/>
@@ -17961,65 +18034,65 @@
       <c r="AM79" s="21"/>
     </row>
     <row r="80" spans="1:39" ht="15.75" thickBot="1">
-      <c r="O80" s="50"/>
-      <c r="P80" s="50"/>
-      <c r="Q80" s="50"/>
-      <c r="R80" s="50"/>
-      <c r="S80" s="50"/>
-      <c r="T80" s="50"/>
-      <c r="U80" s="50"/>
-      <c r="V80" s="50"/>
-      <c r="W80" s="50"/>
-      <c r="X80" s="50"/>
-      <c r="Y80" s="50"/>
-      <c r="Z80" s="50"/>
-      <c r="AA80" s="50"/>
+      <c r="O80" s="82"/>
+      <c r="P80" s="82"/>
+      <c r="Q80" s="82"/>
+      <c r="R80" s="82"/>
+      <c r="S80" s="82"/>
+      <c r="T80" s="82"/>
+      <c r="U80" s="82"/>
+      <c r="V80" s="82"/>
+      <c r="W80" s="82"/>
+      <c r="X80" s="82"/>
+      <c r="Y80" s="82"/>
+      <c r="Z80" s="82"/>
+      <c r="AA80" s="82"/>
       <c r="AB80" s="21"/>
       <c r="AC80" s="21"/>
-      <c r="AD80" s="42"/>
-      <c r="AE80" s="42"/>
-      <c r="AF80" s="42"/>
-      <c r="AG80" s="42"/>
-      <c r="AH80" s="42"/>
-      <c r="AI80" s="42"/>
-      <c r="AJ80" s="42"/>
-      <c r="AK80" s="42"/>
-      <c r="AL80" s="42"/>
-      <c r="AM80" s="42"/>
+      <c r="AD80" s="83"/>
+      <c r="AE80" s="83"/>
+      <c r="AF80" s="83"/>
+      <c r="AG80" s="83"/>
+      <c r="AH80" s="83"/>
+      <c r="AI80" s="83"/>
+      <c r="AJ80" s="83"/>
+      <c r="AK80" s="83"/>
+      <c r="AL80" s="83"/>
+      <c r="AM80" s="83"/>
     </row>
     <row r="81" spans="15:39">
-      <c r="O81" s="32" t="s">
+      <c r="O81" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="P81" s="33"/>
-      <c r="Q81" s="33"/>
-      <c r="R81" s="33"/>
-      <c r="S81" s="33"/>
-      <c r="T81" s="33"/>
-      <c r="U81" s="33"/>
-      <c r="V81" s="33"/>
-      <c r="W81" s="33"/>
-      <c r="X81" s="33"/>
-      <c r="Y81" s="33"/>
-      <c r="Z81" s="33"/>
-      <c r="AA81" s="33"/>
+      <c r="P81" s="74"/>
+      <c r="Q81" s="74"/>
+      <c r="R81" s="74"/>
+      <c r="S81" s="74"/>
+      <c r="T81" s="74"/>
+      <c r="U81" s="74"/>
+      <c r="V81" s="74"/>
+      <c r="W81" s="74"/>
+      <c r="X81" s="74"/>
+      <c r="Y81" s="74"/>
+      <c r="Z81" s="74"/>
+      <c r="AA81" s="74"/>
       <c r="AB81" s="21"/>
       <c r="AC81" s="21"/>
-      <c r="AD81" s="34" t="s">
+      <c r="AD81" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="AE81" s="34"/>
-      <c r="AF81" s="34"/>
-      <c r="AG81" s="34"/>
-      <c r="AH81" s="34"/>
-      <c r="AI81" s="34"/>
-      <c r="AJ81" s="34"/>
-      <c r="AK81" s="34"/>
-      <c r="AL81" s="34"/>
-      <c r="AM81" s="34"/>
+      <c r="AE81" s="75"/>
+      <c r="AF81" s="75"/>
+      <c r="AG81" s="75"/>
+      <c r="AH81" s="75"/>
+      <c r="AI81" s="75"/>
+      <c r="AJ81" s="75"/>
+      <c r="AK81" s="75"/>
+      <c r="AL81" s="75"/>
+      <c r="AM81" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="48">
     <mergeCell ref="O81:AA81"/>
     <mergeCell ref="AD81:AM81"/>
     <mergeCell ref="A74:C74"/>
@@ -18054,6 +18127,8 @@
     <mergeCell ref="C6:O6"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="Y6:AB6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:U6"/>
     <mergeCell ref="AC6:AI6"/>
     <mergeCell ref="AJ6:AM6"/>
     <mergeCell ref="A1:AM1"/>
@@ -18074,14 +18149,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AM91"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18095,337 +18170,344 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="23.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
     </row>
     <row r="2" spans="1:39" s="3" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
     </row>
     <row r="3" spans="1:39" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1">
       <c r="C4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="61" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
-      <c r="N4" s="62" t="s">
+      <c r="I4" s="38"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="42"/>
+      <c r="N4" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="61" t="s">
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="48"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="42"/>
     </row>
     <row r="5" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
-      <c r="V6" s="62" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="42"/>
+      <c r="Q6" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="46"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="61" t="s">
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="61"/>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="48"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="39"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="40"/>
+      <c r="AK6" s="41"/>
+      <c r="AL6" s="41"/>
+      <c r="AM6" s="42"/>
     </row>
     <row r="7" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="8" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="43" t="s">
+      <c r="E8" s="66"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="43" t="s">
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="43" t="s">
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="43" t="s">
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="51"/>
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="51"/>
+      <c r="AD8" s="52"/>
+      <c r="AE8" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="44"/>
-      <c r="AM8" s="45"/>
+      <c r="AF8" s="51"/>
+      <c r="AG8" s="51"/>
+      <c r="AH8" s="51"/>
+      <c r="AI8" s="51"/>
+      <c r="AJ8" s="51"/>
+      <c r="AK8" s="51"/>
+      <c r="AL8" s="51"/>
+      <c r="AM8" s="52"/>
     </row>
     <row r="9" spans="1:39" ht="45.6" customHeight="1" thickBot="1">
-      <c r="A9" s="74"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="46" t="s">
+      <c r="A9" s="61"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="46" t="s">
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="76"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="79" t="s">
+      <c r="K9" s="56"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="76"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="46" t="s">
+      <c r="N9" s="56"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="46" t="s">
+      <c r="Q9" s="56"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="76"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="79" t="s">
+      <c r="T9" s="56"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="76"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="46" t="s">
+      <c r="W9" s="56"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="46" t="s">
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="79" t="s">
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="78"/>
-      <c r="AH9" s="46" t="s">
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="78"/>
-      <c r="AK9" s="46" t="s">
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="58"/>
+      <c r="AK9" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="AL9" s="76"/>
-      <c r="AM9" s="78"/>
+      <c r="AL9" s="56"/>
+      <c r="AM9" s="58"/>
     </row>
     <row r="10" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="22" t="s">
         <v>11</v>
       </c>
@@ -18435,16 +18517,16 @@
       <c r="F10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="71" t="s">
+      <c r="H10" s="37" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="70" t="s">
+      <c r="J10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="23" t="s">
@@ -18453,82 +18535,82 @@
       <c r="L10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="70" t="s">
+      <c r="M10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="71" t="s">
+      <c r="O10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="70" t="s">
+      <c r="Q10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="71" t="s">
+      <c r="R10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="S10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="70" t="s">
+      <c r="T10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="U10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="70" t="s">
+      <c r="V10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="W10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="71" t="s">
+      <c r="X10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="Y10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Z10" s="70" t="s">
+      <c r="Z10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AA10" s="71" t="s">
+      <c r="AA10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AB10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AC10" s="70" t="s">
+      <c r="AC10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AD10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AE10" s="70" t="s">
+      <c r="AE10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="AF10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AG10" s="71" t="s">
+      <c r="AG10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AH10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AI10" s="70" t="s">
+      <c r="AI10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AJ10" s="71" t="s">
+      <c r="AJ10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AK10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AL10" s="70" t="s">
+      <c r="AL10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AM10" s="24" t="s">
@@ -18539,52 +18621,52 @@
       <c r="A11" s="7"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="66"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="67"/>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="67"/>
-      <c r="AL11" s="66"/>
-      <c r="AM11" s="68"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="32"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="34"/>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="8" t="s">
@@ -22110,11 +22192,11 @@
       <c r="AM80" s="9"/>
     </row>
     <row r="81" spans="1:39" ht="29.45" customHeight="1" thickBot="1">
-      <c r="A81" s="72" t="s">
+      <c r="A81" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B81" s="73"/>
-      <c r="C81" s="73"/>
+      <c r="B81" s="72"/>
+      <c r="C81" s="72"/>
       <c r="D81" s="28"/>
       <c r="E81" s="29"/>
       <c r="F81" s="18"/>
@@ -22153,11 +22235,11 @@
       <c r="AM81" s="18"/>
     </row>
     <row r="82" spans="1:39" ht="30.6" customHeight="1" thickBot="1">
-      <c r="A82" s="35" t="s">
+      <c r="A82" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B82" s="36"/>
-      <c r="C82" s="36"/>
+      <c r="B82" s="54"/>
+      <c r="C82" s="54"/>
       <c r="D82" s="30"/>
       <c r="E82" s="31"/>
       <c r="F82" s="18"/>
@@ -22196,11 +22278,11 @@
       <c r="AM82" s="18"/>
     </row>
     <row r="83" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A83" s="35" t="s">
+      <c r="A83" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B83" s="36"/>
-      <c r="C83" s="36"/>
+      <c r="B83" s="54"/>
+      <c r="C83" s="54"/>
       <c r="D83" s="28"/>
       <c r="E83" s="29"/>
       <c r="F83" s="18"/>
@@ -22239,11 +22321,11 @@
       <c r="AM83" s="18"/>
     </row>
     <row r="84" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A84" s="35" t="s">
+      <c r="A84" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
+      <c r="B84" s="54"/>
+      <c r="C84" s="54"/>
       <c r="D84" s="28"/>
       <c r="E84" s="29"/>
       <c r="F84" s="18"/>
@@ -22282,11 +22364,11 @@
       <c r="AM84" s="18"/>
     </row>
     <row r="85" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="38"/>
-      <c r="C85" s="38"/>
+      <c r="B85" s="77"/>
+      <c r="C85" s="77"/>
       <c r="D85" s="28"/>
       <c r="E85" s="29"/>
       <c r="F85" s="18"/>
@@ -22325,11 +22407,11 @@
       <c r="AM85" s="18"/>
     </row>
     <row r="86" spans="1:39" ht="31.9" customHeight="1" thickBot="1">
-      <c r="A86" s="39" t="s">
+      <c r="A86" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="B86" s="40"/>
-      <c r="C86" s="41"/>
+      <c r="B86" s="79"/>
+      <c r="C86" s="80"/>
       <c r="D86" s="28"/>
       <c r="E86" s="29"/>
       <c r="F86" s="18"/>
@@ -22368,21 +22450,21 @@
       <c r="AM86" s="18"/>
     </row>
     <row r="89" spans="1:39">
-      <c r="O89" s="49" t="s">
+      <c r="O89" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="P89" s="33"/>
-      <c r="Q89" s="33"/>
-      <c r="R89" s="33"/>
-      <c r="S89" s="33"/>
-      <c r="T89" s="33"/>
-      <c r="U89" s="33"/>
-      <c r="V89" s="33"/>
-      <c r="W89" s="33"/>
-      <c r="X89" s="33"/>
-      <c r="Y89" s="33"/>
-      <c r="Z89" s="33"/>
-      <c r="AA89" s="33"/>
+      <c r="P89" s="74"/>
+      <c r="Q89" s="74"/>
+      <c r="R89" s="74"/>
+      <c r="S89" s="74"/>
+      <c r="T89" s="74"/>
+      <c r="U89" s="74"/>
+      <c r="V89" s="74"/>
+      <c r="W89" s="74"/>
+      <c r="X89" s="74"/>
+      <c r="Y89" s="74"/>
+      <c r="Z89" s="74"/>
+      <c r="AA89" s="74"/>
       <c r="AB89" s="21"/>
       <c r="AC89" s="21"/>
       <c r="AD89" s="21"/>
@@ -22397,65 +22479,67 @@
       <c r="AM89" s="21"/>
     </row>
     <row r="90" spans="1:39" ht="15.75" thickBot="1">
-      <c r="O90" s="50"/>
-      <c r="P90" s="50"/>
-      <c r="Q90" s="50"/>
-      <c r="R90" s="50"/>
-      <c r="S90" s="50"/>
-      <c r="T90" s="50"/>
-      <c r="U90" s="50"/>
-      <c r="V90" s="50"/>
-      <c r="W90" s="50"/>
-      <c r="X90" s="50"/>
-      <c r="Y90" s="50"/>
-      <c r="Z90" s="50"/>
-      <c r="AA90" s="50"/>
+      <c r="O90" s="82"/>
+      <c r="P90" s="82"/>
+      <c r="Q90" s="82"/>
+      <c r="R90" s="82"/>
+      <c r="S90" s="82"/>
+      <c r="T90" s="82"/>
+      <c r="U90" s="82"/>
+      <c r="V90" s="82"/>
+      <c r="W90" s="82"/>
+      <c r="X90" s="82"/>
+      <c r="Y90" s="82"/>
+      <c r="Z90" s="82"/>
+      <c r="AA90" s="82"/>
       <c r="AB90" s="21"/>
       <c r="AC90" s="21"/>
-      <c r="AD90" s="42"/>
-      <c r="AE90" s="42"/>
-      <c r="AF90" s="42"/>
-      <c r="AG90" s="42"/>
-      <c r="AH90" s="42"/>
-      <c r="AI90" s="42"/>
-      <c r="AJ90" s="42"/>
-      <c r="AK90" s="42"/>
-      <c r="AL90" s="42"/>
-      <c r="AM90" s="42"/>
+      <c r="AD90" s="83"/>
+      <c r="AE90" s="83"/>
+      <c r="AF90" s="83"/>
+      <c r="AG90" s="83"/>
+      <c r="AH90" s="83"/>
+      <c r="AI90" s="83"/>
+      <c r="AJ90" s="83"/>
+      <c r="AK90" s="83"/>
+      <c r="AL90" s="83"/>
+      <c r="AM90" s="83"/>
     </row>
     <row r="91" spans="1:39">
-      <c r="O91" s="32" t="s">
+      <c r="O91" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="P91" s="33"/>
-      <c r="Q91" s="33"/>
-      <c r="R91" s="33"/>
-      <c r="S91" s="33"/>
-      <c r="T91" s="33"/>
-      <c r="U91" s="33"/>
-      <c r="V91" s="33"/>
-      <c r="W91" s="33"/>
-      <c r="X91" s="33"/>
-      <c r="Y91" s="33"/>
-      <c r="Z91" s="33"/>
-      <c r="AA91" s="33"/>
+      <c r="P91" s="74"/>
+      <c r="Q91" s="74"/>
+      <c r="R91" s="74"/>
+      <c r="S91" s="74"/>
+      <c r="T91" s="74"/>
+      <c r="U91" s="74"/>
+      <c r="V91" s="74"/>
+      <c r="W91" s="74"/>
+      <c r="X91" s="74"/>
+      <c r="Y91" s="74"/>
+      <c r="Z91" s="74"/>
+      <c r="AA91" s="74"/>
       <c r="AB91" s="21"/>
       <c r="AC91" s="21"/>
-      <c r="AD91" s="34" t="s">
+      <c r="AD91" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="AE91" s="34"/>
-      <c r="AF91" s="34"/>
-      <c r="AG91" s="34"/>
-      <c r="AH91" s="34"/>
-      <c r="AI91" s="34"/>
-      <c r="AJ91" s="34"/>
-      <c r="AK91" s="34"/>
-      <c r="AL91" s="34"/>
-      <c r="AM91" s="34"/>
+      <c r="AE91" s="75"/>
+      <c r="AF91" s="75"/>
+      <c r="AG91" s="75"/>
+      <c r="AH91" s="75"/>
+      <c r="AI91" s="75"/>
+      <c r="AJ91" s="75"/>
+      <c r="AK91" s="75"/>
+      <c r="AL91" s="75"/>
+      <c r="AM91" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="48">
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:U6"/>
     <mergeCell ref="A1:AM1"/>
     <mergeCell ref="A2:AM2"/>
     <mergeCell ref="A3:AM3"/>

--- a/Project Files/Forms System (SHS)/templates/shs_sf4.xlsx
+++ b/Project Files/Forms System (SHS)/templates/shs_sf4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark Bangcaya\Documents\GitHub\CBNHS-System-SHS\Project Files\Forms System (SHS)\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CBNHS System\Project Files\Forms System Final\exports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F83DE2-C501-45F8-85E1-486B7F90F1BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{156520F0-6F83-42D5-9A15-29C9DFBA1E1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2310" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150"/>
   </bookViews>
   <sheets>
     <sheet name="10_Sections (0)" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="36">
   <si>
     <t>Grade Level</t>
   </si>
@@ -147,15 +147,12 @@
   <si>
     <t>Generated thru LIS</t>
   </si>
-  <si>
-    <t>Semester</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,12 +216,6 @@
       <b/>
       <sz val="9"/>
       <name val="SansSerif"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -746,7 +737,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -829,59 +820,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -892,34 +860,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1">
@@ -946,46 +902,69 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Mah Style" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Mah Style" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1811,14 +1790,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AM31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6:U6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AJ6" sqref="AJ6:AM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1833,344 +1812,337 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="23.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
     </row>
     <row r="2" spans="1:39" s="3" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
     </row>
     <row r="3" spans="1:39" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1">
       <c r="C4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="38" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="42"/>
-      <c r="N4" s="39" t="s">
+      <c r="I4" s="61"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="48"/>
+      <c r="N4" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="38" t="s">
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="42"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="48"/>
     </row>
     <row r="5" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="42"/>
-      <c r="Q6" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="R6" s="46"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="39" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="48"/>
+      <c r="V6" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="38" t="s">
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="40"/>
-      <c r="AK6" s="41"/>
-      <c r="AL6" s="41"/>
-      <c r="AM6" s="42"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="62"/>
+      <c r="AI6" s="61"/>
+      <c r="AJ6" s="60"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="47"/>
+      <c r="AM6" s="48"/>
     </row>
     <row r="7" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="8" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="50" t="s">
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="50" t="s">
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="50" t="s">
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="51"/>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="51"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="50" t="s">
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AF8" s="51"/>
-      <c r="AG8" s="51"/>
-      <c r="AH8" s="51"/>
-      <c r="AI8" s="51"/>
-      <c r="AJ8" s="51"/>
-      <c r="AK8" s="51"/>
-      <c r="AL8" s="51"/>
-      <c r="AM8" s="52"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="44"/>
+      <c r="AI8" s="44"/>
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="44"/>
+      <c r="AL8" s="44"/>
+      <c r="AM8" s="45"/>
     </row>
     <row r="9" spans="1:39" ht="45.6" customHeight="1" thickBot="1">
-      <c r="A9" s="61"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="55" t="s">
+      <c r="A9" s="74"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="55" t="s">
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="56"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="59" t="s">
+      <c r="K9" s="76"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="56"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="55" t="s">
+      <c r="N9" s="76"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="55" t="s">
+      <c r="Q9" s="76"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="56"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="59" t="s">
+      <c r="T9" s="76"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="56"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="55" t="s">
+      <c r="W9" s="76"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="55" t="s">
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="78"/>
+      <c r="AB9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="59" t="s">
+      <c r="AC9" s="76"/>
+      <c r="AD9" s="78"/>
+      <c r="AE9" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="AF9" s="56"/>
-      <c r="AG9" s="58"/>
-      <c r="AH9" s="55" t="s">
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="78"/>
+      <c r="AH9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AI9" s="56"/>
-      <c r="AJ9" s="58"/>
-      <c r="AK9" s="55" t="s">
+      <c r="AI9" s="76"/>
+      <c r="AJ9" s="78"/>
+      <c r="AK9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="AL9" s="56"/>
-      <c r="AM9" s="58"/>
+      <c r="AL9" s="76"/>
+      <c r="AM9" s="78"/>
     </row>
     <row r="10" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A10" s="62"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="22" t="s">
         <v>11</v>
       </c>
@@ -2180,16 +2152,16 @@
       <c r="F10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="71" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="70" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="23" t="s">
@@ -2198,82 +2170,82 @@
       <c r="L10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="36" t="s">
+      <c r="M10" s="70" t="s">
         <v>11</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="37" t="s">
+      <c r="O10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="36" t="s">
+      <c r="Q10" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="37" t="s">
+      <c r="R10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="S10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="36" t="s">
+      <c r="T10" s="70" t="s">
         <v>12</v>
       </c>
       <c r="U10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="36" t="s">
+      <c r="V10" s="70" t="s">
         <v>11</v>
       </c>
       <c r="W10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="37" t="s">
+      <c r="X10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="Y10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Z10" s="36" t="s">
+      <c r="Z10" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AA10" s="37" t="s">
+      <c r="AA10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="AB10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AC10" s="36" t="s">
+      <c r="AC10" s="70" t="s">
         <v>12</v>
       </c>
       <c r="AD10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AE10" s="36" t="s">
+      <c r="AE10" s="70" t="s">
         <v>11</v>
       </c>
       <c r="AF10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AG10" s="37" t="s">
+      <c r="AG10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="AH10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AI10" s="36" t="s">
+      <c r="AI10" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AJ10" s="37" t="s">
+      <c r="AJ10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="AK10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AL10" s="36" t="s">
+      <c r="AL10" s="70" t="s">
         <v>12</v>
       </c>
       <c r="AM10" s="24" t="s">
@@ -2284,52 +2256,52 @@
       <c r="A11" s="7"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="32"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="35"/>
-      <c r="AH11" s="33"/>
-      <c r="AI11" s="32"/>
-      <c r="AJ11" s="35"/>
-      <c r="AK11" s="33"/>
-      <c r="AL11" s="32"/>
-      <c r="AM11" s="34"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="66"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="69"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="66"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="69"/>
+      <c r="AH11" s="67"/>
+      <c r="AI11" s="66"/>
+      <c r="AJ11" s="69"/>
+      <c r="AK11" s="67"/>
+      <c r="AL11" s="66"/>
+      <c r="AM11" s="68"/>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="8" t="s">
@@ -2915,11 +2887,11 @@
       <c r="AM20" s="8"/>
     </row>
     <row r="21" spans="1:39" ht="29.45" customHeight="1" thickBot="1">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
       <c r="D21" s="28"/>
       <c r="E21" s="29"/>
       <c r="F21" s="18"/>
@@ -2958,11 +2930,11 @@
       <c r="AM21" s="18"/>
     </row>
     <row r="22" spans="1:39" ht="30.6" customHeight="1" thickBot="1">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="30"/>
       <c r="E22" s="31"/>
       <c r="F22" s="18"/>
@@ -3001,11 +2973,11 @@
       <c r="AM22" s="18"/>
     </row>
     <row r="23" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="28"/>
       <c r="E23" s="29"/>
       <c r="F23" s="18"/>
@@ -3044,11 +3016,11 @@
       <c r="AM23" s="18"/>
     </row>
     <row r="24" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
       <c r="F24" s="18"/>
@@ -3087,11 +3059,11 @@
       <c r="AM24" s="18"/>
     </row>
     <row r="25" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A25" s="76" t="s">
+      <c r="A25" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="28"/>
       <c r="E25" s="29"/>
       <c r="F25" s="18"/>
@@ -3130,11 +3102,11 @@
       <c r="AM25" s="18"/>
     </row>
     <row r="26" spans="1:39" ht="31.9" customHeight="1" thickBot="1">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="79"/>
-      <c r="C26" s="80"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="28"/>
       <c r="E26" s="29"/>
       <c r="F26" s="18"/>
@@ -3173,21 +3145,21 @@
       <c r="AM26" s="18"/>
     </row>
     <row r="29" spans="1:39">
-      <c r="O29" s="81" t="s">
+      <c r="O29" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="74"/>
-      <c r="S29" s="74"/>
-      <c r="T29" s="74"/>
-      <c r="U29" s="74"/>
-      <c r="V29" s="74"/>
-      <c r="W29" s="74"/>
-      <c r="X29" s="74"/>
-      <c r="Y29" s="74"/>
-      <c r="Z29" s="74"/>
-      <c r="AA29" s="74"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="33"/>
+      <c r="AA29" s="33"/>
       <c r="AB29" s="21"/>
       <c r="AC29" s="21"/>
       <c r="AD29" s="21"/>
@@ -3202,65 +3174,65 @@
       <c r="AM29" s="21"/>
     </row>
     <row r="30" spans="1:39" ht="15.75" thickBot="1">
-      <c r="O30" s="82"/>
-      <c r="P30" s="82"/>
-      <c r="Q30" s="82"/>
-      <c r="R30" s="82"/>
-      <c r="S30" s="82"/>
-      <c r="T30" s="82"/>
-      <c r="U30" s="82"/>
-      <c r="V30" s="82"/>
-      <c r="W30" s="82"/>
-      <c r="X30" s="82"/>
-      <c r="Y30" s="82"/>
-      <c r="Z30" s="82"/>
-      <c r="AA30" s="82"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="50"/>
+      <c r="Z30" s="50"/>
+      <c r="AA30" s="50"/>
       <c r="AB30" s="21"/>
       <c r="AC30" s="21"/>
-      <c r="AD30" s="83"/>
-      <c r="AE30" s="83"/>
-      <c r="AF30" s="83"/>
-      <c r="AG30" s="83"/>
-      <c r="AH30" s="83"/>
-      <c r="AI30" s="83"/>
-      <c r="AJ30" s="83"/>
-      <c r="AK30" s="83"/>
-      <c r="AL30" s="83"/>
-      <c r="AM30" s="83"/>
+      <c r="AD30" s="42"/>
+      <c r="AE30" s="42"/>
+      <c r="AF30" s="42"/>
+      <c r="AG30" s="42"/>
+      <c r="AH30" s="42"/>
+      <c r="AI30" s="42"/>
+      <c r="AJ30" s="42"/>
+      <c r="AK30" s="42"/>
+      <c r="AL30" s="42"/>
+      <c r="AM30" s="42"/>
     </row>
     <row r="31" spans="1:39">
-      <c r="O31" s="73" t="s">
+      <c r="O31" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="74"/>
-      <c r="S31" s="74"/>
-      <c r="T31" s="74"/>
-      <c r="U31" s="74"/>
-      <c r="V31" s="74"/>
-      <c r="W31" s="74"/>
-      <c r="X31" s="74"/>
-      <c r="Y31" s="74"/>
-      <c r="Z31" s="74"/>
-      <c r="AA31" s="74"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="33"/>
+      <c r="AA31" s="33"/>
       <c r="AB31" s="21"/>
       <c r="AC31" s="21"/>
-      <c r="AD31" s="75" t="s">
+      <c r="AD31" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="AE31" s="75"/>
-      <c r="AF31" s="75"/>
-      <c r="AG31" s="75"/>
-      <c r="AH31" s="75"/>
-      <c r="AI31" s="75"/>
-      <c r="AJ31" s="75"/>
-      <c r="AK31" s="75"/>
-      <c r="AL31" s="75"/>
-      <c r="AM31" s="75"/>
+      <c r="AE31" s="34"/>
+      <c r="AF31" s="34"/>
+      <c r="AG31" s="34"/>
+      <c r="AH31" s="34"/>
+      <c r="AI31" s="34"/>
+      <c r="AJ31" s="34"/>
+      <c r="AK31" s="34"/>
+      <c r="AL31" s="34"/>
+      <c r="AM31" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="46">
     <mergeCell ref="O31:AA31"/>
     <mergeCell ref="AD31:AM31"/>
     <mergeCell ref="A24:C24"/>
@@ -3307,8 +3279,6 @@
     <mergeCell ref="Q4:U4"/>
     <mergeCell ref="V4:X4"/>
     <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:U6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -3317,14 +3287,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AM41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6:U6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3339,344 +3309,337 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="23.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
     </row>
     <row r="2" spans="1:39" s="3" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
     </row>
     <row r="3" spans="1:39" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1">
       <c r="C4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="38" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="42"/>
-      <c r="N4" s="39" t="s">
+      <c r="I4" s="61"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="48"/>
+      <c r="N4" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="38" t="s">
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="42"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="48"/>
     </row>
     <row r="5" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="42"/>
-      <c r="Q6" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="R6" s="46"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="39" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="48"/>
+      <c r="V6" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="38" t="s">
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="40"/>
-      <c r="AK6" s="41"/>
-      <c r="AL6" s="41"/>
-      <c r="AM6" s="42"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="62"/>
+      <c r="AI6" s="61"/>
+      <c r="AJ6" s="60"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="47"/>
+      <c r="AM6" s="48"/>
     </row>
     <row r="7" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="8" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="50" t="s">
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="50" t="s">
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="50" t="s">
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="51"/>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="51"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="50" t="s">
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AF8" s="51"/>
-      <c r="AG8" s="51"/>
-      <c r="AH8" s="51"/>
-      <c r="AI8" s="51"/>
-      <c r="AJ8" s="51"/>
-      <c r="AK8" s="51"/>
-      <c r="AL8" s="51"/>
-      <c r="AM8" s="52"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="44"/>
+      <c r="AI8" s="44"/>
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="44"/>
+      <c r="AL8" s="44"/>
+      <c r="AM8" s="45"/>
     </row>
     <row r="9" spans="1:39" ht="45.6" customHeight="1" thickBot="1">
-      <c r="A9" s="61"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="55" t="s">
+      <c r="A9" s="74"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="55" t="s">
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="56"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="59" t="s">
+      <c r="K9" s="76"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="56"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="55" t="s">
+      <c r="N9" s="76"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="55" t="s">
+      <c r="Q9" s="76"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="56"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="59" t="s">
+      <c r="T9" s="76"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="56"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="55" t="s">
+      <c r="W9" s="76"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="55" t="s">
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="78"/>
+      <c r="AB9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="59" t="s">
+      <c r="AC9" s="76"/>
+      <c r="AD9" s="78"/>
+      <c r="AE9" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="AF9" s="56"/>
-      <c r="AG9" s="58"/>
-      <c r="AH9" s="55" t="s">
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="78"/>
+      <c r="AH9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AI9" s="56"/>
-      <c r="AJ9" s="58"/>
-      <c r="AK9" s="55" t="s">
+      <c r="AI9" s="76"/>
+      <c r="AJ9" s="78"/>
+      <c r="AK9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="AL9" s="56"/>
-      <c r="AM9" s="58"/>
+      <c r="AL9" s="76"/>
+      <c r="AM9" s="78"/>
     </row>
     <row r="10" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A10" s="62"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="22" t="s">
         <v>11</v>
       </c>
@@ -3686,16 +3649,16 @@
       <c r="F10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="71" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="70" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="23" t="s">
@@ -3704,82 +3667,82 @@
       <c r="L10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="36" t="s">
+      <c r="M10" s="70" t="s">
         <v>11</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="37" t="s">
+      <c r="O10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="36" t="s">
+      <c r="Q10" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="37" t="s">
+      <c r="R10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="S10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="36" t="s">
+      <c r="T10" s="70" t="s">
         <v>12</v>
       </c>
       <c r="U10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="36" t="s">
+      <c r="V10" s="70" t="s">
         <v>11</v>
       </c>
       <c r="W10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="37" t="s">
+      <c r="X10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="Y10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Z10" s="36" t="s">
+      <c r="Z10" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AA10" s="37" t="s">
+      <c r="AA10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="AB10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AC10" s="36" t="s">
+      <c r="AC10" s="70" t="s">
         <v>12</v>
       </c>
       <c r="AD10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AE10" s="36" t="s">
+      <c r="AE10" s="70" t="s">
         <v>11</v>
       </c>
       <c r="AF10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AG10" s="37" t="s">
+      <c r="AG10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="AH10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AI10" s="36" t="s">
+      <c r="AI10" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AJ10" s="37" t="s">
+      <c r="AJ10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="AK10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AL10" s="36" t="s">
+      <c r="AL10" s="70" t="s">
         <v>12</v>
       </c>
       <c r="AM10" s="24" t="s">
@@ -3790,52 +3753,52 @@
       <c r="A11" s="7"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="32"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="35"/>
-      <c r="AH11" s="33"/>
-      <c r="AI11" s="32"/>
-      <c r="AJ11" s="35"/>
-      <c r="AK11" s="33"/>
-      <c r="AL11" s="32"/>
-      <c r="AM11" s="34"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="66"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="69"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="66"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="69"/>
+      <c r="AH11" s="67"/>
+      <c r="AI11" s="66"/>
+      <c r="AJ11" s="69"/>
+      <c r="AK11" s="67"/>
+      <c r="AL11" s="66"/>
+      <c r="AM11" s="68"/>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="8" t="s">
@@ -4951,11 +4914,11 @@
       <c r="AM30" s="8"/>
     </row>
     <row r="31" spans="1:39" ht="29.45" customHeight="1" thickBot="1">
-      <c r="A31" s="71" t="s">
+      <c r="A31" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
       <c r="D31" s="28"/>
       <c r="E31" s="29"/>
       <c r="F31" s="18"/>
@@ -4994,11 +4957,11 @@
       <c r="AM31" s="18"/>
     </row>
     <row r="32" spans="1:39" ht="30.6" customHeight="1" thickBot="1">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="30"/>
       <c r="E32" s="31"/>
       <c r="F32" s="18"/>
@@ -5037,11 +5000,11 @@
       <c r="AM32" s="18"/>
     </row>
     <row r="33" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="28"/>
       <c r="E33" s="29"/>
       <c r="F33" s="18"/>
@@ -5080,11 +5043,11 @@
       <c r="AM33" s="18"/>
     </row>
     <row r="34" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
       <c r="F34" s="18"/>
@@ -5123,11 +5086,11 @@
       <c r="AM34" s="18"/>
     </row>
     <row r="35" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A35" s="76" t="s">
+      <c r="A35" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="28"/>
       <c r="E35" s="29"/>
       <c r="F35" s="18"/>
@@ -5166,11 +5129,11 @@
       <c r="AM35" s="18"/>
     </row>
     <row r="36" spans="1:39" ht="31.9" customHeight="1" thickBot="1">
-      <c r="A36" s="78" t="s">
+      <c r="A36" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="79"/>
-      <c r="C36" s="80"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="41"/>
       <c r="D36" s="28"/>
       <c r="E36" s="29"/>
       <c r="F36" s="18"/>
@@ -5209,21 +5172,21 @@
       <c r="AM36" s="18"/>
     </row>
     <row r="39" spans="1:39">
-      <c r="O39" s="81" t="s">
+      <c r="O39" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="P39" s="74"/>
-      <c r="Q39" s="74"/>
-      <c r="R39" s="74"/>
-      <c r="S39" s="74"/>
-      <c r="T39" s="74"/>
-      <c r="U39" s="74"/>
-      <c r="V39" s="74"/>
-      <c r="W39" s="74"/>
-      <c r="X39" s="74"/>
-      <c r="Y39" s="74"/>
-      <c r="Z39" s="74"/>
-      <c r="AA39" s="74"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="33"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="33"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="33"/>
+      <c r="Z39" s="33"/>
+      <c r="AA39" s="33"/>
       <c r="AB39" s="21"/>
       <c r="AC39" s="21"/>
       <c r="AD39" s="21"/>
@@ -5238,65 +5201,65 @@
       <c r="AM39" s="21"/>
     </row>
     <row r="40" spans="1:39" ht="15.75" thickBot="1">
-      <c r="O40" s="82"/>
-      <c r="P40" s="82"/>
-      <c r="Q40" s="82"/>
-      <c r="R40" s="82"/>
-      <c r="S40" s="82"/>
-      <c r="T40" s="82"/>
-      <c r="U40" s="82"/>
-      <c r="V40" s="82"/>
-      <c r="W40" s="82"/>
-      <c r="X40" s="82"/>
-      <c r="Y40" s="82"/>
-      <c r="Z40" s="82"/>
-      <c r="AA40" s="82"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="50"/>
+      <c r="S40" s="50"/>
+      <c r="T40" s="50"/>
+      <c r="U40" s="50"/>
+      <c r="V40" s="50"/>
+      <c r="W40" s="50"/>
+      <c r="X40" s="50"/>
+      <c r="Y40" s="50"/>
+      <c r="Z40" s="50"/>
+      <c r="AA40" s="50"/>
       <c r="AB40" s="21"/>
       <c r="AC40" s="21"/>
-      <c r="AD40" s="83"/>
-      <c r="AE40" s="83"/>
-      <c r="AF40" s="83"/>
-      <c r="AG40" s="83"/>
-      <c r="AH40" s="83"/>
-      <c r="AI40" s="83"/>
-      <c r="AJ40" s="83"/>
-      <c r="AK40" s="83"/>
-      <c r="AL40" s="83"/>
-      <c r="AM40" s="83"/>
+      <c r="AD40" s="42"/>
+      <c r="AE40" s="42"/>
+      <c r="AF40" s="42"/>
+      <c r="AG40" s="42"/>
+      <c r="AH40" s="42"/>
+      <c r="AI40" s="42"/>
+      <c r="AJ40" s="42"/>
+      <c r="AK40" s="42"/>
+      <c r="AL40" s="42"/>
+      <c r="AM40" s="42"/>
     </row>
     <row r="41" spans="1:39">
-      <c r="O41" s="73" t="s">
+      <c r="O41" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="P41" s="74"/>
-      <c r="Q41" s="74"/>
-      <c r="R41" s="74"/>
-      <c r="S41" s="74"/>
-      <c r="T41" s="74"/>
-      <c r="U41" s="74"/>
-      <c r="V41" s="74"/>
-      <c r="W41" s="74"/>
-      <c r="X41" s="74"/>
-      <c r="Y41" s="74"/>
-      <c r="Z41" s="74"/>
-      <c r="AA41" s="74"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="33"/>
+      <c r="U41" s="33"/>
+      <c r="V41" s="33"/>
+      <c r="W41" s="33"/>
+      <c r="X41" s="33"/>
+      <c r="Y41" s="33"/>
+      <c r="Z41" s="33"/>
+      <c r="AA41" s="33"/>
       <c r="AB41" s="21"/>
       <c r="AC41" s="21"/>
-      <c r="AD41" s="75" t="s">
+      <c r="AD41" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="AE41" s="75"/>
-      <c r="AF41" s="75"/>
-      <c r="AG41" s="75"/>
-      <c r="AH41" s="75"/>
-      <c r="AI41" s="75"/>
-      <c r="AJ41" s="75"/>
-      <c r="AK41" s="75"/>
-      <c r="AL41" s="75"/>
-      <c r="AM41" s="75"/>
+      <c r="AE41" s="34"/>
+      <c r="AF41" s="34"/>
+      <c r="AG41" s="34"/>
+      <c r="AH41" s="34"/>
+      <c r="AI41" s="34"/>
+      <c r="AJ41" s="34"/>
+      <c r="AK41" s="34"/>
+      <c r="AL41" s="34"/>
+      <c r="AM41" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="46">
     <mergeCell ref="O41:AA41"/>
     <mergeCell ref="AD41:AM41"/>
     <mergeCell ref="A34:C34"/>
@@ -5331,8 +5294,6 @@
     <mergeCell ref="C6:O6"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="Y6:AB6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:U6"/>
     <mergeCell ref="AC6:AI6"/>
     <mergeCell ref="AJ6:AM6"/>
     <mergeCell ref="A1:AM1"/>
@@ -5353,14 +5314,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AM51"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6:U6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5375,344 +5336,337 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="23.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
     </row>
     <row r="2" spans="1:39" s="3" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
     </row>
     <row r="3" spans="1:39" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1">
       <c r="C4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="38" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="42"/>
-      <c r="N4" s="39" t="s">
+      <c r="I4" s="61"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="48"/>
+      <c r="N4" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="38" t="s">
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="42"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="48"/>
     </row>
     <row r="5" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="42"/>
-      <c r="Q6" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="R6" s="46"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="39" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="48"/>
+      <c r="V6" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="38" t="s">
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="40"/>
-      <c r="AK6" s="41"/>
-      <c r="AL6" s="41"/>
-      <c r="AM6" s="42"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="62"/>
+      <c r="AI6" s="61"/>
+      <c r="AJ6" s="60"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="47"/>
+      <c r="AM6" s="48"/>
     </row>
     <row r="7" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="8" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="50" t="s">
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="50" t="s">
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="50" t="s">
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="51"/>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="51"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="50" t="s">
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AF8" s="51"/>
-      <c r="AG8" s="51"/>
-      <c r="AH8" s="51"/>
-      <c r="AI8" s="51"/>
-      <c r="AJ8" s="51"/>
-      <c r="AK8" s="51"/>
-      <c r="AL8" s="51"/>
-      <c r="AM8" s="52"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="44"/>
+      <c r="AI8" s="44"/>
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="44"/>
+      <c r="AL8" s="44"/>
+      <c r="AM8" s="45"/>
     </row>
     <row r="9" spans="1:39" ht="45.6" customHeight="1" thickBot="1">
-      <c r="A9" s="61"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="55" t="s">
+      <c r="A9" s="74"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="55" t="s">
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="56"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="59" t="s">
+      <c r="K9" s="76"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="56"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="55" t="s">
+      <c r="N9" s="76"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="55" t="s">
+      <c r="Q9" s="76"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="56"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="59" t="s">
+      <c r="T9" s="76"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="56"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="55" t="s">
+      <c r="W9" s="76"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="55" t="s">
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="78"/>
+      <c r="AB9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="59" t="s">
+      <c r="AC9" s="76"/>
+      <c r="AD9" s="78"/>
+      <c r="AE9" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="AF9" s="56"/>
-      <c r="AG9" s="58"/>
-      <c r="AH9" s="55" t="s">
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="78"/>
+      <c r="AH9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AI9" s="56"/>
-      <c r="AJ9" s="58"/>
-      <c r="AK9" s="55" t="s">
+      <c r="AI9" s="76"/>
+      <c r="AJ9" s="78"/>
+      <c r="AK9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="AL9" s="56"/>
-      <c r="AM9" s="58"/>
+      <c r="AL9" s="76"/>
+      <c r="AM9" s="78"/>
     </row>
     <row r="10" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A10" s="62"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="22" t="s">
         <v>11</v>
       </c>
@@ -5722,16 +5676,16 @@
       <c r="F10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="71" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="70" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="23" t="s">
@@ -5740,82 +5694,82 @@
       <c r="L10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="36" t="s">
+      <c r="M10" s="70" t="s">
         <v>11</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="37" t="s">
+      <c r="O10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="36" t="s">
+      <c r="Q10" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="37" t="s">
+      <c r="R10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="S10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="36" t="s">
+      <c r="T10" s="70" t="s">
         <v>12</v>
       </c>
       <c r="U10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="36" t="s">
+      <c r="V10" s="70" t="s">
         <v>11</v>
       </c>
       <c r="W10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="37" t="s">
+      <c r="X10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="Y10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Z10" s="36" t="s">
+      <c r="Z10" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AA10" s="37" t="s">
+      <c r="AA10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="AB10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AC10" s="36" t="s">
+      <c r="AC10" s="70" t="s">
         <v>12</v>
       </c>
       <c r="AD10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AE10" s="36" t="s">
+      <c r="AE10" s="70" t="s">
         <v>11</v>
       </c>
       <c r="AF10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AG10" s="37" t="s">
+      <c r="AG10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="AH10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AI10" s="36" t="s">
+      <c r="AI10" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AJ10" s="37" t="s">
+      <c r="AJ10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="AK10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AL10" s="36" t="s">
+      <c r="AL10" s="70" t="s">
         <v>12</v>
       </c>
       <c r="AM10" s="24" t="s">
@@ -5826,52 +5780,52 @@
       <c r="A11" s="7"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="32"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="35"/>
-      <c r="AH11" s="33"/>
-      <c r="AI11" s="32"/>
-      <c r="AJ11" s="35"/>
-      <c r="AK11" s="33"/>
-      <c r="AL11" s="32"/>
-      <c r="AM11" s="34"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="66"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="69"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="66"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="69"/>
+      <c r="AH11" s="67"/>
+      <c r="AI11" s="66"/>
+      <c r="AJ11" s="69"/>
+      <c r="AK11" s="67"/>
+      <c r="AL11" s="66"/>
+      <c r="AM11" s="68"/>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="8" t="s">
@@ -7397,11 +7351,11 @@
       <c r="AM40" s="8"/>
     </row>
     <row r="41" spans="1:39" ht="29.45" customHeight="1" thickBot="1">
-      <c r="A41" s="71" t="s">
+      <c r="A41" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="72"/>
-      <c r="C41" s="72"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
       <c r="D41" s="28"/>
       <c r="E41" s="29"/>
       <c r="F41" s="18"/>
@@ -7440,11 +7394,11 @@
       <c r="AM41" s="18"/>
     </row>
     <row r="42" spans="1:39" ht="30.6" customHeight="1" thickBot="1">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
       <c r="D42" s="30"/>
       <c r="E42" s="31"/>
       <c r="F42" s="18"/>
@@ -7483,11 +7437,11 @@
       <c r="AM42" s="18"/>
     </row>
     <row r="43" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A43" s="53" t="s">
+      <c r="A43" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
       <c r="D43" s="28"/>
       <c r="E43" s="29"/>
       <c r="F43" s="18"/>
@@ -7526,11 +7480,11 @@
       <c r="AM43" s="18"/>
     </row>
     <row r="44" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A44" s="53" t="s">
+      <c r="A44" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
       <c r="D44" s="28"/>
       <c r="E44" s="29"/>
       <c r="F44" s="18"/>
@@ -7569,11 +7523,11 @@
       <c r="AM44" s="18"/>
     </row>
     <row r="45" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A45" s="76" t="s">
+      <c r="A45" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="77"/>
-      <c r="C45" s="77"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
       <c r="D45" s="28"/>
       <c r="E45" s="29"/>
       <c r="F45" s="18"/>
@@ -7612,11 +7566,11 @@
       <c r="AM45" s="18"/>
     </row>
     <row r="46" spans="1:39" ht="31.9" customHeight="1" thickBot="1">
-      <c r="A46" s="78" t="s">
+      <c r="A46" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="79"/>
-      <c r="C46" s="80"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="41"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
       <c r="F46" s="18"/>
@@ -7655,21 +7609,21 @@
       <c r="AM46" s="18"/>
     </row>
     <row r="49" spans="15:39">
-      <c r="O49" s="81" t="s">
+      <c r="O49" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="P49" s="74"/>
-      <c r="Q49" s="74"/>
-      <c r="R49" s="74"/>
-      <c r="S49" s="74"/>
-      <c r="T49" s="74"/>
-      <c r="U49" s="74"/>
-      <c r="V49" s="74"/>
-      <c r="W49" s="74"/>
-      <c r="X49" s="74"/>
-      <c r="Y49" s="74"/>
-      <c r="Z49" s="74"/>
-      <c r="AA49" s="74"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="33"/>
+      <c r="U49" s="33"/>
+      <c r="V49" s="33"/>
+      <c r="W49" s="33"/>
+      <c r="X49" s="33"/>
+      <c r="Y49" s="33"/>
+      <c r="Z49" s="33"/>
+      <c r="AA49" s="33"/>
       <c r="AB49" s="21"/>
       <c r="AC49" s="21"/>
       <c r="AD49" s="21"/>
@@ -7684,65 +7638,65 @@
       <c r="AM49" s="21"/>
     </row>
     <row r="50" spans="15:39" ht="15.75" thickBot="1">
-      <c r="O50" s="82"/>
-      <c r="P50" s="82"/>
-      <c r="Q50" s="82"/>
-      <c r="R50" s="82"/>
-      <c r="S50" s="82"/>
-      <c r="T50" s="82"/>
-      <c r="U50" s="82"/>
-      <c r="V50" s="82"/>
-      <c r="W50" s="82"/>
-      <c r="X50" s="82"/>
-      <c r="Y50" s="82"/>
-      <c r="Z50" s="82"/>
-      <c r="AA50" s="82"/>
+      <c r="O50" s="50"/>
+      <c r="P50" s="50"/>
+      <c r="Q50" s="50"/>
+      <c r="R50" s="50"/>
+      <c r="S50" s="50"/>
+      <c r="T50" s="50"/>
+      <c r="U50" s="50"/>
+      <c r="V50" s="50"/>
+      <c r="W50" s="50"/>
+      <c r="X50" s="50"/>
+      <c r="Y50" s="50"/>
+      <c r="Z50" s="50"/>
+      <c r="AA50" s="50"/>
       <c r="AB50" s="21"/>
       <c r="AC50" s="21"/>
-      <c r="AD50" s="83"/>
-      <c r="AE50" s="83"/>
-      <c r="AF50" s="83"/>
-      <c r="AG50" s="83"/>
-      <c r="AH50" s="83"/>
-      <c r="AI50" s="83"/>
-      <c r="AJ50" s="83"/>
-      <c r="AK50" s="83"/>
-      <c r="AL50" s="83"/>
-      <c r="AM50" s="83"/>
+      <c r="AD50" s="42"/>
+      <c r="AE50" s="42"/>
+      <c r="AF50" s="42"/>
+      <c r="AG50" s="42"/>
+      <c r="AH50" s="42"/>
+      <c r="AI50" s="42"/>
+      <c r="AJ50" s="42"/>
+      <c r="AK50" s="42"/>
+      <c r="AL50" s="42"/>
+      <c r="AM50" s="42"/>
     </row>
     <row r="51" spans="15:39">
-      <c r="O51" s="73" t="s">
+      <c r="O51" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="P51" s="74"/>
-      <c r="Q51" s="74"/>
-      <c r="R51" s="74"/>
-      <c r="S51" s="74"/>
-      <c r="T51" s="74"/>
-      <c r="U51" s="74"/>
-      <c r="V51" s="74"/>
-      <c r="W51" s="74"/>
-      <c r="X51" s="74"/>
-      <c r="Y51" s="74"/>
-      <c r="Z51" s="74"/>
-      <c r="AA51" s="74"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33"/>
+      <c r="S51" s="33"/>
+      <c r="T51" s="33"/>
+      <c r="U51" s="33"/>
+      <c r="V51" s="33"/>
+      <c r="W51" s="33"/>
+      <c r="X51" s="33"/>
+      <c r="Y51" s="33"/>
+      <c r="Z51" s="33"/>
+      <c r="AA51" s="33"/>
       <c r="AB51" s="21"/>
       <c r="AC51" s="21"/>
-      <c r="AD51" s="75" t="s">
+      <c r="AD51" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="AE51" s="75"/>
-      <c r="AF51" s="75"/>
-      <c r="AG51" s="75"/>
-      <c r="AH51" s="75"/>
-      <c r="AI51" s="75"/>
-      <c r="AJ51" s="75"/>
-      <c r="AK51" s="75"/>
-      <c r="AL51" s="75"/>
-      <c r="AM51" s="75"/>
+      <c r="AE51" s="34"/>
+      <c r="AF51" s="34"/>
+      <c r="AG51" s="34"/>
+      <c r="AH51" s="34"/>
+      <c r="AI51" s="34"/>
+      <c r="AJ51" s="34"/>
+      <c r="AK51" s="34"/>
+      <c r="AL51" s="34"/>
+      <c r="AM51" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="46">
     <mergeCell ref="O51:AA51"/>
     <mergeCell ref="AD51:AM51"/>
     <mergeCell ref="A44:C44"/>
@@ -7777,8 +7731,6 @@
     <mergeCell ref="C6:O6"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="Y6:AB6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:U6"/>
     <mergeCell ref="AC6:AI6"/>
     <mergeCell ref="AJ6:AM6"/>
     <mergeCell ref="A1:AM1"/>
@@ -7799,14 +7751,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AM61"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6:U6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7821,344 +7773,337 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="23.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
     </row>
     <row r="2" spans="1:39" s="3" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
     </row>
     <row r="3" spans="1:39" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1">
       <c r="C4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="38" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="42"/>
-      <c r="N4" s="39" t="s">
+      <c r="I4" s="61"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="48"/>
+      <c r="N4" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="38" t="s">
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="42"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="48"/>
     </row>
     <row r="5" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="42"/>
-      <c r="Q6" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="R6" s="46"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="39" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="48"/>
+      <c r="V6" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="38" t="s">
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="40"/>
-      <c r="AK6" s="41"/>
-      <c r="AL6" s="41"/>
-      <c r="AM6" s="42"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="62"/>
+      <c r="AI6" s="61"/>
+      <c r="AJ6" s="60"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="47"/>
+      <c r="AM6" s="48"/>
     </row>
     <row r="7" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="8" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="50" t="s">
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="50" t="s">
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="50" t="s">
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="51"/>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="51"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="50" t="s">
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AF8" s="51"/>
-      <c r="AG8" s="51"/>
-      <c r="AH8" s="51"/>
-      <c r="AI8" s="51"/>
-      <c r="AJ8" s="51"/>
-      <c r="AK8" s="51"/>
-      <c r="AL8" s="51"/>
-      <c r="AM8" s="52"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="44"/>
+      <c r="AI8" s="44"/>
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="44"/>
+      <c r="AL8" s="44"/>
+      <c r="AM8" s="45"/>
     </row>
     <row r="9" spans="1:39" ht="45.6" customHeight="1" thickBot="1">
-      <c r="A9" s="61"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="55" t="s">
+      <c r="A9" s="74"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="55" t="s">
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="56"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="59" t="s">
+      <c r="K9" s="76"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="56"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="55" t="s">
+      <c r="N9" s="76"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="55" t="s">
+      <c r="Q9" s="76"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="56"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="59" t="s">
+      <c r="T9" s="76"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="56"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="55" t="s">
+      <c r="W9" s="76"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="55" t="s">
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="78"/>
+      <c r="AB9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="59" t="s">
+      <c r="AC9" s="76"/>
+      <c r="AD9" s="78"/>
+      <c r="AE9" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="AF9" s="56"/>
-      <c r="AG9" s="58"/>
-      <c r="AH9" s="55" t="s">
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="78"/>
+      <c r="AH9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AI9" s="56"/>
-      <c r="AJ9" s="58"/>
-      <c r="AK9" s="55" t="s">
+      <c r="AI9" s="76"/>
+      <c r="AJ9" s="78"/>
+      <c r="AK9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="AL9" s="56"/>
-      <c r="AM9" s="58"/>
+      <c r="AL9" s="76"/>
+      <c r="AM9" s="78"/>
     </row>
     <row r="10" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A10" s="62"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="22" t="s">
         <v>11</v>
       </c>
@@ -8168,16 +8113,16 @@
       <c r="F10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="71" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="70" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="23" t="s">
@@ -8186,82 +8131,82 @@
       <c r="L10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="36" t="s">
+      <c r="M10" s="70" t="s">
         <v>11</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="37" t="s">
+      <c r="O10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="36" t="s">
+      <c r="Q10" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="37" t="s">
+      <c r="R10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="S10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="36" t="s">
+      <c r="T10" s="70" t="s">
         <v>12</v>
       </c>
       <c r="U10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="36" t="s">
+      <c r="V10" s="70" t="s">
         <v>11</v>
       </c>
       <c r="W10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="37" t="s">
+      <c r="X10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="Y10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Z10" s="36" t="s">
+      <c r="Z10" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AA10" s="37" t="s">
+      <c r="AA10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="AB10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AC10" s="36" t="s">
+      <c r="AC10" s="70" t="s">
         <v>12</v>
       </c>
       <c r="AD10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AE10" s="36" t="s">
+      <c r="AE10" s="70" t="s">
         <v>11</v>
       </c>
       <c r="AF10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AG10" s="37" t="s">
+      <c r="AG10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="AH10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AI10" s="36" t="s">
+      <c r="AI10" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AJ10" s="37" t="s">
+      <c r="AJ10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="AK10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AL10" s="36" t="s">
+      <c r="AL10" s="70" t="s">
         <v>12</v>
       </c>
       <c r="AM10" s="24" t="s">
@@ -8272,52 +8217,52 @@
       <c r="A11" s="7"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="32"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="35"/>
-      <c r="AH11" s="33"/>
-      <c r="AI11" s="32"/>
-      <c r="AJ11" s="35"/>
-      <c r="AK11" s="33"/>
-      <c r="AL11" s="32"/>
-      <c r="AM11" s="34"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="66"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="69"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="66"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="69"/>
+      <c r="AH11" s="67"/>
+      <c r="AI11" s="66"/>
+      <c r="AJ11" s="69"/>
+      <c r="AK11" s="67"/>
+      <c r="AL11" s="66"/>
+      <c r="AM11" s="68"/>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="8" t="s">
@@ -10253,11 +10198,11 @@
       <c r="AM50" s="8"/>
     </row>
     <row r="51" spans="1:39" ht="29.45" customHeight="1" thickBot="1">
-      <c r="A51" s="71" t="s">
+      <c r="A51" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="72"/>
-      <c r="C51" s="72"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="73"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
       <c r="F51" s="18"/>
@@ -10296,11 +10241,11 @@
       <c r="AM51" s="18"/>
     </row>
     <row r="52" spans="1:39" ht="30.6" customHeight="1" thickBot="1">
-      <c r="A52" s="53" t="s">
+      <c r="A52" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
       <c r="D52" s="30"/>
       <c r="E52" s="31"/>
       <c r="F52" s="18"/>
@@ -10339,11 +10284,11 @@
       <c r="AM52" s="18"/>
     </row>
     <row r="53" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A53" s="53" t="s">
+      <c r="A53" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
       <c r="D53" s="28"/>
       <c r="E53" s="29"/>
       <c r="F53" s="18"/>
@@ -10382,11 +10327,11 @@
       <c r="AM53" s="18"/>
     </row>
     <row r="54" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A54" s="53" t="s">
+      <c r="A54" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
       <c r="D54" s="28"/>
       <c r="E54" s="29"/>
       <c r="F54" s="18"/>
@@ -10425,11 +10370,11 @@
       <c r="AM54" s="18"/>
     </row>
     <row r="55" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A55" s="76" t="s">
+      <c r="A55" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B55" s="77"/>
-      <c r="C55" s="77"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
       <c r="D55" s="28"/>
       <c r="E55" s="29"/>
       <c r="F55" s="18"/>
@@ -10468,11 +10413,11 @@
       <c r="AM55" s="18"/>
     </row>
     <row r="56" spans="1:39" ht="31.9" customHeight="1" thickBot="1">
-      <c r="A56" s="78" t="s">
+      <c r="A56" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="79"/>
-      <c r="C56" s="80"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="41"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
       <c r="F56" s="18"/>
@@ -10511,21 +10456,21 @@
       <c r="AM56" s="18"/>
     </row>
     <row r="59" spans="1:39">
-      <c r="O59" s="81" t="s">
+      <c r="O59" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="P59" s="74"/>
-      <c r="Q59" s="74"/>
-      <c r="R59" s="74"/>
-      <c r="S59" s="74"/>
-      <c r="T59" s="74"/>
-      <c r="U59" s="74"/>
-      <c r="V59" s="74"/>
-      <c r="W59" s="74"/>
-      <c r="X59" s="74"/>
-      <c r="Y59" s="74"/>
-      <c r="Z59" s="74"/>
-      <c r="AA59" s="74"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="33"/>
+      <c r="S59" s="33"/>
+      <c r="T59" s="33"/>
+      <c r="U59" s="33"/>
+      <c r="V59" s="33"/>
+      <c r="W59" s="33"/>
+      <c r="X59" s="33"/>
+      <c r="Y59" s="33"/>
+      <c r="Z59" s="33"/>
+      <c r="AA59" s="33"/>
       <c r="AB59" s="21"/>
       <c r="AC59" s="21"/>
       <c r="AD59" s="21"/>
@@ -10540,65 +10485,65 @@
       <c r="AM59" s="21"/>
     </row>
     <row r="60" spans="1:39" ht="15.75" thickBot="1">
-      <c r="O60" s="82"/>
-      <c r="P60" s="82"/>
-      <c r="Q60" s="82"/>
-      <c r="R60" s="82"/>
-      <c r="S60" s="82"/>
-      <c r="T60" s="82"/>
-      <c r="U60" s="82"/>
-      <c r="V60" s="82"/>
-      <c r="W60" s="82"/>
-      <c r="X60" s="82"/>
-      <c r="Y60" s="82"/>
-      <c r="Z60" s="82"/>
-      <c r="AA60" s="82"/>
+      <c r="O60" s="50"/>
+      <c r="P60" s="50"/>
+      <c r="Q60" s="50"/>
+      <c r="R60" s="50"/>
+      <c r="S60" s="50"/>
+      <c r="T60" s="50"/>
+      <c r="U60" s="50"/>
+      <c r="V60" s="50"/>
+      <c r="W60" s="50"/>
+      <c r="X60" s="50"/>
+      <c r="Y60" s="50"/>
+      <c r="Z60" s="50"/>
+      <c r="AA60" s="50"/>
       <c r="AB60" s="21"/>
       <c r="AC60" s="21"/>
-      <c r="AD60" s="83"/>
-      <c r="AE60" s="83"/>
-      <c r="AF60" s="83"/>
-      <c r="AG60" s="83"/>
-      <c r="AH60" s="83"/>
-      <c r="AI60" s="83"/>
-      <c r="AJ60" s="83"/>
-      <c r="AK60" s="83"/>
-      <c r="AL60" s="83"/>
-      <c r="AM60" s="83"/>
+      <c r="AD60" s="42"/>
+      <c r="AE60" s="42"/>
+      <c r="AF60" s="42"/>
+      <c r="AG60" s="42"/>
+      <c r="AH60" s="42"/>
+      <c r="AI60" s="42"/>
+      <c r="AJ60" s="42"/>
+      <c r="AK60" s="42"/>
+      <c r="AL60" s="42"/>
+      <c r="AM60" s="42"/>
     </row>
     <row r="61" spans="1:39">
-      <c r="O61" s="73" t="s">
+      <c r="O61" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="P61" s="74"/>
-      <c r="Q61" s="74"/>
-      <c r="R61" s="74"/>
-      <c r="S61" s="74"/>
-      <c r="T61" s="74"/>
-      <c r="U61" s="74"/>
-      <c r="V61" s="74"/>
-      <c r="W61" s="74"/>
-      <c r="X61" s="74"/>
-      <c r="Y61" s="74"/>
-      <c r="Z61" s="74"/>
-      <c r="AA61" s="74"/>
+      <c r="P61" s="33"/>
+      <c r="Q61" s="33"/>
+      <c r="R61" s="33"/>
+      <c r="S61" s="33"/>
+      <c r="T61" s="33"/>
+      <c r="U61" s="33"/>
+      <c r="V61" s="33"/>
+      <c r="W61" s="33"/>
+      <c r="X61" s="33"/>
+      <c r="Y61" s="33"/>
+      <c r="Z61" s="33"/>
+      <c r="AA61" s="33"/>
       <c r="AB61" s="21"/>
       <c r="AC61" s="21"/>
-      <c r="AD61" s="75" t="s">
+      <c r="AD61" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="AE61" s="75"/>
-      <c r="AF61" s="75"/>
-      <c r="AG61" s="75"/>
-      <c r="AH61" s="75"/>
-      <c r="AI61" s="75"/>
-      <c r="AJ61" s="75"/>
-      <c r="AK61" s="75"/>
-      <c r="AL61" s="75"/>
-      <c r="AM61" s="75"/>
+      <c r="AE61" s="34"/>
+      <c r="AF61" s="34"/>
+      <c r="AG61" s="34"/>
+      <c r="AH61" s="34"/>
+      <c r="AI61" s="34"/>
+      <c r="AJ61" s="34"/>
+      <c r="AK61" s="34"/>
+      <c r="AL61" s="34"/>
+      <c r="AM61" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="46">
     <mergeCell ref="O61:AA61"/>
     <mergeCell ref="AD61:AM61"/>
     <mergeCell ref="A54:C54"/>
@@ -10633,8 +10578,6 @@
     <mergeCell ref="C6:O6"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="Y6:AB6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:U6"/>
     <mergeCell ref="AC6:AI6"/>
     <mergeCell ref="AJ6:AM6"/>
     <mergeCell ref="A1:AM1"/>
@@ -10655,14 +10598,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AM71"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10677,344 +10620,337 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="23.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
     </row>
     <row r="2" spans="1:39" s="3" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
     </row>
     <row r="3" spans="1:39" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1">
       <c r="C4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="38" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="42"/>
-      <c r="N4" s="39" t="s">
+      <c r="I4" s="61"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="48"/>
+      <c r="N4" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="38" t="s">
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="42"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="48"/>
     </row>
     <row r="5" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="42"/>
-      <c r="Q6" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="R6" s="46"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="39" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="48"/>
+      <c r="V6" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="38" t="s">
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="40"/>
-      <c r="AK6" s="41"/>
-      <c r="AL6" s="41"/>
-      <c r="AM6" s="42"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="62"/>
+      <c r="AI6" s="61"/>
+      <c r="AJ6" s="60"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="47"/>
+      <c r="AM6" s="48"/>
     </row>
     <row r="7" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="8" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="50" t="s">
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="50" t="s">
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="50" t="s">
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="51"/>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="51"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="50" t="s">
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AF8" s="51"/>
-      <c r="AG8" s="51"/>
-      <c r="AH8" s="51"/>
-      <c r="AI8" s="51"/>
-      <c r="AJ8" s="51"/>
-      <c r="AK8" s="51"/>
-      <c r="AL8" s="51"/>
-      <c r="AM8" s="52"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="44"/>
+      <c r="AI8" s="44"/>
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="44"/>
+      <c r="AL8" s="44"/>
+      <c r="AM8" s="45"/>
     </row>
     <row r="9" spans="1:39" ht="45.6" customHeight="1" thickBot="1">
-      <c r="A9" s="61"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="55" t="s">
+      <c r="A9" s="74"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="55" t="s">
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="56"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="59" t="s">
+      <c r="K9" s="76"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="56"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="55" t="s">
+      <c r="N9" s="76"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="55" t="s">
+      <c r="Q9" s="76"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="56"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="59" t="s">
+      <c r="T9" s="76"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="56"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="55" t="s">
+      <c r="W9" s="76"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="55" t="s">
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="78"/>
+      <c r="AB9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="59" t="s">
+      <c r="AC9" s="76"/>
+      <c r="AD9" s="78"/>
+      <c r="AE9" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="AF9" s="56"/>
-      <c r="AG9" s="58"/>
-      <c r="AH9" s="55" t="s">
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="78"/>
+      <c r="AH9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AI9" s="56"/>
-      <c r="AJ9" s="58"/>
-      <c r="AK9" s="55" t="s">
+      <c r="AI9" s="76"/>
+      <c r="AJ9" s="78"/>
+      <c r="AK9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="AL9" s="56"/>
-      <c r="AM9" s="58"/>
+      <c r="AL9" s="76"/>
+      <c r="AM9" s="78"/>
     </row>
     <row r="10" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A10" s="62"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="22" t="s">
         <v>11</v>
       </c>
@@ -11024,16 +10960,16 @@
       <c r="F10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="71" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="70" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="23" t="s">
@@ -11042,82 +10978,82 @@
       <c r="L10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="36" t="s">
+      <c r="M10" s="70" t="s">
         <v>11</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="37" t="s">
+      <c r="O10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="36" t="s">
+      <c r="Q10" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="37" t="s">
+      <c r="R10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="S10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="36" t="s">
+      <c r="T10" s="70" t="s">
         <v>12</v>
       </c>
       <c r="U10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="36" t="s">
+      <c r="V10" s="70" t="s">
         <v>11</v>
       </c>
       <c r="W10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="37" t="s">
+      <c r="X10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="Y10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Z10" s="36" t="s">
+      <c r="Z10" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AA10" s="37" t="s">
+      <c r="AA10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="AB10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AC10" s="36" t="s">
+      <c r="AC10" s="70" t="s">
         <v>12</v>
       </c>
       <c r="AD10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AE10" s="36" t="s">
+      <c r="AE10" s="70" t="s">
         <v>11</v>
       </c>
       <c r="AF10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AG10" s="37" t="s">
+      <c r="AG10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="AH10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AI10" s="36" t="s">
+      <c r="AI10" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AJ10" s="37" t="s">
+      <c r="AJ10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="AK10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AL10" s="36" t="s">
+      <c r="AL10" s="70" t="s">
         <v>12</v>
       </c>
       <c r="AM10" s="24" t="s">
@@ -11128,52 +11064,52 @@
       <c r="A11" s="7"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="32"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="35"/>
-      <c r="AH11" s="33"/>
-      <c r="AI11" s="32"/>
-      <c r="AJ11" s="35"/>
-      <c r="AK11" s="33"/>
-      <c r="AL11" s="32"/>
-      <c r="AM11" s="34"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="66"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="69"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="66"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="69"/>
+      <c r="AH11" s="67"/>
+      <c r="AI11" s="66"/>
+      <c r="AJ11" s="69"/>
+      <c r="AK11" s="67"/>
+      <c r="AL11" s="66"/>
+      <c r="AM11" s="68"/>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="8" t="s">
@@ -13735,11 +13671,11 @@
       <c r="AM60" s="8"/>
     </row>
     <row r="61" spans="1:39" ht="29.45" customHeight="1" thickBot="1">
-      <c r="A61" s="71" t="s">
+      <c r="A61" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="72"/>
-      <c r="C61" s="72"/>
+      <c r="B61" s="73"/>
+      <c r="C61" s="73"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
       <c r="F61" s="18"/>
@@ -13778,11 +13714,11 @@
       <c r="AM61" s="18"/>
     </row>
     <row r="62" spans="1:39" ht="30.6" customHeight="1" thickBot="1">
-      <c r="A62" s="53" t="s">
+      <c r="A62" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="54"/>
-      <c r="C62" s="54"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
       <c r="D62" s="30"/>
       <c r="E62" s="31"/>
       <c r="F62" s="18"/>
@@ -13821,11 +13757,11 @@
       <c r="AM62" s="18"/>
     </row>
     <row r="63" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A63" s="53" t="s">
+      <c r="A63" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="54"/>
-      <c r="C63" s="54"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
       <c r="D63" s="28"/>
       <c r="E63" s="29"/>
       <c r="F63" s="18"/>
@@ -13864,11 +13800,11 @@
       <c r="AM63" s="18"/>
     </row>
     <row r="64" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A64" s="53" t="s">
+      <c r="A64" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="54"/>
-      <c r="C64" s="54"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
       <c r="D64" s="28"/>
       <c r="E64" s="29"/>
       <c r="F64" s="18"/>
@@ -13907,11 +13843,11 @@
       <c r="AM64" s="18"/>
     </row>
     <row r="65" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A65" s="76" t="s">
+      <c r="A65" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B65" s="77"/>
-      <c r="C65" s="77"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
       <c r="D65" s="28"/>
       <c r="E65" s="29"/>
       <c r="F65" s="18"/>
@@ -13950,11 +13886,11 @@
       <c r="AM65" s="18"/>
     </row>
     <row r="66" spans="1:39" ht="31.9" customHeight="1" thickBot="1">
-      <c r="A66" s="78" t="s">
+      <c r="A66" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B66" s="79"/>
-      <c r="C66" s="80"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="41"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
       <c r="F66" s="18"/>
@@ -13993,21 +13929,21 @@
       <c r="AM66" s="18"/>
     </row>
     <row r="69" spans="1:39">
-      <c r="O69" s="81" t="s">
+      <c r="O69" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="P69" s="74"/>
-      <c r="Q69" s="74"/>
-      <c r="R69" s="74"/>
-      <c r="S69" s="74"/>
-      <c r="T69" s="74"/>
-      <c r="U69" s="74"/>
-      <c r="V69" s="74"/>
-      <c r="W69" s="74"/>
-      <c r="X69" s="74"/>
-      <c r="Y69" s="74"/>
-      <c r="Z69" s="74"/>
-      <c r="AA69" s="74"/>
+      <c r="P69" s="33"/>
+      <c r="Q69" s="33"/>
+      <c r="R69" s="33"/>
+      <c r="S69" s="33"/>
+      <c r="T69" s="33"/>
+      <c r="U69" s="33"/>
+      <c r="V69" s="33"/>
+      <c r="W69" s="33"/>
+      <c r="X69" s="33"/>
+      <c r="Y69" s="33"/>
+      <c r="Z69" s="33"/>
+      <c r="AA69" s="33"/>
       <c r="AB69" s="21"/>
       <c r="AC69" s="21"/>
       <c r="AD69" s="21"/>
@@ -14022,65 +13958,65 @@
       <c r="AM69" s="21"/>
     </row>
     <row r="70" spans="1:39" ht="15.75" thickBot="1">
-      <c r="O70" s="82"/>
-      <c r="P70" s="82"/>
-      <c r="Q70" s="82"/>
-      <c r="R70" s="82"/>
-      <c r="S70" s="82"/>
-      <c r="T70" s="82"/>
-      <c r="U70" s="82"/>
-      <c r="V70" s="82"/>
-      <c r="W70" s="82"/>
-      <c r="X70" s="82"/>
-      <c r="Y70" s="82"/>
-      <c r="Z70" s="82"/>
-      <c r="AA70" s="82"/>
+      <c r="O70" s="50"/>
+      <c r="P70" s="50"/>
+      <c r="Q70" s="50"/>
+      <c r="R70" s="50"/>
+      <c r="S70" s="50"/>
+      <c r="T70" s="50"/>
+      <c r="U70" s="50"/>
+      <c r="V70" s="50"/>
+      <c r="W70" s="50"/>
+      <c r="X70" s="50"/>
+      <c r="Y70" s="50"/>
+      <c r="Z70" s="50"/>
+      <c r="AA70" s="50"/>
       <c r="AB70" s="21"/>
       <c r="AC70" s="21"/>
-      <c r="AD70" s="83"/>
-      <c r="AE70" s="83"/>
-      <c r="AF70" s="83"/>
-      <c r="AG70" s="83"/>
-      <c r="AH70" s="83"/>
-      <c r="AI70" s="83"/>
-      <c r="AJ70" s="83"/>
-      <c r="AK70" s="83"/>
-      <c r="AL70" s="83"/>
-      <c r="AM70" s="83"/>
+      <c r="AD70" s="42"/>
+      <c r="AE70" s="42"/>
+      <c r="AF70" s="42"/>
+      <c r="AG70" s="42"/>
+      <c r="AH70" s="42"/>
+      <c r="AI70" s="42"/>
+      <c r="AJ70" s="42"/>
+      <c r="AK70" s="42"/>
+      <c r="AL70" s="42"/>
+      <c r="AM70" s="42"/>
     </row>
     <row r="71" spans="1:39">
-      <c r="O71" s="73" t="s">
+      <c r="O71" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="P71" s="74"/>
-      <c r="Q71" s="74"/>
-      <c r="R71" s="74"/>
-      <c r="S71" s="74"/>
-      <c r="T71" s="74"/>
-      <c r="U71" s="74"/>
-      <c r="V71" s="74"/>
-      <c r="W71" s="74"/>
-      <c r="X71" s="74"/>
-      <c r="Y71" s="74"/>
-      <c r="Z71" s="74"/>
-      <c r="AA71" s="74"/>
+      <c r="P71" s="33"/>
+      <c r="Q71" s="33"/>
+      <c r="R71" s="33"/>
+      <c r="S71" s="33"/>
+      <c r="T71" s="33"/>
+      <c r="U71" s="33"/>
+      <c r="V71" s="33"/>
+      <c r="W71" s="33"/>
+      <c r="X71" s="33"/>
+      <c r="Y71" s="33"/>
+      <c r="Z71" s="33"/>
+      <c r="AA71" s="33"/>
       <c r="AB71" s="21"/>
       <c r="AC71" s="21"/>
-      <c r="AD71" s="75" t="s">
+      <c r="AD71" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="AE71" s="75"/>
-      <c r="AF71" s="75"/>
-      <c r="AG71" s="75"/>
-      <c r="AH71" s="75"/>
-      <c r="AI71" s="75"/>
-      <c r="AJ71" s="75"/>
-      <c r="AK71" s="75"/>
-      <c r="AL71" s="75"/>
-      <c r="AM71" s="75"/>
+      <c r="AE71" s="34"/>
+      <c r="AF71" s="34"/>
+      <c r="AG71" s="34"/>
+      <c r="AH71" s="34"/>
+      <c r="AI71" s="34"/>
+      <c r="AJ71" s="34"/>
+      <c r="AK71" s="34"/>
+      <c r="AL71" s="34"/>
+      <c r="AM71" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="46">
     <mergeCell ref="O71:AA71"/>
     <mergeCell ref="AD71:AM71"/>
     <mergeCell ref="A64:C64"/>
@@ -14115,8 +14051,6 @@
     <mergeCell ref="C6:O6"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="Y6:AB6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:U6"/>
     <mergeCell ref="AC6:AI6"/>
     <mergeCell ref="AJ6:AM6"/>
     <mergeCell ref="A1:AM1"/>
@@ -14137,14 +14071,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AM81"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14159,344 +14093,337 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="23.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
     </row>
     <row r="2" spans="1:39" s="3" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
     </row>
     <row r="3" spans="1:39" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1">
       <c r="C4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="38" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="42"/>
-      <c r="N4" s="39" t="s">
+      <c r="I4" s="61"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="48"/>
+      <c r="N4" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="38" t="s">
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="42"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="48"/>
     </row>
     <row r="5" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="42"/>
-      <c r="Q6" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="R6" s="46"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="39" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="48"/>
+      <c r="V6" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="38" t="s">
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="40"/>
-      <c r="AK6" s="41"/>
-      <c r="AL6" s="41"/>
-      <c r="AM6" s="42"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="62"/>
+      <c r="AI6" s="61"/>
+      <c r="AJ6" s="60"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="47"/>
+      <c r="AM6" s="48"/>
     </row>
     <row r="7" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="8" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="50" t="s">
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="50" t="s">
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="50" t="s">
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="51"/>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="51"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="50" t="s">
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AF8" s="51"/>
-      <c r="AG8" s="51"/>
-      <c r="AH8" s="51"/>
-      <c r="AI8" s="51"/>
-      <c r="AJ8" s="51"/>
-      <c r="AK8" s="51"/>
-      <c r="AL8" s="51"/>
-      <c r="AM8" s="52"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="44"/>
+      <c r="AI8" s="44"/>
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="44"/>
+      <c r="AL8" s="44"/>
+      <c r="AM8" s="45"/>
     </row>
     <row r="9" spans="1:39" ht="45.6" customHeight="1" thickBot="1">
-      <c r="A9" s="61"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="55" t="s">
+      <c r="A9" s="74"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="55" t="s">
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="56"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="59" t="s">
+      <c r="K9" s="76"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="56"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="55" t="s">
+      <c r="N9" s="76"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="55" t="s">
+      <c r="Q9" s="76"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="56"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="59" t="s">
+      <c r="T9" s="76"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="56"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="55" t="s">
+      <c r="W9" s="76"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="55" t="s">
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="78"/>
+      <c r="AB9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="59" t="s">
+      <c r="AC9" s="76"/>
+      <c r="AD9" s="78"/>
+      <c r="AE9" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="AF9" s="56"/>
-      <c r="AG9" s="58"/>
-      <c r="AH9" s="55" t="s">
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="78"/>
+      <c r="AH9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AI9" s="56"/>
-      <c r="AJ9" s="58"/>
-      <c r="AK9" s="55" t="s">
+      <c r="AI9" s="76"/>
+      <c r="AJ9" s="78"/>
+      <c r="AK9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="AL9" s="56"/>
-      <c r="AM9" s="58"/>
+      <c r="AL9" s="76"/>
+      <c r="AM9" s="78"/>
     </row>
     <row r="10" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A10" s="62"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="22" t="s">
         <v>11</v>
       </c>
@@ -14506,16 +14433,16 @@
       <c r="F10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="71" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="70" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="23" t="s">
@@ -14524,82 +14451,82 @@
       <c r="L10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="36" t="s">
+      <c r="M10" s="70" t="s">
         <v>11</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="37" t="s">
+      <c r="O10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="36" t="s">
+      <c r="Q10" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="37" t="s">
+      <c r="R10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="S10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="36" t="s">
+      <c r="T10" s="70" t="s">
         <v>12</v>
       </c>
       <c r="U10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="36" t="s">
+      <c r="V10" s="70" t="s">
         <v>11</v>
       </c>
       <c r="W10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="37" t="s">
+      <c r="X10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="Y10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Z10" s="36" t="s">
+      <c r="Z10" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AA10" s="37" t="s">
+      <c r="AA10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="AB10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AC10" s="36" t="s">
+      <c r="AC10" s="70" t="s">
         <v>12</v>
       </c>
       <c r="AD10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AE10" s="36" t="s">
+      <c r="AE10" s="70" t="s">
         <v>11</v>
       </c>
       <c r="AF10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AG10" s="37" t="s">
+      <c r="AG10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="AH10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AI10" s="36" t="s">
+      <c r="AI10" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AJ10" s="37" t="s">
+      <c r="AJ10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="AK10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AL10" s="36" t="s">
+      <c r="AL10" s="70" t="s">
         <v>12</v>
       </c>
       <c r="AM10" s="24" t="s">
@@ -14610,52 +14537,52 @@
       <c r="A11" s="7"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="32"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="35"/>
-      <c r="AH11" s="33"/>
-      <c r="AI11" s="32"/>
-      <c r="AJ11" s="35"/>
-      <c r="AK11" s="33"/>
-      <c r="AL11" s="32"/>
-      <c r="AM11" s="34"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="66"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="69"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="66"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="69"/>
+      <c r="AH11" s="67"/>
+      <c r="AI11" s="66"/>
+      <c r="AJ11" s="69"/>
+      <c r="AK11" s="67"/>
+      <c r="AL11" s="66"/>
+      <c r="AM11" s="68"/>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="8" t="s">
@@ -17747,11 +17674,11 @@
       <c r="AM70" s="9"/>
     </row>
     <row r="71" spans="1:39" ht="29.45" customHeight="1" thickBot="1">
-      <c r="A71" s="71" t="s">
+      <c r="A71" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="72"/>
-      <c r="C71" s="72"/>
+      <c r="B71" s="73"/>
+      <c r="C71" s="73"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
       <c r="F71" s="18"/>
@@ -17790,11 +17717,11 @@
       <c r="AM71" s="18"/>
     </row>
     <row r="72" spans="1:39" ht="30.6" customHeight="1" thickBot="1">
-      <c r="A72" s="53" t="s">
+      <c r="A72" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B72" s="54"/>
-      <c r="C72" s="54"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
       <c r="D72" s="30"/>
       <c r="E72" s="31"/>
       <c r="F72" s="18"/>
@@ -17833,11 +17760,11 @@
       <c r="AM72" s="18"/>
     </row>
     <row r="73" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A73" s="53" t="s">
+      <c r="A73" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B73" s="54"/>
-      <c r="C73" s="54"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
       <c r="D73" s="28"/>
       <c r="E73" s="29"/>
       <c r="F73" s="18"/>
@@ -17876,11 +17803,11 @@
       <c r="AM73" s="18"/>
     </row>
     <row r="74" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A74" s="53" t="s">
+      <c r="A74" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B74" s="54"/>
-      <c r="C74" s="54"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36"/>
       <c r="D74" s="28"/>
       <c r="E74" s="29"/>
       <c r="F74" s="18"/>
@@ -17919,11 +17846,11 @@
       <c r="AM74" s="18"/>
     </row>
     <row r="75" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A75" s="76" t="s">
+      <c r="A75" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B75" s="77"/>
-      <c r="C75" s="77"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="38"/>
       <c r="D75" s="28"/>
       <c r="E75" s="29"/>
       <c r="F75" s="18"/>
@@ -17962,11 +17889,11 @@
       <c r="AM75" s="18"/>
     </row>
     <row r="76" spans="1:39" ht="31.9" customHeight="1" thickBot="1">
-      <c r="A76" s="78" t="s">
+      <c r="A76" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B76" s="79"/>
-      <c r="C76" s="80"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="41"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
       <c r="F76" s="18"/>
@@ -18005,21 +17932,21 @@
       <c r="AM76" s="18"/>
     </row>
     <row r="79" spans="1:39">
-      <c r="O79" s="81" t="s">
+      <c r="O79" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="P79" s="74"/>
-      <c r="Q79" s="74"/>
-      <c r="R79" s="74"/>
-      <c r="S79" s="74"/>
-      <c r="T79" s="74"/>
-      <c r="U79" s="74"/>
-      <c r="V79" s="74"/>
-      <c r="W79" s="74"/>
-      <c r="X79" s="74"/>
-      <c r="Y79" s="74"/>
-      <c r="Z79" s="74"/>
-      <c r="AA79" s="74"/>
+      <c r="P79" s="33"/>
+      <c r="Q79" s="33"/>
+      <c r="R79" s="33"/>
+      <c r="S79" s="33"/>
+      <c r="T79" s="33"/>
+      <c r="U79" s="33"/>
+      <c r="V79" s="33"/>
+      <c r="W79" s="33"/>
+      <c r="X79" s="33"/>
+      <c r="Y79" s="33"/>
+      <c r="Z79" s="33"/>
+      <c r="AA79" s="33"/>
       <c r="AB79" s="21"/>
       <c r="AC79" s="21"/>
       <c r="AD79" s="21"/>
@@ -18034,65 +17961,65 @@
       <c r="AM79" s="21"/>
     </row>
     <row r="80" spans="1:39" ht="15.75" thickBot="1">
-      <c r="O80" s="82"/>
-      <c r="P80" s="82"/>
-      <c r="Q80" s="82"/>
-      <c r="R80" s="82"/>
-      <c r="S80" s="82"/>
-      <c r="T80" s="82"/>
-      <c r="U80" s="82"/>
-      <c r="V80" s="82"/>
-      <c r="W80" s="82"/>
-      <c r="X80" s="82"/>
-      <c r="Y80" s="82"/>
-      <c r="Z80" s="82"/>
-      <c r="AA80" s="82"/>
+      <c r="O80" s="50"/>
+      <c r="P80" s="50"/>
+      <c r="Q80" s="50"/>
+      <c r="R80" s="50"/>
+      <c r="S80" s="50"/>
+      <c r="T80" s="50"/>
+      <c r="U80" s="50"/>
+      <c r="V80" s="50"/>
+      <c r="W80" s="50"/>
+      <c r="X80" s="50"/>
+      <c r="Y80" s="50"/>
+      <c r="Z80" s="50"/>
+      <c r="AA80" s="50"/>
       <c r="AB80" s="21"/>
       <c r="AC80" s="21"/>
-      <c r="AD80" s="83"/>
-      <c r="AE80" s="83"/>
-      <c r="AF80" s="83"/>
-      <c r="AG80" s="83"/>
-      <c r="AH80" s="83"/>
-      <c r="AI80" s="83"/>
-      <c r="AJ80" s="83"/>
-      <c r="AK80" s="83"/>
-      <c r="AL80" s="83"/>
-      <c r="AM80" s="83"/>
+      <c r="AD80" s="42"/>
+      <c r="AE80" s="42"/>
+      <c r="AF80" s="42"/>
+      <c r="AG80" s="42"/>
+      <c r="AH80" s="42"/>
+      <c r="AI80" s="42"/>
+      <c r="AJ80" s="42"/>
+      <c r="AK80" s="42"/>
+      <c r="AL80" s="42"/>
+      <c r="AM80" s="42"/>
     </row>
     <row r="81" spans="15:39">
-      <c r="O81" s="73" t="s">
+      <c r="O81" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="P81" s="74"/>
-      <c r="Q81" s="74"/>
-      <c r="R81" s="74"/>
-      <c r="S81" s="74"/>
-      <c r="T81" s="74"/>
-      <c r="U81" s="74"/>
-      <c r="V81" s="74"/>
-      <c r="W81" s="74"/>
-      <c r="X81" s="74"/>
-      <c r="Y81" s="74"/>
-      <c r="Z81" s="74"/>
-      <c r="AA81" s="74"/>
+      <c r="P81" s="33"/>
+      <c r="Q81" s="33"/>
+      <c r="R81" s="33"/>
+      <c r="S81" s="33"/>
+      <c r="T81" s="33"/>
+      <c r="U81" s="33"/>
+      <c r="V81" s="33"/>
+      <c r="W81" s="33"/>
+      <c r="X81" s="33"/>
+      <c r="Y81" s="33"/>
+      <c r="Z81" s="33"/>
+      <c r="AA81" s="33"/>
       <c r="AB81" s="21"/>
       <c r="AC81" s="21"/>
-      <c r="AD81" s="75" t="s">
+      <c r="AD81" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="AE81" s="75"/>
-      <c r="AF81" s="75"/>
-      <c r="AG81" s="75"/>
-      <c r="AH81" s="75"/>
-      <c r="AI81" s="75"/>
-      <c r="AJ81" s="75"/>
-      <c r="AK81" s="75"/>
-      <c r="AL81" s="75"/>
-      <c r="AM81" s="75"/>
+      <c r="AE81" s="34"/>
+      <c r="AF81" s="34"/>
+      <c r="AG81" s="34"/>
+      <c r="AH81" s="34"/>
+      <c r="AI81" s="34"/>
+      <c r="AJ81" s="34"/>
+      <c r="AK81" s="34"/>
+      <c r="AL81" s="34"/>
+      <c r="AM81" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="46">
     <mergeCell ref="O81:AA81"/>
     <mergeCell ref="AD81:AM81"/>
     <mergeCell ref="A74:C74"/>
@@ -18127,8 +18054,6 @@
     <mergeCell ref="C6:O6"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="Y6:AB6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:U6"/>
     <mergeCell ref="AC6:AI6"/>
     <mergeCell ref="AJ6:AM6"/>
     <mergeCell ref="A1:AM1"/>
@@ -18149,14 +18074,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AM91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18170,344 +18095,337 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="23.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
     </row>
     <row r="2" spans="1:39" s="3" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
     </row>
     <row r="3" spans="1:39" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1">
       <c r="C4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="38" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="42"/>
-      <c r="N4" s="39" t="s">
+      <c r="I4" s="61"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="48"/>
+      <c r="N4" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="38" t="s">
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="42"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="48"/>
     </row>
     <row r="5" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="42"/>
-      <c r="Q6" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="R6" s="46"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="39" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="48"/>
+      <c r="V6" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="38" t="s">
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="40"/>
-      <c r="AK6" s="41"/>
-      <c r="AL6" s="41"/>
-      <c r="AM6" s="42"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="62"/>
+      <c r="AI6" s="61"/>
+      <c r="AJ6" s="60"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="47"/>
+      <c r="AM6" s="48"/>
     </row>
     <row r="7" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="8" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="50" t="s">
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="50" t="s">
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="50" t="s">
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="51"/>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="51"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="50" t="s">
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AF8" s="51"/>
-      <c r="AG8" s="51"/>
-      <c r="AH8" s="51"/>
-      <c r="AI8" s="51"/>
-      <c r="AJ8" s="51"/>
-      <c r="AK8" s="51"/>
-      <c r="AL8" s="51"/>
-      <c r="AM8" s="52"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="44"/>
+      <c r="AI8" s="44"/>
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="44"/>
+      <c r="AL8" s="44"/>
+      <c r="AM8" s="45"/>
     </row>
     <row r="9" spans="1:39" ht="45.6" customHeight="1" thickBot="1">
-      <c r="A9" s="61"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="55" t="s">
+      <c r="A9" s="74"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="55" t="s">
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="56"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="59" t="s">
+      <c r="K9" s="76"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="56"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="55" t="s">
+      <c r="N9" s="76"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="55" t="s">
+      <c r="Q9" s="76"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="56"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="59" t="s">
+      <c r="T9" s="76"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="56"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="55" t="s">
+      <c r="W9" s="76"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="55" t="s">
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="78"/>
+      <c r="AB9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="59" t="s">
+      <c r="AC9" s="76"/>
+      <c r="AD9" s="78"/>
+      <c r="AE9" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="AF9" s="56"/>
-      <c r="AG9" s="58"/>
-      <c r="AH9" s="55" t="s">
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="78"/>
+      <c r="AH9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AI9" s="56"/>
-      <c r="AJ9" s="58"/>
-      <c r="AK9" s="55" t="s">
+      <c r="AI9" s="76"/>
+      <c r="AJ9" s="78"/>
+      <c r="AK9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="AL9" s="56"/>
-      <c r="AM9" s="58"/>
+      <c r="AL9" s="76"/>
+      <c r="AM9" s="78"/>
     </row>
     <row r="10" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A10" s="62"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="22" t="s">
         <v>11</v>
       </c>
@@ -18517,16 +18435,16 @@
       <c r="F10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="71" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="70" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="23" t="s">
@@ -18535,82 +18453,82 @@
       <c r="L10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="36" t="s">
+      <c r="M10" s="70" t="s">
         <v>11</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="37" t="s">
+      <c r="O10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="36" t="s">
+      <c r="Q10" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="37" t="s">
+      <c r="R10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="S10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="36" t="s">
+      <c r="T10" s="70" t="s">
         <v>12</v>
       </c>
       <c r="U10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="36" t="s">
+      <c r="V10" s="70" t="s">
         <v>11</v>
       </c>
       <c r="W10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="37" t="s">
+      <c r="X10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="Y10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Z10" s="36" t="s">
+      <c r="Z10" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AA10" s="37" t="s">
+      <c r="AA10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="AB10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AC10" s="36" t="s">
+      <c r="AC10" s="70" t="s">
         <v>12</v>
       </c>
       <c r="AD10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AE10" s="36" t="s">
+      <c r="AE10" s="70" t="s">
         <v>11</v>
       </c>
       <c r="AF10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AG10" s="37" t="s">
+      <c r="AG10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="AH10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AI10" s="36" t="s">
+      <c r="AI10" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AJ10" s="37" t="s">
+      <c r="AJ10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="AK10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AL10" s="36" t="s">
+      <c r="AL10" s="70" t="s">
         <v>12</v>
       </c>
       <c r="AM10" s="24" t="s">
@@ -18621,52 +18539,52 @@
       <c r="A11" s="7"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="32"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="35"/>
-      <c r="AH11" s="33"/>
-      <c r="AI11" s="32"/>
-      <c r="AJ11" s="35"/>
-      <c r="AK11" s="33"/>
-      <c r="AL11" s="32"/>
-      <c r="AM11" s="34"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="66"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="69"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="66"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="69"/>
+      <c r="AH11" s="67"/>
+      <c r="AI11" s="66"/>
+      <c r="AJ11" s="69"/>
+      <c r="AK11" s="67"/>
+      <c r="AL11" s="66"/>
+      <c r="AM11" s="68"/>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="8" t="s">
@@ -22192,11 +22110,11 @@
       <c r="AM80" s="9"/>
     </row>
     <row r="81" spans="1:39" ht="29.45" customHeight="1" thickBot="1">
-      <c r="A81" s="71" t="s">
+      <c r="A81" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B81" s="72"/>
-      <c r="C81" s="72"/>
+      <c r="B81" s="73"/>
+      <c r="C81" s="73"/>
       <c r="D81" s="28"/>
       <c r="E81" s="29"/>
       <c r="F81" s="18"/>
@@ -22235,11 +22153,11 @@
       <c r="AM81" s="18"/>
     </row>
     <row r="82" spans="1:39" ht="30.6" customHeight="1" thickBot="1">
-      <c r="A82" s="53" t="s">
+      <c r="A82" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B82" s="54"/>
-      <c r="C82" s="54"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
       <c r="D82" s="30"/>
       <c r="E82" s="31"/>
       <c r="F82" s="18"/>
@@ -22278,11 +22196,11 @@
       <c r="AM82" s="18"/>
     </row>
     <row r="83" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A83" s="53" t="s">
+      <c r="A83" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B83" s="54"/>
-      <c r="C83" s="54"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36"/>
       <c r="D83" s="28"/>
       <c r="E83" s="29"/>
       <c r="F83" s="18"/>
@@ -22321,11 +22239,11 @@
       <c r="AM83" s="18"/>
     </row>
     <row r="84" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A84" s="53" t="s">
+      <c r="A84" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="54"/>
-      <c r="C84" s="54"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
       <c r="D84" s="28"/>
       <c r="E84" s="29"/>
       <c r="F84" s="18"/>
@@ -22364,11 +22282,11 @@
       <c r="AM84" s="18"/>
     </row>
     <row r="85" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A85" s="76" t="s">
+      <c r="A85" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="77"/>
-      <c r="C85" s="77"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
       <c r="D85" s="28"/>
       <c r="E85" s="29"/>
       <c r="F85" s="18"/>
@@ -22407,11 +22325,11 @@
       <c r="AM85" s="18"/>
     </row>
     <row r="86" spans="1:39" ht="31.9" customHeight="1" thickBot="1">
-      <c r="A86" s="78" t="s">
+      <c r="A86" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B86" s="79"/>
-      <c r="C86" s="80"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="41"/>
       <c r="D86" s="28"/>
       <c r="E86" s="29"/>
       <c r="F86" s="18"/>
@@ -22450,21 +22368,21 @@
       <c r="AM86" s="18"/>
     </row>
     <row r="89" spans="1:39">
-      <c r="O89" s="81" t="s">
+      <c r="O89" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="P89" s="74"/>
-      <c r="Q89" s="74"/>
-      <c r="R89" s="74"/>
-      <c r="S89" s="74"/>
-      <c r="T89" s="74"/>
-      <c r="U89" s="74"/>
-      <c r="V89" s="74"/>
-      <c r="W89" s="74"/>
-      <c r="X89" s="74"/>
-      <c r="Y89" s="74"/>
-      <c r="Z89" s="74"/>
-      <c r="AA89" s="74"/>
+      <c r="P89" s="33"/>
+      <c r="Q89" s="33"/>
+      <c r="R89" s="33"/>
+      <c r="S89" s="33"/>
+      <c r="T89" s="33"/>
+      <c r="U89" s="33"/>
+      <c r="V89" s="33"/>
+      <c r="W89" s="33"/>
+      <c r="X89" s="33"/>
+      <c r="Y89" s="33"/>
+      <c r="Z89" s="33"/>
+      <c r="AA89" s="33"/>
       <c r="AB89" s="21"/>
       <c r="AC89" s="21"/>
       <c r="AD89" s="21"/>
@@ -22479,67 +22397,65 @@
       <c r="AM89" s="21"/>
     </row>
     <row r="90" spans="1:39" ht="15.75" thickBot="1">
-      <c r="O90" s="82"/>
-      <c r="P90" s="82"/>
-      <c r="Q90" s="82"/>
-      <c r="R90" s="82"/>
-      <c r="S90" s="82"/>
-      <c r="T90" s="82"/>
-      <c r="U90" s="82"/>
-      <c r="V90" s="82"/>
-      <c r="W90" s="82"/>
-      <c r="X90" s="82"/>
-      <c r="Y90" s="82"/>
-      <c r="Z90" s="82"/>
-      <c r="AA90" s="82"/>
+      <c r="O90" s="50"/>
+      <c r="P90" s="50"/>
+      <c r="Q90" s="50"/>
+      <c r="R90" s="50"/>
+      <c r="S90" s="50"/>
+      <c r="T90" s="50"/>
+      <c r="U90" s="50"/>
+      <c r="V90" s="50"/>
+      <c r="W90" s="50"/>
+      <c r="X90" s="50"/>
+      <c r="Y90" s="50"/>
+      <c r="Z90" s="50"/>
+      <c r="AA90" s="50"/>
       <c r="AB90" s="21"/>
       <c r="AC90" s="21"/>
-      <c r="AD90" s="83"/>
-      <c r="AE90" s="83"/>
-      <c r="AF90" s="83"/>
-      <c r="AG90" s="83"/>
-      <c r="AH90" s="83"/>
-      <c r="AI90" s="83"/>
-      <c r="AJ90" s="83"/>
-      <c r="AK90" s="83"/>
-      <c r="AL90" s="83"/>
-      <c r="AM90" s="83"/>
+      <c r="AD90" s="42"/>
+      <c r="AE90" s="42"/>
+      <c r="AF90" s="42"/>
+      <c r="AG90" s="42"/>
+      <c r="AH90" s="42"/>
+      <c r="AI90" s="42"/>
+      <c r="AJ90" s="42"/>
+      <c r="AK90" s="42"/>
+      <c r="AL90" s="42"/>
+      <c r="AM90" s="42"/>
     </row>
     <row r="91" spans="1:39">
-      <c r="O91" s="73" t="s">
+      <c r="O91" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="P91" s="74"/>
-      <c r="Q91" s="74"/>
-      <c r="R91" s="74"/>
-      <c r="S91" s="74"/>
-      <c r="T91" s="74"/>
-      <c r="U91" s="74"/>
-      <c r="V91" s="74"/>
-      <c r="W91" s="74"/>
-      <c r="X91" s="74"/>
-      <c r="Y91" s="74"/>
-      <c r="Z91" s="74"/>
-      <c r="AA91" s="74"/>
+      <c r="P91" s="33"/>
+      <c r="Q91" s="33"/>
+      <c r="R91" s="33"/>
+      <c r="S91" s="33"/>
+      <c r="T91" s="33"/>
+      <c r="U91" s="33"/>
+      <c r="V91" s="33"/>
+      <c r="W91" s="33"/>
+      <c r="X91" s="33"/>
+      <c r="Y91" s="33"/>
+      <c r="Z91" s="33"/>
+      <c r="AA91" s="33"/>
       <c r="AB91" s="21"/>
       <c r="AC91" s="21"/>
-      <c r="AD91" s="75" t="s">
+      <c r="AD91" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="AE91" s="75"/>
-      <c r="AF91" s="75"/>
-      <c r="AG91" s="75"/>
-      <c r="AH91" s="75"/>
-      <c r="AI91" s="75"/>
-      <c r="AJ91" s="75"/>
-      <c r="AK91" s="75"/>
-      <c r="AL91" s="75"/>
-      <c r="AM91" s="75"/>
+      <c r="AE91" s="34"/>
+      <c r="AF91" s="34"/>
+      <c r="AG91" s="34"/>
+      <c r="AH91" s="34"/>
+      <c r="AI91" s="34"/>
+      <c r="AJ91" s="34"/>
+      <c r="AK91" s="34"/>
+      <c r="AL91" s="34"/>
+      <c r="AM91" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:U6"/>
+  <mergeCells count="46">
     <mergeCell ref="A1:AM1"/>
     <mergeCell ref="A2:AM2"/>
     <mergeCell ref="A3:AM3"/>

--- a/Project Files/Forms System (SHS)/templates/shs_sf4.xlsx
+++ b/Project Files/Forms System (SHS)/templates/shs_sf4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CBNHS System\Project Files\Forms System Final\exports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark Bangcaya\Documents\GitHub\CBNHS-System-SHS\Project Files\Forms System (SHS)\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{156520F0-6F83-42D5-9A15-29C9DFBA1E1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7996E62-BC3E-4A99-B6C2-3EFA7EC7419F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150"/>
+    <workbookView xWindow="-2310" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10_Sections (0)" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="37">
   <si>
     <t>Grade Level</t>
   </si>
@@ -147,12 +147,15 @@
   <si>
     <t>Generated thru LIS</t>
   </si>
+  <si>
+    <t>Semester</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +219,12 @@
       <b/>
       <sz val="9"/>
       <name val="SansSerif"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -737,7 +746,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -820,6 +829,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -848,8 +875,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -860,22 +911,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1">
@@ -902,13 +947,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -920,51 +971,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Mah Style" xfId="1"/>
+    <cellStyle name="Mah Style" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1790,14 +1811,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AM31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ6" sqref="AJ6:AM6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1812,337 +1833,344 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="23.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="77"/>
     </row>
     <row r="2" spans="1:39" s="3" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="78"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="78"/>
+      <c r="AK2" s="78"/>
+      <c r="AL2" s="78"/>
+      <c r="AM2" s="78"/>
     </row>
     <row r="3" spans="1:39" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1">
       <c r="C4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="61" t="s">
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
-      <c r="N4" s="62" t="s">
+      <c r="I4" s="76"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="75"/>
+      <c r="N4" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="61" t="s">
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="48"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="75"/>
     </row>
     <row r="5" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
-      <c r="V6" s="62" t="s">
+      <c r="B6" s="72"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="75"/>
+      <c r="Q6" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="80"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="61" t="s">
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="61"/>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="48"/>
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="72"/>
+      <c r="AF6" s="72"/>
+      <c r="AG6" s="72"/>
+      <c r="AH6" s="72"/>
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="73"/>
+      <c r="AK6" s="74"/>
+      <c r="AL6" s="74"/>
+      <c r="AM6" s="75"/>
     </row>
     <row r="7" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="8" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="43" t="s">
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="43" t="s">
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="43" t="s">
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="43" t="s">
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="44"/>
-      <c r="AM8" s="45"/>
+      <c r="AF8" s="58"/>
+      <c r="AG8" s="58"/>
+      <c r="AH8" s="58"/>
+      <c r="AI8" s="58"/>
+      <c r="AJ8" s="58"/>
+      <c r="AK8" s="58"/>
+      <c r="AL8" s="58"/>
+      <c r="AM8" s="59"/>
     </row>
     <row r="9" spans="1:39" ht="45.6" customHeight="1" thickBot="1">
-      <c r="A9" s="74"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="46" t="s">
+      <c r="A9" s="62"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="46" t="s">
+      <c r="H9" s="52"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="76"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="79" t="s">
+      <c r="K9" s="52"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="76"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="46" t="s">
+      <c r="N9" s="52"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="46" t="s">
+      <c r="Q9" s="52"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="76"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="79" t="s">
+      <c r="T9" s="52"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="76"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="46" t="s">
+      <c r="W9" s="52"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="46" t="s">
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="79" t="s">
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="78"/>
-      <c r="AH9" s="46" t="s">
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="78"/>
-      <c r="AK9" s="46" t="s">
+      <c r="AI9" s="52"/>
+      <c r="AJ9" s="53"/>
+      <c r="AK9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="AL9" s="76"/>
-      <c r="AM9" s="78"/>
+      <c r="AL9" s="52"/>
+      <c r="AM9" s="53"/>
     </row>
     <row r="10" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="22" t="s">
         <v>11</v>
       </c>
@@ -2152,16 +2180,16 @@
       <c r="F10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="71" t="s">
+      <c r="H10" s="37" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="70" t="s">
+      <c r="J10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="23" t="s">
@@ -2170,82 +2198,82 @@
       <c r="L10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="70" t="s">
+      <c r="M10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="71" t="s">
+      <c r="O10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="70" t="s">
+      <c r="Q10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="71" t="s">
+      <c r="R10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="S10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="70" t="s">
+      <c r="T10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="U10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="70" t="s">
+      <c r="V10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="W10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="71" t="s">
+      <c r="X10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="Y10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Z10" s="70" t="s">
+      <c r="Z10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AA10" s="71" t="s">
+      <c r="AA10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AB10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AC10" s="70" t="s">
+      <c r="AC10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AD10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AE10" s="70" t="s">
+      <c r="AE10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="AF10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AG10" s="71" t="s">
+      <c r="AG10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AH10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AI10" s="70" t="s">
+      <c r="AI10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AJ10" s="71" t="s">
+      <c r="AJ10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AK10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AL10" s="70" t="s">
+      <c r="AL10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AM10" s="24" t="s">
@@ -2256,52 +2284,52 @@
       <c r="A11" s="7"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="66"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="67"/>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="67"/>
-      <c r="AL11" s="66"/>
-      <c r="AM11" s="68"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="32"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="34"/>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="8" t="s">
@@ -2887,11 +2915,11 @@
       <c r="AM20" s="8"/>
     </row>
     <row r="21" spans="1:39" ht="29.45" customHeight="1" thickBot="1">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="28"/>
       <c r="E21" s="29"/>
       <c r="F21" s="18"/>
@@ -2930,11 +2958,11 @@
       <c r="AM21" s="18"/>
     </row>
     <row r="22" spans="1:39" ht="30.6" customHeight="1" thickBot="1">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="30"/>
       <c r="E22" s="31"/>
       <c r="F22" s="18"/>
@@ -2973,11 +3001,11 @@
       <c r="AM22" s="18"/>
     </row>
     <row r="23" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
       <c r="D23" s="28"/>
       <c r="E23" s="29"/>
       <c r="F23" s="18"/>
@@ -3016,11 +3044,11 @@
       <c r="AM23" s="18"/>
     </row>
     <row r="24" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
       <c r="F24" s="18"/>
@@ -3059,11 +3087,11 @@
       <c r="AM24" s="18"/>
     </row>
     <row r="25" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="28"/>
       <c r="E25" s="29"/>
       <c r="F25" s="18"/>
@@ -3102,11 +3130,11 @@
       <c r="AM25" s="18"/>
     </row>
     <row r="26" spans="1:39" ht="31.9" customHeight="1" thickBot="1">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="28"/>
       <c r="E26" s="29"/>
       <c r="F26" s="18"/>
@@ -3145,21 +3173,21 @@
       <c r="AM26" s="18"/>
     </row>
     <row r="29" spans="1:39">
-      <c r="O29" s="49" t="s">
+      <c r="O29" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="33"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="39"/>
+      <c r="AA29" s="39"/>
       <c r="AB29" s="21"/>
       <c r="AC29" s="21"/>
       <c r="AD29" s="21"/>
@@ -3174,78 +3202,84 @@
       <c r="AM29" s="21"/>
     </row>
     <row r="30" spans="1:39" ht="15.75" thickBot="1">
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="50"/>
-      <c r="Z30" s="50"/>
-      <c r="AA30" s="50"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="49"/>
+      <c r="W30" s="49"/>
+      <c r="X30" s="49"/>
+      <c r="Y30" s="49"/>
+      <c r="Z30" s="49"/>
+      <c r="AA30" s="49"/>
       <c r="AB30" s="21"/>
       <c r="AC30" s="21"/>
-      <c r="AD30" s="42"/>
-      <c r="AE30" s="42"/>
-      <c r="AF30" s="42"/>
-      <c r="AG30" s="42"/>
-      <c r="AH30" s="42"/>
-      <c r="AI30" s="42"/>
-      <c r="AJ30" s="42"/>
-      <c r="AK30" s="42"/>
-      <c r="AL30" s="42"/>
-      <c r="AM30" s="42"/>
+      <c r="AD30" s="50"/>
+      <c r="AE30" s="50"/>
+      <c r="AF30" s="50"/>
+      <c r="AG30" s="50"/>
+      <c r="AH30" s="50"/>
+      <c r="AI30" s="50"/>
+      <c r="AJ30" s="50"/>
+      <c r="AK30" s="50"/>
+      <c r="AL30" s="50"/>
+      <c r="AM30" s="50"/>
     </row>
     <row r="31" spans="1:39">
-      <c r="O31" s="32" t="s">
+      <c r="O31" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="33"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="33"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="39"/>
+      <c r="AA31" s="39"/>
       <c r="AB31" s="21"/>
       <c r="AC31" s="21"/>
-      <c r="AD31" s="34" t="s">
+      <c r="AD31" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="AE31" s="34"/>
-      <c r="AF31" s="34"/>
-      <c r="AG31" s="34"/>
-      <c r="AH31" s="34"/>
-      <c r="AI31" s="34"/>
-      <c r="AJ31" s="34"/>
-      <c r="AK31" s="34"/>
-      <c r="AL31" s="34"/>
-      <c r="AM31" s="34"/>
+      <c r="AE31" s="40"/>
+      <c r="AF31" s="40"/>
+      <c r="AG31" s="40"/>
+      <c r="AH31" s="40"/>
+      <c r="AI31" s="40"/>
+      <c r="AJ31" s="40"/>
+      <c r="AK31" s="40"/>
+      <c r="AL31" s="40"/>
+      <c r="AM31" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="O31:AA31"/>
-    <mergeCell ref="AD31:AM31"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="O29:AA29"/>
-    <mergeCell ref="O30:AA30"/>
-    <mergeCell ref="AD30:AM30"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AK9:AM9"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
+  <mergeCells count="48">
+    <mergeCell ref="AC6:AI6"/>
+    <mergeCell ref="AJ6:AM6"/>
+    <mergeCell ref="A1:AM1"/>
+    <mergeCell ref="A2:AM2"/>
+    <mergeCell ref="A3:AM3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="M8:U8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:O6"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="Y6:AB6"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="V8:AD8"/>
     <mergeCell ref="AE8:AM8"/>
@@ -3262,23 +3296,19 @@
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="D8:F9"/>
     <mergeCell ref="G8:L8"/>
-    <mergeCell ref="M8:U8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:O6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="Y6:AB6"/>
-    <mergeCell ref="AC6:AI6"/>
-    <mergeCell ref="AJ6:AM6"/>
-    <mergeCell ref="A1:AM1"/>
-    <mergeCell ref="A2:AM2"/>
-    <mergeCell ref="A3:AM3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AK9:AM9"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="O31:AA31"/>
+    <mergeCell ref="AD31:AM31"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="O29:AA29"/>
+    <mergeCell ref="O30:AA30"/>
+    <mergeCell ref="AD30:AM30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -3287,7 +3317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3309,337 +3339,337 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="23.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="77"/>
     </row>
     <row r="2" spans="1:39" s="3" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="78"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="78"/>
+      <c r="AK2" s="78"/>
+      <c r="AL2" s="78"/>
+      <c r="AM2" s="78"/>
     </row>
     <row r="3" spans="1:39" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1">
       <c r="C4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="61" t="s">
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
-      <c r="N4" s="62" t="s">
+      <c r="I4" s="76"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="75"/>
+      <c r="N4" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="61" t="s">
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="48"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="75"/>
     </row>
     <row r="5" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
-      <c r="V6" s="62" t="s">
+      <c r="B6" s="72"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="75"/>
+      <c r="V6" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="61" t="s">
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="61"/>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="48"/>
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="72"/>
+      <c r="AF6" s="72"/>
+      <c r="AG6" s="72"/>
+      <c r="AH6" s="72"/>
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="73"/>
+      <c r="AK6" s="74"/>
+      <c r="AL6" s="74"/>
+      <c r="AM6" s="75"/>
     </row>
     <row r="7" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="8" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="43" t="s">
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="43" t="s">
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="43" t="s">
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="43" t="s">
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="44"/>
-      <c r="AM8" s="45"/>
+      <c r="AF8" s="58"/>
+      <c r="AG8" s="58"/>
+      <c r="AH8" s="58"/>
+      <c r="AI8" s="58"/>
+      <c r="AJ8" s="58"/>
+      <c r="AK8" s="58"/>
+      <c r="AL8" s="58"/>
+      <c r="AM8" s="59"/>
     </row>
     <row r="9" spans="1:39" ht="45.6" customHeight="1" thickBot="1">
-      <c r="A9" s="74"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="46" t="s">
+      <c r="A9" s="62"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="46" t="s">
+      <c r="H9" s="52"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="76"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="79" t="s">
+      <c r="K9" s="52"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="76"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="46" t="s">
+      <c r="N9" s="52"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="46" t="s">
+      <c r="Q9" s="52"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="76"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="79" t="s">
+      <c r="T9" s="52"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="76"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="46" t="s">
+      <c r="W9" s="52"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="46" t="s">
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="79" t="s">
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="78"/>
-      <c r="AH9" s="46" t="s">
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="78"/>
-      <c r="AK9" s="46" t="s">
+      <c r="AI9" s="52"/>
+      <c r="AJ9" s="53"/>
+      <c r="AK9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="AL9" s="76"/>
-      <c r="AM9" s="78"/>
+      <c r="AL9" s="52"/>
+      <c r="AM9" s="53"/>
     </row>
     <row r="10" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="22" t="s">
         <v>11</v>
       </c>
@@ -3649,16 +3679,16 @@
       <c r="F10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="71" t="s">
+      <c r="H10" s="37" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="70" t="s">
+      <c r="J10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="23" t="s">
@@ -3667,82 +3697,82 @@
       <c r="L10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="70" t="s">
+      <c r="M10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="71" t="s">
+      <c r="O10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="70" t="s">
+      <c r="Q10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="71" t="s">
+      <c r="R10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="S10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="70" t="s">
+      <c r="T10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="U10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="70" t="s">
+      <c r="V10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="W10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="71" t="s">
+      <c r="X10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="Y10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Z10" s="70" t="s">
+      <c r="Z10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AA10" s="71" t="s">
+      <c r="AA10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AB10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AC10" s="70" t="s">
+      <c r="AC10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AD10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AE10" s="70" t="s">
+      <c r="AE10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="AF10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AG10" s="71" t="s">
+      <c r="AG10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AH10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AI10" s="70" t="s">
+      <c r="AI10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AJ10" s="71" t="s">
+      <c r="AJ10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AK10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AL10" s="70" t="s">
+      <c r="AL10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AM10" s="24" t="s">
@@ -3753,52 +3783,52 @@
       <c r="A11" s="7"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="66"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="67"/>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="67"/>
-      <c r="AL11" s="66"/>
-      <c r="AM11" s="68"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="32"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="34"/>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="8" t="s">
@@ -4914,11 +4944,11 @@
       <c r="AM30" s="8"/>
     </row>
     <row r="31" spans="1:39" ht="29.45" customHeight="1" thickBot="1">
-      <c r="A31" s="72" t="s">
+      <c r="A31" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
       <c r="D31" s="28"/>
       <c r="E31" s="29"/>
       <c r="F31" s="18"/>
@@ -4957,11 +4987,11 @@
       <c r="AM31" s="18"/>
     </row>
     <row r="32" spans="1:39" ht="30.6" customHeight="1" thickBot="1">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
       <c r="D32" s="30"/>
       <c r="E32" s="31"/>
       <c r="F32" s="18"/>
@@ -5000,11 +5030,11 @@
       <c r="AM32" s="18"/>
     </row>
     <row r="33" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
       <c r="D33" s="28"/>
       <c r="E33" s="29"/>
       <c r="F33" s="18"/>
@@ -5043,11 +5073,11 @@
       <c r="AM33" s="18"/>
     </row>
     <row r="34" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
       <c r="F34" s="18"/>
@@ -5086,11 +5116,11 @@
       <c r="AM34" s="18"/>
     </row>
     <row r="35" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
       <c r="D35" s="28"/>
       <c r="E35" s="29"/>
       <c r="F35" s="18"/>
@@ -5129,11 +5159,11 @@
       <c r="AM35" s="18"/>
     </row>
     <row r="36" spans="1:39" ht="31.9" customHeight="1" thickBot="1">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="41"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="28"/>
       <c r="E36" s="29"/>
       <c r="F36" s="18"/>
@@ -5172,21 +5202,21 @@
       <c r="AM36" s="18"/>
     </row>
     <row r="39" spans="1:39">
-      <c r="O39" s="49" t="s">
+      <c r="O39" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="33"/>
-      <c r="U39" s="33"/>
-      <c r="V39" s="33"/>
-      <c r="W39" s="33"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="33"/>
-      <c r="Z39" s="33"/>
-      <c r="AA39" s="33"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="39"/>
+      <c r="X39" s="39"/>
+      <c r="Y39" s="39"/>
+      <c r="Z39" s="39"/>
+      <c r="AA39" s="39"/>
       <c r="AB39" s="21"/>
       <c r="AC39" s="21"/>
       <c r="AD39" s="21"/>
@@ -5201,78 +5231,82 @@
       <c r="AM39" s="21"/>
     </row>
     <row r="40" spans="1:39" ht="15.75" thickBot="1">
-      <c r="O40" s="50"/>
-      <c r="P40" s="50"/>
-      <c r="Q40" s="50"/>
-      <c r="R40" s="50"/>
-      <c r="S40" s="50"/>
-      <c r="T40" s="50"/>
-      <c r="U40" s="50"/>
-      <c r="V40" s="50"/>
-      <c r="W40" s="50"/>
-      <c r="X40" s="50"/>
-      <c r="Y40" s="50"/>
-      <c r="Z40" s="50"/>
-      <c r="AA40" s="50"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="49"/>
+      <c r="R40" s="49"/>
+      <c r="S40" s="49"/>
+      <c r="T40" s="49"/>
+      <c r="U40" s="49"/>
+      <c r="V40" s="49"/>
+      <c r="W40" s="49"/>
+      <c r="X40" s="49"/>
+      <c r="Y40" s="49"/>
+      <c r="Z40" s="49"/>
+      <c r="AA40" s="49"/>
       <c r="AB40" s="21"/>
       <c r="AC40" s="21"/>
-      <c r="AD40" s="42"/>
-      <c r="AE40" s="42"/>
-      <c r="AF40" s="42"/>
-      <c r="AG40" s="42"/>
-      <c r="AH40" s="42"/>
-      <c r="AI40" s="42"/>
-      <c r="AJ40" s="42"/>
-      <c r="AK40" s="42"/>
-      <c r="AL40" s="42"/>
-      <c r="AM40" s="42"/>
+      <c r="AD40" s="50"/>
+      <c r="AE40" s="50"/>
+      <c r="AF40" s="50"/>
+      <c r="AG40" s="50"/>
+      <c r="AH40" s="50"/>
+      <c r="AI40" s="50"/>
+      <c r="AJ40" s="50"/>
+      <c r="AK40" s="50"/>
+      <c r="AL40" s="50"/>
+      <c r="AM40" s="50"/>
     </row>
     <row r="41" spans="1:39">
-      <c r="O41" s="32" t="s">
+      <c r="O41" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="33"/>
-      <c r="U41" s="33"/>
-      <c r="V41" s="33"/>
-      <c r="W41" s="33"/>
-      <c r="X41" s="33"/>
-      <c r="Y41" s="33"/>
-      <c r="Z41" s="33"/>
-      <c r="AA41" s="33"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="39"/>
+      <c r="Y41" s="39"/>
+      <c r="Z41" s="39"/>
+      <c r="AA41" s="39"/>
       <c r="AB41" s="21"/>
       <c r="AC41" s="21"/>
-      <c r="AD41" s="34" t="s">
+      <c r="AD41" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="AE41" s="34"/>
-      <c r="AF41" s="34"/>
-      <c r="AG41" s="34"/>
-      <c r="AH41" s="34"/>
-      <c r="AI41" s="34"/>
-      <c r="AJ41" s="34"/>
-      <c r="AK41" s="34"/>
-      <c r="AL41" s="34"/>
-      <c r="AM41" s="34"/>
+      <c r="AE41" s="40"/>
+      <c r="AF41" s="40"/>
+      <c r="AG41" s="40"/>
+      <c r="AH41" s="40"/>
+      <c r="AI41" s="40"/>
+      <c r="AJ41" s="40"/>
+      <c r="AK41" s="40"/>
+      <c r="AL41" s="40"/>
+      <c r="AM41" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="O41:AA41"/>
-    <mergeCell ref="AD41:AM41"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="O39:AA39"/>
-    <mergeCell ref="O40:AA40"/>
-    <mergeCell ref="AD40:AM40"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AK9:AM9"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="AC6:AI6"/>
+    <mergeCell ref="AJ6:AM6"/>
+    <mergeCell ref="A1:AM1"/>
+    <mergeCell ref="A2:AM2"/>
+    <mergeCell ref="A3:AM3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="M8:U8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:O6"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="Y6:AB6"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="V8:AD8"/>
     <mergeCell ref="AE8:AM8"/>
@@ -5289,23 +5323,19 @@
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="D8:F9"/>
     <mergeCell ref="G8:L8"/>
-    <mergeCell ref="M8:U8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:O6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="Y6:AB6"/>
-    <mergeCell ref="AC6:AI6"/>
-    <mergeCell ref="AJ6:AM6"/>
-    <mergeCell ref="A1:AM1"/>
-    <mergeCell ref="A2:AM2"/>
-    <mergeCell ref="A3:AM3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AK9:AM9"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="O41:AA41"/>
+    <mergeCell ref="AD41:AM41"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="O39:AA39"/>
+    <mergeCell ref="O40:AA40"/>
+    <mergeCell ref="AD40:AM40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -5314,7 +5344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5336,337 +5366,337 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="23.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="77"/>
     </row>
     <row r="2" spans="1:39" s="3" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="78"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="78"/>
+      <c r="AK2" s="78"/>
+      <c r="AL2" s="78"/>
+      <c r="AM2" s="78"/>
     </row>
     <row r="3" spans="1:39" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1">
       <c r="C4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="61" t="s">
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
-      <c r="N4" s="62" t="s">
+      <c r="I4" s="76"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="75"/>
+      <c r="N4" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="61" t="s">
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="48"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="75"/>
     </row>
     <row r="5" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
-      <c r="V6" s="62" t="s">
+      <c r="B6" s="72"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="75"/>
+      <c r="V6" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="61" t="s">
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="61"/>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="48"/>
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="72"/>
+      <c r="AF6" s="72"/>
+      <c r="AG6" s="72"/>
+      <c r="AH6" s="72"/>
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="73"/>
+      <c r="AK6" s="74"/>
+      <c r="AL6" s="74"/>
+      <c r="AM6" s="75"/>
     </row>
     <row r="7" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="8" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="43" t="s">
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="43" t="s">
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="43" t="s">
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="43" t="s">
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="44"/>
-      <c r="AM8" s="45"/>
+      <c r="AF8" s="58"/>
+      <c r="AG8" s="58"/>
+      <c r="AH8" s="58"/>
+      <c r="AI8" s="58"/>
+      <c r="AJ8" s="58"/>
+      <c r="AK8" s="58"/>
+      <c r="AL8" s="58"/>
+      <c r="AM8" s="59"/>
     </row>
     <row r="9" spans="1:39" ht="45.6" customHeight="1" thickBot="1">
-      <c r="A9" s="74"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="46" t="s">
+      <c r="A9" s="62"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="46" t="s">
+      <c r="H9" s="52"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="76"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="79" t="s">
+      <c r="K9" s="52"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="76"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="46" t="s">
+      <c r="N9" s="52"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="46" t="s">
+      <c r="Q9" s="52"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="76"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="79" t="s">
+      <c r="T9" s="52"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="76"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="46" t="s">
+      <c r="W9" s="52"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="46" t="s">
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="79" t="s">
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="78"/>
-      <c r="AH9" s="46" t="s">
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="78"/>
-      <c r="AK9" s="46" t="s">
+      <c r="AI9" s="52"/>
+      <c r="AJ9" s="53"/>
+      <c r="AK9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="AL9" s="76"/>
-      <c r="AM9" s="78"/>
+      <c r="AL9" s="52"/>
+      <c r="AM9" s="53"/>
     </row>
     <row r="10" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="22" t="s">
         <v>11</v>
       </c>
@@ -5676,16 +5706,16 @@
       <c r="F10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="71" t="s">
+      <c r="H10" s="37" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="70" t="s">
+      <c r="J10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="23" t="s">
@@ -5694,82 +5724,82 @@
       <c r="L10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="70" t="s">
+      <c r="M10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="71" t="s">
+      <c r="O10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="70" t="s">
+      <c r="Q10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="71" t="s">
+      <c r="R10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="S10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="70" t="s">
+      <c r="T10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="U10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="70" t="s">
+      <c r="V10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="W10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="71" t="s">
+      <c r="X10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="Y10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Z10" s="70" t="s">
+      <c r="Z10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AA10" s="71" t="s">
+      <c r="AA10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AB10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AC10" s="70" t="s">
+      <c r="AC10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AD10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AE10" s="70" t="s">
+      <c r="AE10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="AF10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AG10" s="71" t="s">
+      <c r="AG10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AH10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AI10" s="70" t="s">
+      <c r="AI10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AJ10" s="71" t="s">
+      <c r="AJ10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AK10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AL10" s="70" t="s">
+      <c r="AL10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AM10" s="24" t="s">
@@ -5780,52 +5810,52 @@
       <c r="A11" s="7"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="66"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="67"/>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="67"/>
-      <c r="AL11" s="66"/>
-      <c r="AM11" s="68"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="32"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="34"/>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="8" t="s">
@@ -7351,11 +7381,11 @@
       <c r="AM40" s="8"/>
     </row>
     <row r="41" spans="1:39" ht="29.45" customHeight="1" thickBot="1">
-      <c r="A41" s="72" t="s">
+      <c r="A41" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="28"/>
       <c r="E41" s="29"/>
       <c r="F41" s="18"/>
@@ -7394,11 +7424,11 @@
       <c r="AM41" s="18"/>
     </row>
     <row r="42" spans="1:39" ht="30.6" customHeight="1" thickBot="1">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
       <c r="D42" s="30"/>
       <c r="E42" s="31"/>
       <c r="F42" s="18"/>
@@ -7437,11 +7467,11 @@
       <c r="AM42" s="18"/>
     </row>
     <row r="43" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
       <c r="D43" s="28"/>
       <c r="E43" s="29"/>
       <c r="F43" s="18"/>
@@ -7480,11 +7510,11 @@
       <c r="AM43" s="18"/>
     </row>
     <row r="44" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
       <c r="D44" s="28"/>
       <c r="E44" s="29"/>
       <c r="F44" s="18"/>
@@ -7523,11 +7553,11 @@
       <c r="AM44" s="18"/>
     </row>
     <row r="45" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
       <c r="D45" s="28"/>
       <c r="E45" s="29"/>
       <c r="F45" s="18"/>
@@ -7566,11 +7596,11 @@
       <c r="AM45" s="18"/>
     </row>
     <row r="46" spans="1:39" ht="31.9" customHeight="1" thickBot="1">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="40"/>
-      <c r="C46" s="41"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="47"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
       <c r="F46" s="18"/>
@@ -7609,21 +7639,21 @@
       <c r="AM46" s="18"/>
     </row>
     <row r="49" spans="15:39">
-      <c r="O49" s="49" t="s">
+      <c r="O49" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="33"/>
-      <c r="R49" s="33"/>
-      <c r="S49" s="33"/>
-      <c r="T49" s="33"/>
-      <c r="U49" s="33"/>
-      <c r="V49" s="33"/>
-      <c r="W49" s="33"/>
-      <c r="X49" s="33"/>
-      <c r="Y49" s="33"/>
-      <c r="Z49" s="33"/>
-      <c r="AA49" s="33"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39"/>
+      <c r="V49" s="39"/>
+      <c r="W49" s="39"/>
+      <c r="X49" s="39"/>
+      <c r="Y49" s="39"/>
+      <c r="Z49" s="39"/>
+      <c r="AA49" s="39"/>
       <c r="AB49" s="21"/>
       <c r="AC49" s="21"/>
       <c r="AD49" s="21"/>
@@ -7638,78 +7668,82 @@
       <c r="AM49" s="21"/>
     </row>
     <row r="50" spans="15:39" ht="15.75" thickBot="1">
-      <c r="O50" s="50"/>
-      <c r="P50" s="50"/>
-      <c r="Q50" s="50"/>
-      <c r="R50" s="50"/>
-      <c r="S50" s="50"/>
-      <c r="T50" s="50"/>
-      <c r="U50" s="50"/>
-      <c r="V50" s="50"/>
-      <c r="W50" s="50"/>
-      <c r="X50" s="50"/>
-      <c r="Y50" s="50"/>
-      <c r="Z50" s="50"/>
-      <c r="AA50" s="50"/>
+      <c r="O50" s="49"/>
+      <c r="P50" s="49"/>
+      <c r="Q50" s="49"/>
+      <c r="R50" s="49"/>
+      <c r="S50" s="49"/>
+      <c r="T50" s="49"/>
+      <c r="U50" s="49"/>
+      <c r="V50" s="49"/>
+      <c r="W50" s="49"/>
+      <c r="X50" s="49"/>
+      <c r="Y50" s="49"/>
+      <c r="Z50" s="49"/>
+      <c r="AA50" s="49"/>
       <c r="AB50" s="21"/>
       <c r="AC50" s="21"/>
-      <c r="AD50" s="42"/>
-      <c r="AE50" s="42"/>
-      <c r="AF50" s="42"/>
-      <c r="AG50" s="42"/>
-      <c r="AH50" s="42"/>
-      <c r="AI50" s="42"/>
-      <c r="AJ50" s="42"/>
-      <c r="AK50" s="42"/>
-      <c r="AL50" s="42"/>
-      <c r="AM50" s="42"/>
+      <c r="AD50" s="50"/>
+      <c r="AE50" s="50"/>
+      <c r="AF50" s="50"/>
+      <c r="AG50" s="50"/>
+      <c r="AH50" s="50"/>
+      <c r="AI50" s="50"/>
+      <c r="AJ50" s="50"/>
+      <c r="AK50" s="50"/>
+      <c r="AL50" s="50"/>
+      <c r="AM50" s="50"/>
     </row>
     <row r="51" spans="15:39">
-      <c r="O51" s="32" t="s">
+      <c r="O51" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="33"/>
-      <c r="S51" s="33"/>
-      <c r="T51" s="33"/>
-      <c r="U51" s="33"/>
-      <c r="V51" s="33"/>
-      <c r="W51" s="33"/>
-      <c r="X51" s="33"/>
-      <c r="Y51" s="33"/>
-      <c r="Z51" s="33"/>
-      <c r="AA51" s="33"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="39"/>
+      <c r="S51" s="39"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="39"/>
+      <c r="V51" s="39"/>
+      <c r="W51" s="39"/>
+      <c r="X51" s="39"/>
+      <c r="Y51" s="39"/>
+      <c r="Z51" s="39"/>
+      <c r="AA51" s="39"/>
       <c r="AB51" s="21"/>
       <c r="AC51" s="21"/>
-      <c r="AD51" s="34" t="s">
+      <c r="AD51" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="AE51" s="34"/>
-      <c r="AF51" s="34"/>
-      <c r="AG51" s="34"/>
-      <c r="AH51" s="34"/>
-      <c r="AI51" s="34"/>
-      <c r="AJ51" s="34"/>
-      <c r="AK51" s="34"/>
-      <c r="AL51" s="34"/>
-      <c r="AM51" s="34"/>
+      <c r="AE51" s="40"/>
+      <c r="AF51" s="40"/>
+      <c r="AG51" s="40"/>
+      <c r="AH51" s="40"/>
+      <c r="AI51" s="40"/>
+      <c r="AJ51" s="40"/>
+      <c r="AK51" s="40"/>
+      <c r="AL51" s="40"/>
+      <c r="AM51" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="O51:AA51"/>
-    <mergeCell ref="AD51:AM51"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="O49:AA49"/>
-    <mergeCell ref="O50:AA50"/>
-    <mergeCell ref="AD50:AM50"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AK9:AM9"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="AC6:AI6"/>
+    <mergeCell ref="AJ6:AM6"/>
+    <mergeCell ref="A1:AM1"/>
+    <mergeCell ref="A2:AM2"/>
+    <mergeCell ref="A3:AM3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="M8:U8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:O6"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="Y6:AB6"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="V8:AD8"/>
     <mergeCell ref="AE8:AM8"/>
@@ -7726,23 +7760,19 @@
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="D8:F9"/>
     <mergeCell ref="G8:L8"/>
-    <mergeCell ref="M8:U8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:O6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="Y6:AB6"/>
-    <mergeCell ref="AC6:AI6"/>
-    <mergeCell ref="AJ6:AM6"/>
-    <mergeCell ref="A1:AM1"/>
-    <mergeCell ref="A2:AM2"/>
-    <mergeCell ref="A3:AM3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AK9:AM9"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="O51:AA51"/>
+    <mergeCell ref="AD51:AM51"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="O49:AA49"/>
+    <mergeCell ref="O50:AA50"/>
+    <mergeCell ref="AD50:AM50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -7751,7 +7781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7773,337 +7803,337 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="23.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="77"/>
     </row>
     <row r="2" spans="1:39" s="3" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="78"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="78"/>
+      <c r="AK2" s="78"/>
+      <c r="AL2" s="78"/>
+      <c r="AM2" s="78"/>
     </row>
     <row r="3" spans="1:39" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1">
       <c r="C4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="61" t="s">
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
-      <c r="N4" s="62" t="s">
+      <c r="I4" s="76"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="75"/>
+      <c r="N4" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="61" t="s">
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="48"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="75"/>
     </row>
     <row r="5" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
-      <c r="V6" s="62" t="s">
+      <c r="B6" s="72"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="75"/>
+      <c r="V6" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="61" t="s">
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="61"/>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="48"/>
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="72"/>
+      <c r="AF6" s="72"/>
+      <c r="AG6" s="72"/>
+      <c r="AH6" s="72"/>
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="73"/>
+      <c r="AK6" s="74"/>
+      <c r="AL6" s="74"/>
+      <c r="AM6" s="75"/>
     </row>
     <row r="7" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="8" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="43" t="s">
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="43" t="s">
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="43" t="s">
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="43" t="s">
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="44"/>
-      <c r="AM8" s="45"/>
+      <c r="AF8" s="58"/>
+      <c r="AG8" s="58"/>
+      <c r="AH8" s="58"/>
+      <c r="AI8" s="58"/>
+      <c r="AJ8" s="58"/>
+      <c r="AK8" s="58"/>
+      <c r="AL8" s="58"/>
+      <c r="AM8" s="59"/>
     </row>
     <row r="9" spans="1:39" ht="45.6" customHeight="1" thickBot="1">
-      <c r="A9" s="74"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="46" t="s">
+      <c r="A9" s="62"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="46" t="s">
+      <c r="H9" s="52"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="76"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="79" t="s">
+      <c r="K9" s="52"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="76"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="46" t="s">
+      <c r="N9" s="52"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="46" t="s">
+      <c r="Q9" s="52"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="76"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="79" t="s">
+      <c r="T9" s="52"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="76"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="46" t="s">
+      <c r="W9" s="52"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="46" t="s">
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="79" t="s">
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="78"/>
-      <c r="AH9" s="46" t="s">
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="78"/>
-      <c r="AK9" s="46" t="s">
+      <c r="AI9" s="52"/>
+      <c r="AJ9" s="53"/>
+      <c r="AK9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="AL9" s="76"/>
-      <c r="AM9" s="78"/>
+      <c r="AL9" s="52"/>
+      <c r="AM9" s="53"/>
     </row>
     <row r="10" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="22" t="s">
         <v>11</v>
       </c>
@@ -8113,16 +8143,16 @@
       <c r="F10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="71" t="s">
+      <c r="H10" s="37" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="70" t="s">
+      <c r="J10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="23" t="s">
@@ -8131,82 +8161,82 @@
       <c r="L10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="70" t="s">
+      <c r="M10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="71" t="s">
+      <c r="O10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="70" t="s">
+      <c r="Q10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="71" t="s">
+      <c r="R10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="S10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="70" t="s">
+      <c r="T10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="U10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="70" t="s">
+      <c r="V10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="W10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="71" t="s">
+      <c r="X10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="Y10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Z10" s="70" t="s">
+      <c r="Z10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AA10" s="71" t="s">
+      <c r="AA10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AB10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AC10" s="70" t="s">
+      <c r="AC10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AD10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AE10" s="70" t="s">
+      <c r="AE10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="AF10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AG10" s="71" t="s">
+      <c r="AG10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AH10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AI10" s="70" t="s">
+      <c r="AI10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AJ10" s="71" t="s">
+      <c r="AJ10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AK10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AL10" s="70" t="s">
+      <c r="AL10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AM10" s="24" t="s">
@@ -8217,52 +8247,52 @@
       <c r="A11" s="7"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="66"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="67"/>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="67"/>
-      <c r="AL11" s="66"/>
-      <c r="AM11" s="68"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="32"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="34"/>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="8" t="s">
@@ -10198,11 +10228,11 @@
       <c r="AM50" s="8"/>
     </row>
     <row r="51" spans="1:39" ht="29.45" customHeight="1" thickBot="1">
-      <c r="A51" s="72" t="s">
+      <c r="A51" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="73"/>
-      <c r="C51" s="73"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
       <c r="F51" s="18"/>
@@ -10241,11 +10271,11 @@
       <c r="AM51" s="18"/>
     </row>
     <row r="52" spans="1:39" ht="30.6" customHeight="1" thickBot="1">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
       <c r="D52" s="30"/>
       <c r="E52" s="31"/>
       <c r="F52" s="18"/>
@@ -10284,11 +10314,11 @@
       <c r="AM52" s="18"/>
     </row>
     <row r="53" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
       <c r="D53" s="28"/>
       <c r="E53" s="29"/>
       <c r="F53" s="18"/>
@@ -10327,11 +10357,11 @@
       <c r="AM53" s="18"/>
     </row>
     <row r="54" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="36"/>
-      <c r="C54" s="36"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
       <c r="D54" s="28"/>
       <c r="E54" s="29"/>
       <c r="F54" s="18"/>
@@ -10370,11 +10400,11 @@
       <c r="AM54" s="18"/>
     </row>
     <row r="55" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
       <c r="D55" s="28"/>
       <c r="E55" s="29"/>
       <c r="F55" s="18"/>
@@ -10413,11 +10443,11 @@
       <c r="AM55" s="18"/>
     </row>
     <row r="56" spans="1:39" ht="31.9" customHeight="1" thickBot="1">
-      <c r="A56" s="39" t="s">
+      <c r="A56" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="40"/>
-      <c r="C56" s="41"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="47"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
       <c r="F56" s="18"/>
@@ -10456,21 +10486,21 @@
       <c r="AM56" s="18"/>
     </row>
     <row r="59" spans="1:39">
-      <c r="O59" s="49" t="s">
+      <c r="O59" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="33"/>
-      <c r="S59" s="33"/>
-      <c r="T59" s="33"/>
-      <c r="U59" s="33"/>
-      <c r="V59" s="33"/>
-      <c r="W59" s="33"/>
-      <c r="X59" s="33"/>
-      <c r="Y59" s="33"/>
-      <c r="Z59" s="33"/>
-      <c r="AA59" s="33"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="39"/>
+      <c r="R59" s="39"/>
+      <c r="S59" s="39"/>
+      <c r="T59" s="39"/>
+      <c r="U59" s="39"/>
+      <c r="V59" s="39"/>
+      <c r="W59" s="39"/>
+      <c r="X59" s="39"/>
+      <c r="Y59" s="39"/>
+      <c r="Z59" s="39"/>
+      <c r="AA59" s="39"/>
       <c r="AB59" s="21"/>
       <c r="AC59" s="21"/>
       <c r="AD59" s="21"/>
@@ -10485,78 +10515,82 @@
       <c r="AM59" s="21"/>
     </row>
     <row r="60" spans="1:39" ht="15.75" thickBot="1">
-      <c r="O60" s="50"/>
-      <c r="P60" s="50"/>
-      <c r="Q60" s="50"/>
-      <c r="R60" s="50"/>
-      <c r="S60" s="50"/>
-      <c r="T60" s="50"/>
-      <c r="U60" s="50"/>
-      <c r="V60" s="50"/>
-      <c r="W60" s="50"/>
-      <c r="X60" s="50"/>
-      <c r="Y60" s="50"/>
-      <c r="Z60" s="50"/>
-      <c r="AA60" s="50"/>
+      <c r="O60" s="49"/>
+      <c r="P60" s="49"/>
+      <c r="Q60" s="49"/>
+      <c r="R60" s="49"/>
+      <c r="S60" s="49"/>
+      <c r="T60" s="49"/>
+      <c r="U60" s="49"/>
+      <c r="V60" s="49"/>
+      <c r="W60" s="49"/>
+      <c r="X60" s="49"/>
+      <c r="Y60" s="49"/>
+      <c r="Z60" s="49"/>
+      <c r="AA60" s="49"/>
       <c r="AB60" s="21"/>
       <c r="AC60" s="21"/>
-      <c r="AD60" s="42"/>
-      <c r="AE60" s="42"/>
-      <c r="AF60" s="42"/>
-      <c r="AG60" s="42"/>
-      <c r="AH60" s="42"/>
-      <c r="AI60" s="42"/>
-      <c r="AJ60" s="42"/>
-      <c r="AK60" s="42"/>
-      <c r="AL60" s="42"/>
-      <c r="AM60" s="42"/>
+      <c r="AD60" s="50"/>
+      <c r="AE60" s="50"/>
+      <c r="AF60" s="50"/>
+      <c r="AG60" s="50"/>
+      <c r="AH60" s="50"/>
+      <c r="AI60" s="50"/>
+      <c r="AJ60" s="50"/>
+      <c r="AK60" s="50"/>
+      <c r="AL60" s="50"/>
+      <c r="AM60" s="50"/>
     </row>
     <row r="61" spans="1:39">
-      <c r="O61" s="32" t="s">
+      <c r="O61" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="P61" s="33"/>
-      <c r="Q61" s="33"/>
-      <c r="R61" s="33"/>
-      <c r="S61" s="33"/>
-      <c r="T61" s="33"/>
-      <c r="U61" s="33"/>
-      <c r="V61" s="33"/>
-      <c r="W61" s="33"/>
-      <c r="X61" s="33"/>
-      <c r="Y61" s="33"/>
-      <c r="Z61" s="33"/>
-      <c r="AA61" s="33"/>
+      <c r="P61" s="39"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="39"/>
+      <c r="S61" s="39"/>
+      <c r="T61" s="39"/>
+      <c r="U61" s="39"/>
+      <c r="V61" s="39"/>
+      <c r="W61" s="39"/>
+      <c r="X61" s="39"/>
+      <c r="Y61" s="39"/>
+      <c r="Z61" s="39"/>
+      <c r="AA61" s="39"/>
       <c r="AB61" s="21"/>
       <c r="AC61" s="21"/>
-      <c r="AD61" s="34" t="s">
+      <c r="AD61" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="AE61" s="34"/>
-      <c r="AF61" s="34"/>
-      <c r="AG61" s="34"/>
-      <c r="AH61" s="34"/>
-      <c r="AI61" s="34"/>
-      <c r="AJ61" s="34"/>
-      <c r="AK61" s="34"/>
-      <c r="AL61" s="34"/>
-      <c r="AM61" s="34"/>
+      <c r="AE61" s="40"/>
+      <c r="AF61" s="40"/>
+      <c r="AG61" s="40"/>
+      <c r="AH61" s="40"/>
+      <c r="AI61" s="40"/>
+      <c r="AJ61" s="40"/>
+      <c r="AK61" s="40"/>
+      <c r="AL61" s="40"/>
+      <c r="AM61" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="O61:AA61"/>
-    <mergeCell ref="AD61:AM61"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="O59:AA59"/>
-    <mergeCell ref="O60:AA60"/>
-    <mergeCell ref="AD60:AM60"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AK9:AM9"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="AC6:AI6"/>
+    <mergeCell ref="AJ6:AM6"/>
+    <mergeCell ref="A1:AM1"/>
+    <mergeCell ref="A2:AM2"/>
+    <mergeCell ref="A3:AM3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="M8:U8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:O6"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="Y6:AB6"/>
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="V8:AD8"/>
     <mergeCell ref="AE8:AM8"/>
@@ -10573,23 +10607,19 @@
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="D8:F9"/>
     <mergeCell ref="G8:L8"/>
-    <mergeCell ref="M8:U8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:O6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="Y6:AB6"/>
-    <mergeCell ref="AC6:AI6"/>
-    <mergeCell ref="AJ6:AM6"/>
-    <mergeCell ref="A1:AM1"/>
-    <mergeCell ref="A2:AM2"/>
-    <mergeCell ref="A3:AM3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AK9:AM9"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="O61:AA61"/>
+    <mergeCell ref="AD61:AM61"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="O59:AA59"/>
+    <mergeCell ref="O60:AA60"/>
+    <mergeCell ref="AD60:AM60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -10598,7 +10628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10620,337 +10650,337 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="23.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="77"/>
     </row>
     <row r="2" spans="1:39" s="3" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="78"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="78"/>
+      <c r="AK2" s="78"/>
+      <c r="AL2" s="78"/>
+      <c r="AM2" s="78"/>
     </row>
     <row r="3" spans="1:39" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1">
       <c r="C4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="61" t="s">
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
-      <c r="N4" s="62" t="s">
+      <c r="I4" s="76"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="75"/>
+      <c r="N4" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="61" t="s">
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="48"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="75"/>
     </row>
     <row r="5" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
-      <c r="V6" s="62" t="s">
+      <c r="B6" s="72"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="75"/>
+      <c r="V6" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="61" t="s">
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="61"/>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="48"/>
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="72"/>
+      <c r="AF6" s="72"/>
+      <c r="AG6" s="72"/>
+      <c r="AH6" s="72"/>
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="73"/>
+      <c r="AK6" s="74"/>
+      <c r="AL6" s="74"/>
+      <c r="AM6" s="75"/>
     </row>
     <row r="7" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="8" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="43" t="s">
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="43" t="s">
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="43" t="s">
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="43" t="s">
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="44"/>
-      <c r="AM8" s="45"/>
+      <c r="AF8" s="58"/>
+      <c r="AG8" s="58"/>
+      <c r="AH8" s="58"/>
+      <c r="AI8" s="58"/>
+      <c r="AJ8" s="58"/>
+      <c r="AK8" s="58"/>
+      <c r="AL8" s="58"/>
+      <c r="AM8" s="59"/>
     </row>
     <row r="9" spans="1:39" ht="45.6" customHeight="1" thickBot="1">
-      <c r="A9" s="74"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="46" t="s">
+      <c r="A9" s="62"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="46" t="s">
+      <c r="H9" s="52"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="76"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="79" t="s">
+      <c r="K9" s="52"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="76"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="46" t="s">
+      <c r="N9" s="52"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="46" t="s">
+      <c r="Q9" s="52"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="76"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="79" t="s">
+      <c r="T9" s="52"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="76"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="46" t="s">
+      <c r="W9" s="52"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="46" t="s">
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="79" t="s">
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="78"/>
-      <c r="AH9" s="46" t="s">
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="78"/>
-      <c r="AK9" s="46" t="s">
+      <c r="AI9" s="52"/>
+      <c r="AJ9" s="53"/>
+      <c r="AK9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="AL9" s="76"/>
-      <c r="AM9" s="78"/>
+      <c r="AL9" s="52"/>
+      <c r="AM9" s="53"/>
     </row>
     <row r="10" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="22" t="s">
         <v>11</v>
       </c>
@@ -10960,16 +10990,16 @@
       <c r="F10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="71" t="s">
+      <c r="H10" s="37" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="70" t="s">
+      <c r="J10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="23" t="s">
@@ -10978,82 +11008,82 @@
       <c r="L10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="70" t="s">
+      <c r="M10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="71" t="s">
+      <c r="O10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="70" t="s">
+      <c r="Q10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="71" t="s">
+      <c r="R10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="S10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="70" t="s">
+      <c r="T10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="U10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="70" t="s">
+      <c r="V10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="W10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="71" t="s">
+      <c r="X10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="Y10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Z10" s="70" t="s">
+      <c r="Z10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AA10" s="71" t="s">
+      <c r="AA10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AB10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AC10" s="70" t="s">
+      <c r="AC10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AD10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AE10" s="70" t="s">
+      <c r="AE10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="AF10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AG10" s="71" t="s">
+      <c r="AG10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AH10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AI10" s="70" t="s">
+      <c r="AI10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AJ10" s="71" t="s">
+      <c r="AJ10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AK10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AL10" s="70" t="s">
+      <c r="AL10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AM10" s="24" t="s">
@@ -11064,52 +11094,52 @@
       <c r="A11" s="7"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="66"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="67"/>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="67"/>
-      <c r="AL11" s="66"/>
-      <c r="AM11" s="68"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="32"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="34"/>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="8" t="s">
@@ -13671,11 +13701,11 @@
       <c r="AM60" s="8"/>
     </row>
     <row r="61" spans="1:39" ht="29.45" customHeight="1" thickBot="1">
-      <c r="A61" s="72" t="s">
+      <c r="A61" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="73"/>
-      <c r="C61" s="73"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="56"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
       <c r="F61" s="18"/>
@@ -13714,11 +13744,11 @@
       <c r="AM61" s="18"/>
     </row>
     <row r="62" spans="1:39" ht="30.6" customHeight="1" thickBot="1">
-      <c r="A62" s="35" t="s">
+      <c r="A62" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="36"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
       <c r="D62" s="30"/>
       <c r="E62" s="31"/>
       <c r="F62" s="18"/>
@@ -13757,11 +13787,11 @@
       <c r="AM62" s="18"/>
     </row>
     <row r="63" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A63" s="35" t="s">
+      <c r="A63" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="36"/>
-      <c r="C63" s="36"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
       <c r="D63" s="28"/>
       <c r="E63" s="29"/>
       <c r="F63" s="18"/>
@@ -13800,11 +13830,11 @@
       <c r="AM63" s="18"/>
     </row>
     <row r="64" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="42"/>
       <c r="D64" s="28"/>
       <c r="E64" s="29"/>
       <c r="F64" s="18"/>
@@ -13843,11 +13873,11 @@
       <c r="AM64" s="18"/>
     </row>
     <row r="65" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A65" s="37" t="s">
+      <c r="A65" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="44"/>
       <c r="D65" s="28"/>
       <c r="E65" s="29"/>
       <c r="F65" s="18"/>
@@ -13886,11 +13916,11 @@
       <c r="AM65" s="18"/>
     </row>
     <row r="66" spans="1:39" ht="31.9" customHeight="1" thickBot="1">
-      <c r="A66" s="39" t="s">
+      <c r="A66" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B66" s="40"/>
-      <c r="C66" s="41"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="47"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
       <c r="F66" s="18"/>
@@ -13929,21 +13959,21 @@
       <c r="AM66" s="18"/>
     </row>
     <row r="69" spans="1:39">
-      <c r="O69" s="49" t="s">
+      <c r="O69" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="P69" s="33"/>
-      <c r="Q69" s="33"/>
-      <c r="R69" s="33"/>
-      <c r="S69" s="33"/>
-      <c r="T69" s="33"/>
-      <c r="U69" s="33"/>
-      <c r="V69" s="33"/>
-      <c r="W69" s="33"/>
-      <c r="X69" s="33"/>
-      <c r="Y69" s="33"/>
-      <c r="Z69" s="33"/>
-      <c r="AA69" s="33"/>
+      <c r="P69" s="39"/>
+      <c r="Q69" s="39"/>
+      <c r="R69" s="39"/>
+      <c r="S69" s="39"/>
+      <c r="T69" s="39"/>
+      <c r="U69" s="39"/>
+      <c r="V69" s="39"/>
+      <c r="W69" s="39"/>
+      <c r="X69" s="39"/>
+      <c r="Y69" s="39"/>
+      <c r="Z69" s="39"/>
+      <c r="AA69" s="39"/>
       <c r="AB69" s="21"/>
       <c r="AC69" s="21"/>
       <c r="AD69" s="21"/>
@@ -13958,78 +13988,82 @@
       <c r="AM69" s="21"/>
     </row>
     <row r="70" spans="1:39" ht="15.75" thickBot="1">
-      <c r="O70" s="50"/>
-      <c r="P70" s="50"/>
-      <c r="Q70" s="50"/>
-      <c r="R70" s="50"/>
-      <c r="S70" s="50"/>
-      <c r="T70" s="50"/>
-      <c r="U70" s="50"/>
-      <c r="V70" s="50"/>
-      <c r="W70" s="50"/>
-      <c r="X70" s="50"/>
-      <c r="Y70" s="50"/>
-      <c r="Z70" s="50"/>
-      <c r="AA70" s="50"/>
+      <c r="O70" s="49"/>
+      <c r="P70" s="49"/>
+      <c r="Q70" s="49"/>
+      <c r="R70" s="49"/>
+      <c r="S70" s="49"/>
+      <c r="T70" s="49"/>
+      <c r="U70" s="49"/>
+      <c r="V70" s="49"/>
+      <c r="W70" s="49"/>
+      <c r="X70" s="49"/>
+      <c r="Y70" s="49"/>
+      <c r="Z70" s="49"/>
+      <c r="AA70" s="49"/>
       <c r="AB70" s="21"/>
       <c r="AC70" s="21"/>
-      <c r="AD70" s="42"/>
-      <c r="AE70" s="42"/>
-      <c r="AF70" s="42"/>
-      <c r="AG70" s="42"/>
-      <c r="AH70" s="42"/>
-      <c r="AI70" s="42"/>
-      <c r="AJ70" s="42"/>
-      <c r="AK70" s="42"/>
-      <c r="AL70" s="42"/>
-      <c r="AM70" s="42"/>
+      <c r="AD70" s="50"/>
+      <c r="AE70" s="50"/>
+      <c r="AF70" s="50"/>
+      <c r="AG70" s="50"/>
+      <c r="AH70" s="50"/>
+      <c r="AI70" s="50"/>
+      <c r="AJ70" s="50"/>
+      <c r="AK70" s="50"/>
+      <c r="AL70" s="50"/>
+      <c r="AM70" s="50"/>
     </row>
     <row r="71" spans="1:39">
-      <c r="O71" s="32" t="s">
+      <c r="O71" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="P71" s="33"/>
-      <c r="Q71" s="33"/>
-      <c r="R71" s="33"/>
-      <c r="S71" s="33"/>
-      <c r="T71" s="33"/>
-      <c r="U71" s="33"/>
-      <c r="V71" s="33"/>
-      <c r="W71" s="33"/>
-      <c r="X71" s="33"/>
-      <c r="Y71" s="33"/>
-      <c r="Z71" s="33"/>
-      <c r="AA71" s="33"/>
+      <c r="P71" s="39"/>
+      <c r="Q71" s="39"/>
+      <c r="R71" s="39"/>
+      <c r="S71" s="39"/>
+      <c r="T71" s="39"/>
+      <c r="U71" s="39"/>
+      <c r="V71" s="39"/>
+      <c r="W71" s="39"/>
+      <c r="X71" s="39"/>
+      <c r="Y71" s="39"/>
+      <c r="Z71" s="39"/>
+      <c r="AA71" s="39"/>
       <c r="AB71" s="21"/>
       <c r="AC71" s="21"/>
-      <c r="AD71" s="34" t="s">
+      <c r="AD71" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="AE71" s="34"/>
-      <c r="AF71" s="34"/>
-      <c r="AG71" s="34"/>
-      <c r="AH71" s="34"/>
-      <c r="AI71" s="34"/>
-      <c r="AJ71" s="34"/>
-      <c r="AK71" s="34"/>
-      <c r="AL71" s="34"/>
-      <c r="AM71" s="34"/>
+      <c r="AE71" s="40"/>
+      <c r="AF71" s="40"/>
+      <c r="AG71" s="40"/>
+      <c r="AH71" s="40"/>
+      <c r="AI71" s="40"/>
+      <c r="AJ71" s="40"/>
+      <c r="AK71" s="40"/>
+      <c r="AL71" s="40"/>
+      <c r="AM71" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="O71:AA71"/>
-    <mergeCell ref="AD71:AM71"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="O69:AA69"/>
-    <mergeCell ref="O70:AA70"/>
-    <mergeCell ref="AD70:AM70"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AK9:AM9"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="AC6:AI6"/>
+    <mergeCell ref="AJ6:AM6"/>
+    <mergeCell ref="A1:AM1"/>
+    <mergeCell ref="A2:AM2"/>
+    <mergeCell ref="A3:AM3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="M8:U8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:O6"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="Y6:AB6"/>
     <mergeCell ref="A63:C63"/>
     <mergeCell ref="V8:AD8"/>
     <mergeCell ref="AE8:AM8"/>
@@ -14046,23 +14080,19 @@
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="D8:F9"/>
     <mergeCell ref="G8:L8"/>
-    <mergeCell ref="M8:U8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:O6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="Y6:AB6"/>
-    <mergeCell ref="AC6:AI6"/>
-    <mergeCell ref="AJ6:AM6"/>
-    <mergeCell ref="A1:AM1"/>
-    <mergeCell ref="A2:AM2"/>
-    <mergeCell ref="A3:AM3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AK9:AM9"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="O71:AA71"/>
+    <mergeCell ref="AD71:AM71"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="O69:AA69"/>
+    <mergeCell ref="O70:AA70"/>
+    <mergeCell ref="AD70:AM70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -14071,7 +14101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -14093,337 +14123,337 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="23.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="77"/>
     </row>
     <row r="2" spans="1:39" s="3" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="78"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="78"/>
+      <c r="AK2" s="78"/>
+      <c r="AL2" s="78"/>
+      <c r="AM2" s="78"/>
     </row>
     <row r="3" spans="1:39" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1">
       <c r="C4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="61" t="s">
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
-      <c r="N4" s="62" t="s">
+      <c r="I4" s="76"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="75"/>
+      <c r="N4" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="61" t="s">
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="48"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="75"/>
     </row>
     <row r="5" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
-      <c r="V6" s="62" t="s">
+      <c r="B6" s="72"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="75"/>
+      <c r="V6" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="61" t="s">
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="61"/>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="48"/>
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="72"/>
+      <c r="AF6" s="72"/>
+      <c r="AG6" s="72"/>
+      <c r="AH6" s="72"/>
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="73"/>
+      <c r="AK6" s="74"/>
+      <c r="AL6" s="74"/>
+      <c r="AM6" s="75"/>
     </row>
     <row r="7" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="8" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="43" t="s">
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="43" t="s">
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="43" t="s">
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="43" t="s">
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="44"/>
-      <c r="AM8" s="45"/>
+      <c r="AF8" s="58"/>
+      <c r="AG8" s="58"/>
+      <c r="AH8" s="58"/>
+      <c r="AI8" s="58"/>
+      <c r="AJ8" s="58"/>
+      <c r="AK8" s="58"/>
+      <c r="AL8" s="58"/>
+      <c r="AM8" s="59"/>
     </row>
     <row r="9" spans="1:39" ht="45.6" customHeight="1" thickBot="1">
-      <c r="A9" s="74"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="46" t="s">
+      <c r="A9" s="62"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="46" t="s">
+      <c r="H9" s="52"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="76"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="79" t="s">
+      <c r="K9" s="52"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="76"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="46" t="s">
+      <c r="N9" s="52"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="46" t="s">
+      <c r="Q9" s="52"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="76"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="79" t="s">
+      <c r="T9" s="52"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="76"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="46" t="s">
+      <c r="W9" s="52"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="46" t="s">
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="79" t="s">
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="78"/>
-      <c r="AH9" s="46" t="s">
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="78"/>
-      <c r="AK9" s="46" t="s">
+      <c r="AI9" s="52"/>
+      <c r="AJ9" s="53"/>
+      <c r="AK9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="AL9" s="76"/>
-      <c r="AM9" s="78"/>
+      <c r="AL9" s="52"/>
+      <c r="AM9" s="53"/>
     </row>
     <row r="10" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="22" t="s">
         <v>11</v>
       </c>
@@ -14433,16 +14463,16 @@
       <c r="F10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="71" t="s">
+      <c r="H10" s="37" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="70" t="s">
+      <c r="J10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="23" t="s">
@@ -14451,82 +14481,82 @@
       <c r="L10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="70" t="s">
+      <c r="M10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="71" t="s">
+      <c r="O10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="70" t="s">
+      <c r="Q10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="71" t="s">
+      <c r="R10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="S10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="70" t="s">
+      <c r="T10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="U10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="70" t="s">
+      <c r="V10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="W10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="71" t="s">
+      <c r="X10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="Y10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Z10" s="70" t="s">
+      <c r="Z10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AA10" s="71" t="s">
+      <c r="AA10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AB10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AC10" s="70" t="s">
+      <c r="AC10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AD10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AE10" s="70" t="s">
+      <c r="AE10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="AF10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AG10" s="71" t="s">
+      <c r="AG10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AH10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AI10" s="70" t="s">
+      <c r="AI10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AJ10" s="71" t="s">
+      <c r="AJ10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AK10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AL10" s="70" t="s">
+      <c r="AL10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AM10" s="24" t="s">
@@ -14537,52 +14567,52 @@
       <c r="A11" s="7"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="66"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="67"/>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="67"/>
-      <c r="AL11" s="66"/>
-      <c r="AM11" s="68"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="32"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="34"/>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="8" t="s">
@@ -17674,11 +17704,11 @@
       <c r="AM70" s="9"/>
     </row>
     <row r="71" spans="1:39" ht="29.45" customHeight="1" thickBot="1">
-      <c r="A71" s="72" t="s">
+      <c r="A71" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="73"/>
-      <c r="C71" s="73"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="56"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
       <c r="F71" s="18"/>
@@ -17717,11 +17747,11 @@
       <c r="AM71" s="18"/>
     </row>
     <row r="72" spans="1:39" ht="30.6" customHeight="1" thickBot="1">
-      <c r="A72" s="35" t="s">
+      <c r="A72" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B72" s="36"/>
-      <c r="C72" s="36"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="42"/>
       <c r="D72" s="30"/>
       <c r="E72" s="31"/>
       <c r="F72" s="18"/>
@@ -17760,11 +17790,11 @@
       <c r="AM72" s="18"/>
     </row>
     <row r="73" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A73" s="35" t="s">
+      <c r="A73" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B73" s="36"/>
-      <c r="C73" s="36"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
       <c r="D73" s="28"/>
       <c r="E73" s="29"/>
       <c r="F73" s="18"/>
@@ -17803,11 +17833,11 @@
       <c r="AM73" s="18"/>
     </row>
     <row r="74" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A74" s="35" t="s">
+      <c r="A74" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B74" s="36"/>
-      <c r="C74" s="36"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="42"/>
       <c r="D74" s="28"/>
       <c r="E74" s="29"/>
       <c r="F74" s="18"/>
@@ -17846,11 +17876,11 @@
       <c r="AM74" s="18"/>
     </row>
     <row r="75" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B75" s="38"/>
-      <c r="C75" s="38"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="44"/>
       <c r="D75" s="28"/>
       <c r="E75" s="29"/>
       <c r="F75" s="18"/>
@@ -17889,11 +17919,11 @@
       <c r="AM75" s="18"/>
     </row>
     <row r="76" spans="1:39" ht="31.9" customHeight="1" thickBot="1">
-      <c r="A76" s="39" t="s">
+      <c r="A76" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B76" s="40"/>
-      <c r="C76" s="41"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="47"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
       <c r="F76" s="18"/>
@@ -17932,21 +17962,21 @@
       <c r="AM76" s="18"/>
     </row>
     <row r="79" spans="1:39">
-      <c r="O79" s="49" t="s">
+      <c r="O79" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="P79" s="33"/>
-      <c r="Q79" s="33"/>
-      <c r="R79" s="33"/>
-      <c r="S79" s="33"/>
-      <c r="T79" s="33"/>
-      <c r="U79" s="33"/>
-      <c r="V79" s="33"/>
-      <c r="W79" s="33"/>
-      <c r="X79" s="33"/>
-      <c r="Y79" s="33"/>
-      <c r="Z79" s="33"/>
-      <c r="AA79" s="33"/>
+      <c r="P79" s="39"/>
+      <c r="Q79" s="39"/>
+      <c r="R79" s="39"/>
+      <c r="S79" s="39"/>
+      <c r="T79" s="39"/>
+      <c r="U79" s="39"/>
+      <c r="V79" s="39"/>
+      <c r="W79" s="39"/>
+      <c r="X79" s="39"/>
+      <c r="Y79" s="39"/>
+      <c r="Z79" s="39"/>
+      <c r="AA79" s="39"/>
       <c r="AB79" s="21"/>
       <c r="AC79" s="21"/>
       <c r="AD79" s="21"/>
@@ -17961,78 +17991,82 @@
       <c r="AM79" s="21"/>
     </row>
     <row r="80" spans="1:39" ht="15.75" thickBot="1">
-      <c r="O80" s="50"/>
-      <c r="P80" s="50"/>
-      <c r="Q80" s="50"/>
-      <c r="R80" s="50"/>
-      <c r="S80" s="50"/>
-      <c r="T80" s="50"/>
-      <c r="U80" s="50"/>
-      <c r="V80" s="50"/>
-      <c r="W80" s="50"/>
-      <c r="X80" s="50"/>
-      <c r="Y80" s="50"/>
-      <c r="Z80" s="50"/>
-      <c r="AA80" s="50"/>
+      <c r="O80" s="49"/>
+      <c r="P80" s="49"/>
+      <c r="Q80" s="49"/>
+      <c r="R80" s="49"/>
+      <c r="S80" s="49"/>
+      <c r="T80" s="49"/>
+      <c r="U80" s="49"/>
+      <c r="V80" s="49"/>
+      <c r="W80" s="49"/>
+      <c r="X80" s="49"/>
+      <c r="Y80" s="49"/>
+      <c r="Z80" s="49"/>
+      <c r="AA80" s="49"/>
       <c r="AB80" s="21"/>
       <c r="AC80" s="21"/>
-      <c r="AD80" s="42"/>
-      <c r="AE80" s="42"/>
-      <c r="AF80" s="42"/>
-      <c r="AG80" s="42"/>
-      <c r="AH80" s="42"/>
-      <c r="AI80" s="42"/>
-      <c r="AJ80" s="42"/>
-      <c r="AK80" s="42"/>
-      <c r="AL80" s="42"/>
-      <c r="AM80" s="42"/>
+      <c r="AD80" s="50"/>
+      <c r="AE80" s="50"/>
+      <c r="AF80" s="50"/>
+      <c r="AG80" s="50"/>
+      <c r="AH80" s="50"/>
+      <c r="AI80" s="50"/>
+      <c r="AJ80" s="50"/>
+      <c r="AK80" s="50"/>
+      <c r="AL80" s="50"/>
+      <c r="AM80" s="50"/>
     </row>
     <row r="81" spans="15:39">
-      <c r="O81" s="32" t="s">
+      <c r="O81" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="P81" s="33"/>
-      <c r="Q81" s="33"/>
-      <c r="R81" s="33"/>
-      <c r="S81" s="33"/>
-      <c r="T81" s="33"/>
-      <c r="U81" s="33"/>
-      <c r="V81" s="33"/>
-      <c r="W81" s="33"/>
-      <c r="X81" s="33"/>
-      <c r="Y81" s="33"/>
-      <c r="Z81" s="33"/>
-      <c r="AA81" s="33"/>
+      <c r="P81" s="39"/>
+      <c r="Q81" s="39"/>
+      <c r="R81" s="39"/>
+      <c r="S81" s="39"/>
+      <c r="T81" s="39"/>
+      <c r="U81" s="39"/>
+      <c r="V81" s="39"/>
+      <c r="W81" s="39"/>
+      <c r="X81" s="39"/>
+      <c r="Y81" s="39"/>
+      <c r="Z81" s="39"/>
+      <c r="AA81" s="39"/>
       <c r="AB81" s="21"/>
       <c r="AC81" s="21"/>
-      <c r="AD81" s="34" t="s">
+      <c r="AD81" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="AE81" s="34"/>
-      <c r="AF81" s="34"/>
-      <c r="AG81" s="34"/>
-      <c r="AH81" s="34"/>
-      <c r="AI81" s="34"/>
-      <c r="AJ81" s="34"/>
-      <c r="AK81" s="34"/>
-      <c r="AL81" s="34"/>
-      <c r="AM81" s="34"/>
+      <c r="AE81" s="40"/>
+      <c r="AF81" s="40"/>
+      <c r="AG81" s="40"/>
+      <c r="AH81" s="40"/>
+      <c r="AI81" s="40"/>
+      <c r="AJ81" s="40"/>
+      <c r="AK81" s="40"/>
+      <c r="AL81" s="40"/>
+      <c r="AM81" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="O81:AA81"/>
-    <mergeCell ref="AD81:AM81"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="O79:AA79"/>
-    <mergeCell ref="O80:AA80"/>
-    <mergeCell ref="AD80:AM80"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AK9:AM9"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="AC6:AI6"/>
+    <mergeCell ref="AJ6:AM6"/>
+    <mergeCell ref="A1:AM1"/>
+    <mergeCell ref="A2:AM2"/>
+    <mergeCell ref="A3:AM3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="M8:U8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:O6"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="Y6:AB6"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="V8:AD8"/>
     <mergeCell ref="AE8:AM8"/>
@@ -18049,23 +18083,19 @@
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="D8:F9"/>
     <mergeCell ref="G8:L8"/>
-    <mergeCell ref="M8:U8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:O6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="Y6:AB6"/>
-    <mergeCell ref="AC6:AI6"/>
-    <mergeCell ref="AJ6:AM6"/>
-    <mergeCell ref="A1:AM1"/>
-    <mergeCell ref="A2:AM2"/>
-    <mergeCell ref="A3:AM3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AK9:AM9"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="O81:AA81"/>
+    <mergeCell ref="AD81:AM81"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="O79:AA79"/>
+    <mergeCell ref="O80:AA80"/>
+    <mergeCell ref="AD80:AM80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -18074,7 +18104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -18095,337 +18125,337 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="23.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="77"/>
     </row>
     <row r="2" spans="1:39" s="3" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="78"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="78"/>
+      <c r="AK2" s="78"/>
+      <c r="AL2" s="78"/>
+      <c r="AM2" s="78"/>
     </row>
     <row r="3" spans="1:39" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1">
       <c r="C4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="61" t="s">
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
-      <c r="N4" s="62" t="s">
+      <c r="I4" s="76"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="75"/>
+      <c r="N4" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="61" t="s">
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="48"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="75"/>
     </row>
     <row r="5" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
-      <c r="V6" s="62" t="s">
+      <c r="B6" s="72"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="75"/>
+      <c r="V6" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="61" t="s">
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="61"/>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="48"/>
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="72"/>
+      <c r="AF6" s="72"/>
+      <c r="AG6" s="72"/>
+      <c r="AH6" s="72"/>
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="73"/>
+      <c r="AK6" s="74"/>
+      <c r="AL6" s="74"/>
+      <c r="AM6" s="75"/>
     </row>
     <row r="7" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="8" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="43" t="s">
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="43" t="s">
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="43" t="s">
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="43" t="s">
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="44"/>
-      <c r="AM8" s="45"/>
+      <c r="AF8" s="58"/>
+      <c r="AG8" s="58"/>
+      <c r="AH8" s="58"/>
+      <c r="AI8" s="58"/>
+      <c r="AJ8" s="58"/>
+      <c r="AK8" s="58"/>
+      <c r="AL8" s="58"/>
+      <c r="AM8" s="59"/>
     </row>
     <row r="9" spans="1:39" ht="45.6" customHeight="1" thickBot="1">
-      <c r="A9" s="74"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="46" t="s">
+      <c r="A9" s="62"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="46" t="s">
+      <c r="H9" s="52"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="76"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="79" t="s">
+      <c r="K9" s="52"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="76"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="46" t="s">
+      <c r="N9" s="52"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="46" t="s">
+      <c r="Q9" s="52"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="76"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="79" t="s">
+      <c r="T9" s="52"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="76"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="46" t="s">
+      <c r="W9" s="52"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="46" t="s">
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="79" t="s">
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="78"/>
-      <c r="AH9" s="46" t="s">
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="78"/>
-      <c r="AK9" s="46" t="s">
+      <c r="AI9" s="52"/>
+      <c r="AJ9" s="53"/>
+      <c r="AK9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="AL9" s="76"/>
-      <c r="AM9" s="78"/>
+      <c r="AL9" s="52"/>
+      <c r="AM9" s="53"/>
     </row>
     <row r="10" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="22" t="s">
         <v>11</v>
       </c>
@@ -18435,16 +18465,16 @@
       <c r="F10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="71" t="s">
+      <c r="H10" s="37" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="70" t="s">
+      <c r="J10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="23" t="s">
@@ -18453,82 +18483,82 @@
       <c r="L10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="70" t="s">
+      <c r="M10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="71" t="s">
+      <c r="O10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="70" t="s">
+      <c r="Q10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="71" t="s">
+      <c r="R10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="S10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="70" t="s">
+      <c r="T10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="U10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="70" t="s">
+      <c r="V10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="W10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="71" t="s">
+      <c r="X10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="Y10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Z10" s="70" t="s">
+      <c r="Z10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AA10" s="71" t="s">
+      <c r="AA10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AB10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AC10" s="70" t="s">
+      <c r="AC10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AD10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AE10" s="70" t="s">
+      <c r="AE10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="AF10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AG10" s="71" t="s">
+      <c r="AG10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AH10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AI10" s="70" t="s">
+      <c r="AI10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AJ10" s="71" t="s">
+      <c r="AJ10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="AK10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AL10" s="70" t="s">
+      <c r="AL10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AM10" s="24" t="s">
@@ -18539,52 +18569,52 @@
       <c r="A11" s="7"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="66"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="67"/>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="67"/>
-      <c r="AL11" s="66"/>
-      <c r="AM11" s="68"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="32"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="34"/>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="8" t="s">
@@ -22110,11 +22140,11 @@
       <c r="AM80" s="9"/>
     </row>
     <row r="81" spans="1:39" ht="29.45" customHeight="1" thickBot="1">
-      <c r="A81" s="72" t="s">
+      <c r="A81" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B81" s="73"/>
-      <c r="C81" s="73"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="56"/>
       <c r="D81" s="28"/>
       <c r="E81" s="29"/>
       <c r="F81" s="18"/>
@@ -22153,11 +22183,11 @@
       <c r="AM81" s="18"/>
     </row>
     <row r="82" spans="1:39" ht="30.6" customHeight="1" thickBot="1">
-      <c r="A82" s="35" t="s">
+      <c r="A82" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B82" s="36"/>
-      <c r="C82" s="36"/>
+      <c r="B82" s="42"/>
+      <c r="C82" s="42"/>
       <c r="D82" s="30"/>
       <c r="E82" s="31"/>
       <c r="F82" s="18"/>
@@ -22196,11 +22226,11 @@
       <c r="AM82" s="18"/>
     </row>
     <row r="83" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A83" s="35" t="s">
+      <c r="A83" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B83" s="36"/>
-      <c r="C83" s="36"/>
+      <c r="B83" s="42"/>
+      <c r="C83" s="42"/>
       <c r="D83" s="28"/>
       <c r="E83" s="29"/>
       <c r="F83" s="18"/>
@@ -22239,11 +22269,11 @@
       <c r="AM83" s="18"/>
     </row>
     <row r="84" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A84" s="35" t="s">
+      <c r="A84" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
+      <c r="B84" s="42"/>
+      <c r="C84" s="42"/>
       <c r="D84" s="28"/>
       <c r="E84" s="29"/>
       <c r="F84" s="18"/>
@@ -22282,11 +22312,11 @@
       <c r="AM84" s="18"/>
     </row>
     <row r="85" spans="1:39" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="38"/>
-      <c r="C85" s="38"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="44"/>
       <c r="D85" s="28"/>
       <c r="E85" s="29"/>
       <c r="F85" s="18"/>
@@ -22325,11 +22355,11 @@
       <c r="AM85" s="18"/>
     </row>
     <row r="86" spans="1:39" ht="31.9" customHeight="1" thickBot="1">
-      <c r="A86" s="39" t="s">
+      <c r="A86" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B86" s="40"/>
-      <c r="C86" s="41"/>
+      <c r="B86" s="46"/>
+      <c r="C86" s="47"/>
       <c r="D86" s="28"/>
       <c r="E86" s="29"/>
       <c r="F86" s="18"/>
@@ -22368,21 +22398,21 @@
       <c r="AM86" s="18"/>
     </row>
     <row r="89" spans="1:39">
-      <c r="O89" s="49" t="s">
+      <c r="O89" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="P89" s="33"/>
-      <c r="Q89" s="33"/>
-      <c r="R89" s="33"/>
-      <c r="S89" s="33"/>
-      <c r="T89" s="33"/>
-      <c r="U89" s="33"/>
-      <c r="V89" s="33"/>
-      <c r="W89" s="33"/>
-      <c r="X89" s="33"/>
-      <c r="Y89" s="33"/>
-      <c r="Z89" s="33"/>
-      <c r="AA89" s="33"/>
+      <c r="P89" s="39"/>
+      <c r="Q89" s="39"/>
+      <c r="R89" s="39"/>
+      <c r="S89" s="39"/>
+      <c r="T89" s="39"/>
+      <c r="U89" s="39"/>
+      <c r="V89" s="39"/>
+      <c r="W89" s="39"/>
+      <c r="X89" s="39"/>
+      <c r="Y89" s="39"/>
+      <c r="Z89" s="39"/>
+      <c r="AA89" s="39"/>
       <c r="AB89" s="21"/>
       <c r="AC89" s="21"/>
       <c r="AD89" s="21"/>
@@ -22397,65 +22427,95 @@
       <c r="AM89" s="21"/>
     </row>
     <row r="90" spans="1:39" ht="15.75" thickBot="1">
-      <c r="O90" s="50"/>
-      <c r="P90" s="50"/>
-      <c r="Q90" s="50"/>
-      <c r="R90" s="50"/>
-      <c r="S90" s="50"/>
-      <c r="T90" s="50"/>
-      <c r="U90" s="50"/>
-      <c r="V90" s="50"/>
-      <c r="W90" s="50"/>
-      <c r="X90" s="50"/>
-      <c r="Y90" s="50"/>
-      <c r="Z90" s="50"/>
-      <c r="AA90" s="50"/>
+      <c r="O90" s="49"/>
+      <c r="P90" s="49"/>
+      <c r="Q90" s="49"/>
+      <c r="R90" s="49"/>
+      <c r="S90" s="49"/>
+      <c r="T90" s="49"/>
+      <c r="U90" s="49"/>
+      <c r="V90" s="49"/>
+      <c r="W90" s="49"/>
+      <c r="X90" s="49"/>
+      <c r="Y90" s="49"/>
+      <c r="Z90" s="49"/>
+      <c r="AA90" s="49"/>
       <c r="AB90" s="21"/>
       <c r="AC90" s="21"/>
-      <c r="AD90" s="42"/>
-      <c r="AE90" s="42"/>
-      <c r="AF90" s="42"/>
-      <c r="AG90" s="42"/>
-      <c r="AH90" s="42"/>
-      <c r="AI90" s="42"/>
-      <c r="AJ90" s="42"/>
-      <c r="AK90" s="42"/>
-      <c r="AL90" s="42"/>
-      <c r="AM90" s="42"/>
+      <c r="AD90" s="50"/>
+      <c r="AE90" s="50"/>
+      <c r="AF90" s="50"/>
+      <c r="AG90" s="50"/>
+      <c r="AH90" s="50"/>
+      <c r="AI90" s="50"/>
+      <c r="AJ90" s="50"/>
+      <c r="AK90" s="50"/>
+      <c r="AL90" s="50"/>
+      <c r="AM90" s="50"/>
     </row>
     <row r="91" spans="1:39">
-      <c r="O91" s="32" t="s">
+      <c r="O91" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="P91" s="33"/>
-      <c r="Q91" s="33"/>
-      <c r="R91" s="33"/>
-      <c r="S91" s="33"/>
-      <c r="T91" s="33"/>
-      <c r="U91" s="33"/>
-      <c r="V91" s="33"/>
-      <c r="W91" s="33"/>
-      <c r="X91" s="33"/>
-      <c r="Y91" s="33"/>
-      <c r="Z91" s="33"/>
-      <c r="AA91" s="33"/>
+      <c r="P91" s="39"/>
+      <c r="Q91" s="39"/>
+      <c r="R91" s="39"/>
+      <c r="S91" s="39"/>
+      <c r="T91" s="39"/>
+      <c r="U91" s="39"/>
+      <c r="V91" s="39"/>
+      <c r="W91" s="39"/>
+      <c r="X91" s="39"/>
+      <c r="Y91" s="39"/>
+      <c r="Z91" s="39"/>
+      <c r="AA91" s="39"/>
       <c r="AB91" s="21"/>
       <c r="AC91" s="21"/>
-      <c r="AD91" s="34" t="s">
+      <c r="AD91" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="AE91" s="34"/>
-      <c r="AF91" s="34"/>
-      <c r="AG91" s="34"/>
-      <c r="AH91" s="34"/>
-      <c r="AI91" s="34"/>
-      <c r="AJ91" s="34"/>
-      <c r="AK91" s="34"/>
-      <c r="AL91" s="34"/>
-      <c r="AM91" s="34"/>
+      <c r="AE91" s="40"/>
+      <c r="AF91" s="40"/>
+      <c r="AG91" s="40"/>
+      <c r="AH91" s="40"/>
+      <c r="AI91" s="40"/>
+      <c r="AJ91" s="40"/>
+      <c r="AK91" s="40"/>
+      <c r="AL91" s="40"/>
+      <c r="AM91" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="O90:AA90"/>
+    <mergeCell ref="O91:AA91"/>
+    <mergeCell ref="AD91:AM91"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="AD90:AM90"/>
+    <mergeCell ref="M8:U8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="O89:AA89"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:F9"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="AE8:AM8"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AK9:AM9"/>
+    <mergeCell ref="V8:AD8"/>
     <mergeCell ref="A1:AM1"/>
     <mergeCell ref="A2:AM2"/>
     <mergeCell ref="A3:AM3"/>
@@ -22472,36 +22532,6 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="AE8:AM8"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AK9:AM9"/>
-    <mergeCell ref="V8:AD8"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:F9"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M8:U8"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="O89:AA89"/>
-    <mergeCell ref="O90:AA90"/>
-    <mergeCell ref="O91:AA91"/>
-    <mergeCell ref="AD91:AM91"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="AD90:AM90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
